--- a/策划案/Java/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT物联网平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet1" sheetId="84" state="hidden" r:id="rId5"/>
     <sheet name="群组页面" sheetId="80" r:id="rId6"/>
     <sheet name="产品页面" sheetId="81" r:id="rId7"/>
-    <sheet name="项目优先级" sheetId="85" r:id="rId8"/>
+    <sheet name="规则模块" sheetId="87" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="644">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -738,11 +738,494 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>原型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组概览</t>
+    <t>设备绑定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属产品的链接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看设备的链接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑操作需要弹出框2次确认。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示当前选中分组和其子分组的所有设备，按设备名称升序排列</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击绑定设备，右侧绑定设备面板划出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击刷新设备，重新请求一次设备列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps:这个操作其实只会在用户打开2个相同页面的页签时实际发挥作用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与设备列表页面中的所有设备类似，只是这里不提供命名空间筛选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头的勾选项点击后，会把本页所有设备都勾选上。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表展示还没有添加进这个分组的设备。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表有4列，分别是勾选项，设备名称，设备Id和所属产品。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个列表项的勾选表示要把这个设备添加进该分组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>点击后把所有勾选的设备(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即使不在本页)，加入到选定分组。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功后页签折叠回去。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后重置所有勾选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后折回页签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计人员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目创建</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品创建</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型在线配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型离线配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计预期用时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计截止时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发预期用时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发截止时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术人员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型上传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型套用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在版本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 产品管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计完成情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备分组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备接入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议接入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线鉴权</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上行事件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下行数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据回流</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分库分表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>千位吊唁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19983242695</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警规则管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警规则监听</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警规则解析</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警数据管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警通知</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计分析</t>
+  </si>
+  <si>
+    <t>2级子项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统内通知</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信通知</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>email通知</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北向应用服务</t>
+  </si>
+  <si>
+    <t>接口服务</t>
+  </si>
+  <si>
+    <t>消息服务</t>
+  </si>
+  <si>
+    <t>应用情况统计</t>
+  </si>
+  <si>
+    <t>产品情况统计</t>
+  </si>
+  <si>
+    <t>设备情况统计</t>
+  </si>
+  <si>
+    <t>数据情况统计</t>
+  </si>
+  <si>
+    <t>调用情况统计</t>
+  </si>
+  <si>
+    <t>接口调用情况</t>
+  </si>
+  <si>
+    <t>设备数据接口</t>
+  </si>
+  <si>
+    <t>业务数据接口</t>
+  </si>
+  <si>
+    <t>其他接口</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备日志</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志上传</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚智勇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品页面的界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使设备可以分组查看，便于信息统计与设备管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以通过类似账号注册的方式新增设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户还可以用过使用J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>son配置文件批量新增设备</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -756,97 +1239,1440 @@
       </rPr>
       <t>2.</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以在页面上较方便的查看已注册的设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于设备预先注册，设置登录密码。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>以列表形式展示出注册的设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>并提供一些筛选和条件查找功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许用户创建群组，并把注册到账户上的设备添加进群组。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便用户对已注册的设备进行分组管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>四.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>七.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个项目下有多个产品，每个产品定义了一个上行数据模型和下发命令数据模型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备上传的数据，需要经过产品层数据模型的校验，才可以进入数据库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上行数据校验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令下发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品 介绍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能关联</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对设备上传数据和下发数据的行为进行定义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在命令下发页面，或在应用侧API处，可以对对应设备下发定义好的命令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品列表页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概览</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能简介</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在右上方下拉菜单中选定特定项目，展示出该项目下的产品列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表包含信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供产品名称，并附带产品跳转的链接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品Id，设备类型，协议，操作相关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议包含</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQTT, CoAp,HTTP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互逻辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击产品名称和详情，跳转产品详情界面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除，需要弹出一个确认框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击创建产品，弹出创建产品界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建产品页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能简介</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单包含项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目，产品名称，协议类型，数据格式，所属行业，设备类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用模板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以上传json配置文件进行创建，同时初始化上行数据模型和下发命令模型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据格式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>son，Protobuf</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个项目下，产品名不可重复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>四.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品详情界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含基础信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称，产品Id，所属设备数，所属项目，设备类型，协议类型，数据格式，最后修改时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互相关</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击注册数量，跳转到设备列表页面，并设置筛选项为当前产品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个产品有且只有一个上行数据模型和下发命令模型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型属性字段展示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示属性名称，数据类型，是否必要和描述字段，不展示约束字段。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型字段操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除要谈确认对话框，修改弹出添加属性的界面，只是相关的属性已经自动填上。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传你配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以上传配置文件进行自动模型配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>点击导出配置，产品的配置信息导出成J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>son自动下载给用户</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增属性页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名称，是否必选，属性类型，约束，描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同属性约束条件不同</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>String类型约束为长度和枚举。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举用,分隔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果枚举元素值超过长度，提交表单时报错</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>暂时只支持S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tring,Integer,Double</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer,Double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束为范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认，撤销，×</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>该界面展示设备的基本信息，和影子信息。以及重置秘钥的操作。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括设备名称，在线情况，设备Id，认证类型，注册时间，所属产品和节点类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前认证类型只支持秘钥，后续会添加指纹等功能。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置秘钥操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击重置秘钥，弹出右图所示弹框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以点击自动生成，生成一个随机的秘钥。生成秘钥算法要求重复率较低，长度在20位以内。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备影子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓设备影子，即是设备上一次上传的消息。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备影子显示上次上传数据的时间，和上传数据的属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认后完成重置秘钥操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个设备只有1个命令下发模型。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示命令下发模型的各字段的表单。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里要前端拉去数据并动态生成。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令表单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户上传下发命令的Json文件，命令表单根据文件内容自动填充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户点击下发按钮，向设备下发数据。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cmd" : "test",
+"data" ： {
+ "k1" : "v1",
+ "k2" : 100,
+ "k3" : "v1",
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据格式为：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息追踪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个功能用于排查设备的故障，检测一段时间内设备的业务数据。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本功能和华为版完全一致，包含开启追踪，显示追踪数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时用于开发阶段的调试功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含流水号，节点类型，记录时间，业务详情和操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务详情显示源数据，如果是二进制数据，也直接丢2进制乱码数据。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务详情只显示1行，超过在末尾用…展示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务详情提供一个复制按钮，方便调试使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据追踪按钮交互</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击查看，展示完整的业务详情数据，如右图所示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击数据追踪弹出如下界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击弹出原型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作如图所示，不做赘述。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚智勇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚智勇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚智勇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备详情界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组可以绑定规则，使群组下的所有设备和规则关联。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>便于规则绑定，使设备批量应用规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概浏览</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击左边节点树节点，显示该群组节点的详情信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>六.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组节点是树状结构，根结点是所有群组。用户可以在根结点或其他子节点下创建群组节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组与设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个设备可以绑定在多个群组节点上。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>父群组的规则，可以应用到所有子群组上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个设备，最多绑定10个群组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组操作&amp;群组概览</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除，弹出删除确认框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击左上角的+按钮，弹出添加群组窗口，编辑完成后完成群组添加</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组节点操作概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击刷新，再次请求一下节点树信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组概览显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组统计信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子群组数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps:按照当前设计，一个传感器设备及一个产品，一套设备是一个群组，一个项目会卖出多套设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组创建日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示设备分组的详细描述。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑按钮，下方出现取消和确定按钮，点击确定后保存退出编辑状态，点击取消也退出编辑状态。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加群组页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含表单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级群组，群组名称，群组描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级群组帮用户自动填写，根据用户选中的群组节点。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有选中群组节点，则父级群组是"所有群组"这个根结点。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>八.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>设备列表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>设备绑定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组节点有选中态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加群组、删除群组、刷新</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>右侧的信息面板，是根据选中的群组展示的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删操作也是针对选中的群组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中所有群组时，上方操作按钮只显示刷新</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组名称、群组描述、子群组个数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑状态下，才会出现下方的取消和保存按钮，但编辑按钮消失</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属产品的链接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看设备的链接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>解绑设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>解绑操作需要弹出框2次确认。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示规则</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示当前选中分组和其子分组的所有设备，按设备名称升序排列</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击绑定设备，右侧绑定设备面板划出</t>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击绑定设备，绑定设备页面弹出或从右向左滑出（浏览器需要支持蒙版功能，不好做就弹出）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击》按钮，绑定设备页面折回</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示绑定的规则链接，删除规则的x号，以及绑定规则按钮</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -863,48 +2689,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>刷新设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击刷新设备，重新请求一次设备列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps:这个操作其实只会在用户打开2个相同页面的页签时实际发挥作用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>与设备列表页面中的所有设备类似，只是这里不提供命名空间筛选</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>表头的勾选项点击后，会把本页所有设备都勾选上。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表展示还没有添加进这个分组的设备。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表有4列，分别是勾选项，设备名称，设备Id和所属产品。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个列表项的勾选表示要把这个设备添加进该分组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>点击后把所有勾选的设备(</t>
+    <t>群组概览交互</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
     </r>
     <r>
       <rPr>
@@ -914,23 +2704,38 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>即使不在本页)，加入到选定分组。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功后页签折叠回去。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>撤销按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击后重置所有勾选</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击绑定规则，弹出如图界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击x号，弹出确认框，点击确认后删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则绑定页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -939,282 +2744,93 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>5.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回按钮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击后折回页签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计人员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目创建</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品创建</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型在线配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型离线配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计预期用时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计截止时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发预期用时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发截止时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发人员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术人员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型上传</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型套用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在版本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>子项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 产品管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计完成情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发完成情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备分组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备接入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议接入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线鉴权</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上行事件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下行数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>离线数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据回流</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分库分表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>千位吊唁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>19983242695</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>告警管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>告警规则管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>告警规则监听</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>告警规则解析</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>告警数据管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>告警通知</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计分析</t>
-  </si>
-  <si>
-    <t>2级子项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统内通知</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信通知</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>email通知</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北向应用服务</t>
-  </si>
-  <si>
-    <t>接口服务</t>
-  </si>
-  <si>
-    <t>消息服务</t>
-  </si>
-  <si>
-    <t>应用情况统计</t>
-  </si>
-  <si>
-    <t>产品情况统计</t>
-  </si>
-  <si>
-    <t>设备情况统计</t>
-  </si>
-  <si>
-    <t>数据情况统计</t>
-  </si>
-  <si>
-    <t>调用情况统计</t>
-  </si>
-  <si>
-    <t>接口调用情况</t>
-  </si>
-  <si>
-    <t>设备数据接口</t>
-  </si>
-  <si>
-    <t>业务数据接口</t>
-  </si>
-  <si>
-    <t>其他接口</t>
-  </si>
-  <si>
-    <t>RabbitMQ</t>
-  </si>
-  <si>
-    <t>Kafka</t>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击绑定规则，展示如右图所示页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击x或撤销退出该弹出页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定添加所选择的规则，而后退出页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示所选项目下所有未被添加进该群组的规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击表头的选择框，本页规则全选，再次点击本页全部变为非选择态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击数据行的选择框，该条规则进入选择态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每页显示5条规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过5条则显示分页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些想进入物联网行业的中小公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1224,32 +2840,265 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺乏资金，缺技术储备，难以自己开发物联网大数据系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精益创业的团队</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>诉求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用尽可能低的成本，尽可能快的速度，做出产品MVP，验证物联网产品想法。等想法验证后再进入下一轮迭代，正式开发。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备日志</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志上传</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>褚智勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品页面的界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计目的</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生做社团项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望了解物联网行业，尝试制作一些小产品。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概率是嵌入式类社团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用我们的规则引擎，避免处理大数据高并发相关的业务，低成本制造产品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是目标的用户</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大公司使用物联网平台，更多是节省设备接入的开发成本。建议使用北向应用接入和数据转发功能完成产品。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然，在敏捷开发模式下，规则引擎可以用在立项初期，快速制作产品原型，快速定位产品目标，同b所述。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着5G通信技术和智能硬件的发展，物联网逐渐成为一个大有可为的行业，越来越多的中小公司希望加入或了解调研物联网行业。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则模块，可以为开发团队提供一个快速简易的方式，实现上报属性的设备联动，站内告警，北向应用通知等功能。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>避免研发团队处理高并发的规则联动问题，从而降低开发成本，提升研发速度。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄清目标用户，有助于我们在设计时，避免过度设计和设计不足的问题。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这一点，在这个模块中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尤为重要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望在只接SDK的情况下，完成demo（不开发Java后台）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>需要尽量排除技术原因所带来的产品原型失真，导致验证不准确。规则需要提供一些更灵活的功能，如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加载脚本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>综上所述，规则引擎不是为大公司定制，故</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不会涉及过于复杂的业务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在项目下创建规则，在设备群组下绑定规则，使指定规则与设备群组下的设备关联。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个规则引擎包含触发条件和触发动作，针对的粒度是群组下所有特定类型的产品。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当某些设备上报属性满足规则的条件，则触发动作。通知群组下某产品的所有设备执行命令吗，或站内告警，或发送主题消息。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则添加与编辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则列表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1266,7 +3115,304 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>使设备可以分组查看，便于信息统计与设备管理</t>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>odo</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内产品列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品数量选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择全部时，必须满足所有条件才会触发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表，包含"全部“和"某一个”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择某一个时，只要一个条件满足，就回触发规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发间隔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>默认为-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1，表示不设置间隔。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>当设置间隔时，触发动作后，需要过指定时间（秒），才会继续触发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行动作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加动作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>补文档和U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E图，预计和华为几乎没有出入，</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源空间“改为项目”</t>
+  </si>
+  <si>
+    <t>规则名称做成链接，点击跳转规则详情。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2).</t>
+  </si>
+  <si>
+    <t>1).</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3).</t>
+  </si>
+  <si>
+    <t>2).</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3).</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4).</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2).</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>e.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认取消按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑按钮，进入编辑状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认撤销按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在编辑状态下，才显示确认和取消按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备属性上传流程简述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1274,11 +3420,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>五.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计目的</t>
+    <t>四.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1295,27 +3437,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新增设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以通过类似账号注册的方式新增设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>用户还可以用过使用J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>son配置文件批量新增设备</t>
-    </r>
+    <t>流程简图</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1332,74 +3454,13 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>用户可以在页面上较方便的查看已注册的设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于设备预先注册，设置登录密码。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>以列表形式展示出注册的设备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>并提供一些筛选和条件查找功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许用户创建群组，并把注册到账户上的设备添加进群组。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计目的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>方便用户对已注册的设备进行分组管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>四.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>六.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>七.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>八.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>九.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+    <t>遍历设备上的各规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际实现上，可以</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1408,19 +3469,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>1.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个项目下有多个产品，每个产品定义了一个上行数据模型和下发命令数据模型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+      <t>在设备登录时，</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1429,89 +3479,128 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>2.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备上传的数据，需要经过产品层数据模型的校验，才可以进入数据库</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上行数据校验</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令下发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品 介绍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能关联</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计目的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对设备上传数据和下发数据的行为进行定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在命令下发页面，或在应用侧API处，可以对对应设备下发定义好的命令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品列表页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>原型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能概览</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能简介</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在右上方下拉菜单中选定特定项目，展示出该项目下的产品列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>概述：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线设备上的规则Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放入redis中，不用每次做2重循环。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改规则时，记得更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发动作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>对于命令下发的动作，如果没有收到O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>K(200)回复信息，则把这次失败记录到设备影子中（Json形式）。只记录最新的一次。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多条件关系</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多条件关系目前只支持2种，一种是and(与)关系，一种是or(或)关系</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>选择全部条件是a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nd关系，选择某一条件是or关系</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
     </r>
     <r>
       <rPr>
@@ -1526,24 +3615,28 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>列表包含信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供产品名称，并附带产品跳转的链接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品Id，设备类型，协议，操作相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
+    <t>触发间隔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>设置触发间隔，-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1表示没有间隔，设置x，表示一次动作触发后，x秒才会再次触发</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -1558,64 +3651,56 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>协议包含</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MQTT, CoAp,HTTP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互逻辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击产品名称和详情，跳转产品详情界面。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击删除，需要弹出一个确认框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击创建产品，弹出创建产品界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建产品页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能简介</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单包含项</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属项目，产品名称，协议类型，数据格式，所属行业，设备类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用模板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以上传json配置文件进行创建，同时初始化上行数据模型和下发命令模型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据格式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>J</t>
+    <t>产品选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品选择是一个下拉列表，可选择项目下的任何一个产品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备范围选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备范围选择，有3个选项，某个设备，全部设备，lua脚本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示某个设备上报属性在条件范围内，该条件为真</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示该产品下全部设备上报属性都在范围内，该条件为真（使用设备影子功能）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
     </r>
     <r>
       <rPr>
@@ -1625,53 +3710,193 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>son，Protobuf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一个项目下，产品名不可重复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>四.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品详情界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含基础信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称，产品Id，所属设备数，所属项目，设备类型，协议类型，数据格式，最后修改时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
+      <t>ua脚本</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户上传一个l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ua脚本，来判断该条件是否为真</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为效率期间，lua脚本采取某个设备模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当一个设备上报属性，会向l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ua脚本中传入该设备影子，让脚本去判断。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>默认脚本中，调用函数d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oAction</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果脚本执行错误，则把该错误发送到设备的消息追踪中(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前提要开启消息追踪)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#注意</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua库要重新编译一下，把系统函数模块注释掉，只让用户使用四则运算循环函数Math库等基础功能。全局变量也要禁掉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性选择是个下拉列表，可选择产品下的所有属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件选择是个下拉列表，有6个选项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;,&gt;=,=,&lt;=,&lt;,范围</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果选择为范围，条件值用,分隔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件值是一个输入框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果选择l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ua脚本模式，条件选择如图所示</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加条件，则新建一条条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
     </r>
     <r>
       <rPr>
@@ -1686,28 +3911,64 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>交互相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击注册数量，跳转到设备列表页面，并设置筛选项为当前产品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个产品有且只有一个上行数据模型和下发命令模型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
+    <t>触发动作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发动作有4中类型，下发命令，发送通知</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发命令：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品选择是一个下拉框，展示该项目下的所有产品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据产品选择，展示要发送的命令名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前因硬件限制，一个产品只能执行一个命令，故这里就直接帮用户选择好了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击弹出右图参数配置，根据产品模型中的字段生成表单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送通知：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知主题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知主题是一个下拉列表，在产品中配置（这部分文档还没写）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑通知内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑通知内容，弹出如图窗体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>消息内容支持E</t>
     </r>
     <r>
       <rPr>
@@ -1717,555 +3978,12 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型属性字段展示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示属性名称，数据类型，是否必要和描述字段，不展示约束字段。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型字段操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除要谈确认对话框，修改弹出添加属性的界面，只是相关的属性已经自动填上。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传你配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以上传配置文件进行自动模型配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>点击导出配置，产品的配置信息导出成J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>son自动下载给用户</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>五.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增属性页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名称，是否必选，属性类型，约束，描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同属性约束条件不同</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>String类型约束为长度和枚举。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举用,分隔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果枚举元素值超过长度，提交表单时报错</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>暂时只支持S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tring,Integer,Double</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer,Double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束为范围</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认，撤销，×</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加群组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备详情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>原型图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>该界面展示设备的基本信息，和影子信息。以及重置秘钥的操作。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括设备名称，在线情况，设备Id，认证类型，注册时间，所属产品和节点类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前认证类型只支持秘钥，后续会添加指纹等功能。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置秘钥操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击重置秘钥，弹出右图所示弹框</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以点击自动生成，生成一个随机的秘钥。生成秘钥算法要求重复率较低，长度在20位以内。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备影子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所谓设备影子，即是设备上一次上传的消息。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备影子显示上次上传数据的时间，和上传数据的属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击确认后完成重置秘钥操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个设备只有1个命令下发模型。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示命令下发模型的各字段的表单。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里要前端拉去数据并动态生成。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传文件功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令表单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户上传下发命令的Json文件，命令表单根据文件内容自动填充</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户点击下发按钮，向设备下发数据。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"cmd" : "test",
-"data" ： {
- "k1" : "v1",
- "k2" : 100,
- "k3" : "v1",
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据格式为：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息追踪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个功能用于排查设备的故障，检测一段时间内设备的业务数据。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计目的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本功能和华为版完全一致，包含开启追踪，显示追踪数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时用于开发阶段的调试功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>追踪数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含流水号，节点类型，记录时间，业务详情和操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务详情显示源数据，如果是二进制数据，也直接丢2进制乱码数据。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务详情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务详情只显示1行，超过在末尾用…展示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务详情提供一个复制按钮，方便调试使用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据追踪按钮交互</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击查看，展示完整的业务详情数据，如右图所示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击数据追踪弹出如下界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击弹出原型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作如图所示，不做赘述。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>褚智勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>褚智勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>褚智勇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备详情界面</t>
+      <t>L表达式</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来支持上传Json文件</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3693,23 +5411,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>227053</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>94570</xdr:rowOff>
+      <xdr:colOff>655613</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>103930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EC756F-1E39-4301-ACED-D48E49FF0606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,8 +5443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="4505325"/>
-          <a:ext cx="12371428" cy="5438095"/>
+          <a:off x="447675" y="34832925"/>
+          <a:ext cx="12895238" cy="6761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3737,26 +5455,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>285082</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161463</xdr:rowOff>
+      <xdr:colOff>323209</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>170958</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3769,8 +5481,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="238125"/>
-          <a:ext cx="5342857" cy="3695238"/>
+          <a:off x="257175" y="1685925"/>
+          <a:ext cx="5123809" cy="3933333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3782,25 +5494,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>598455</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>37232</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>580369</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>113898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42776A36-0E5F-4905-B017-6E20EB06BCB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3813,8 +5519,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="10277475"/>
-          <a:ext cx="12961905" cy="6942857"/>
+          <a:off x="390525" y="19735800"/>
+          <a:ext cx="5247619" cy="3219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3826,25 +5532,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>531788</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>56305</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>36459</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>75474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EC756F-1E39-4301-ACED-D48E49FF0606}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3857,8 +5557,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="17602200"/>
-          <a:ext cx="12895238" cy="6761905"/>
+          <a:off x="447675" y="25069800"/>
+          <a:ext cx="13123809" cy="5809524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3870,19 +5570,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>780394</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17415</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>199623</xdr:rowOff>
+      <xdr:rowOff>113421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="15" name="图片 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3895,8 +5595,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="12487275"/>
-          <a:ext cx="5247619" cy="3219048"/>
+          <a:off x="476250" y="8591550"/>
+          <a:ext cx="13076190" cy="7028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>732737</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>190108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="20316825"/>
+          <a:ext cx="5504762" cy="3133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4130,6 +5868,277 @@
         <a:xfrm>
           <a:off x="495300" y="18240375"/>
           <a:ext cx="13123809" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542050</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>84945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="7467600"/>
+          <a:ext cx="7000000" cy="6238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>93264</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>85409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="14116050"/>
+          <a:ext cx="15885714" cy="2523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>484386</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>37602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="7581900"/>
+          <a:ext cx="11114286" cy="3980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>65034</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>75300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="24726900"/>
+          <a:ext cx="13123809" cy="7200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>712878</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>9393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="41281350"/>
+          <a:ext cx="11971428" cy="1057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>618471</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>9165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7229475" y="44072175"/>
+          <a:ext cx="5228571" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>732769</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>56794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="47082075"/>
+          <a:ext cx="5247619" cy="2847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4434,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>1</v>
@@ -4500,10 +6509,10 @@
         <v>43949</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E9" s="45"/>
     </row>
@@ -4512,10 +6521,10 @@
         <v>43951</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="E10" s="45"/>
     </row>
@@ -4713,58 +6722,58 @@
   <sheetData>
     <row r="4" spans="2:19" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="L4" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="M4" s="23" t="s">
-        <v>175</v>
-      </c>
       <c r="N4" s="23" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B5" s="49" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G5" s="22">
         <v>0.1</v>
@@ -4780,14 +6789,14 @@
     <row r="6" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B6" s="49"/>
       <c r="C6" s="22" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G6" s="22">
         <v>0.1</v>
@@ -4803,14 +6812,14 @@
     <row r="7" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B7" s="49"/>
       <c r="C7" s="22" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G7" s="22">
         <v>0.1</v>
@@ -4825,17 +6834,17 @@
     </row>
     <row r="8" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B8" s="49" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G8" s="22">
         <v>0.1</v>
@@ -4851,14 +6860,14 @@
     <row r="9" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B9" s="49"/>
       <c r="C9" s="22" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G9" s="22">
         <v>0.1</v>
@@ -4874,14 +6883,14 @@
     <row r="10" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B10" s="49"/>
       <c r="C10" s="22" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G10" s="22">
         <v>0.1</v>
@@ -4894,19 +6903,19 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="S10" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B11" s="49" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -4918,17 +6927,17 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="S11" s="21" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B12" s="49"/>
       <c r="C12" s="22" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -4943,11 +6952,11 @@
     <row r="13" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B13" s="49"/>
       <c r="C13" s="22" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -4962,11 +6971,11 @@
     <row r="14" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B14" s="49"/>
       <c r="C14" s="22" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -4980,14 +6989,14 @@
     </row>
     <row r="15" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B15" s="49" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -5002,11 +7011,11 @@
     <row r="16" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B16" s="49"/>
       <c r="C16" s="22" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -5021,11 +7030,11 @@
     <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B17" s="49"/>
       <c r="C17" s="22" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -5040,11 +7049,11 @@
     <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B18" s="49"/>
       <c r="C18" s="22" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -5059,11 +7068,11 @@
     <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B19" s="49"/>
       <c r="C19" s="22" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -5078,11 +7087,11 @@
     <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B20" s="49"/>
       <c r="C20" s="24" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -5096,14 +7105,14 @@
     </row>
     <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B21" s="49" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -5118,11 +7127,11 @@
     <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B22" s="49"/>
       <c r="C22" s="22" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -5137,11 +7146,11 @@
     <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B23" s="49"/>
       <c r="C23" s="22" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -5156,11 +7165,11 @@
     <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B24" s="49"/>
       <c r="C24" s="22" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -5175,11 +7184,11 @@
     <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B25" s="49"/>
       <c r="C25" s="24" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
@@ -5194,11 +7203,11 @@
     <row r="26" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B26" s="49"/>
       <c r="C26" s="22" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
@@ -5213,11 +7222,11 @@
     <row r="27" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B27" s="49"/>
       <c r="C27" s="22" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -5231,14 +7240,14 @@
     </row>
     <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B28" s="49" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
@@ -5253,11 +7262,11 @@
     <row r="29" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B29" s="49"/>
       <c r="C29" s="22" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -5272,11 +7281,11 @@
     <row r="30" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B30" s="49"/>
       <c r="C30" s="22" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
@@ -5290,14 +7299,14 @@
     </row>
     <row r="31" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B31" s="49" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
@@ -5312,11 +7321,11 @@
     <row r="32" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B32" s="49"/>
       <c r="C32" s="22" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
@@ -5331,11 +7340,11 @@
     <row r="33" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B33" s="49"/>
       <c r="C33" s="22" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -5350,11 +7359,11 @@
     <row r="34" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B34" s="49"/>
       <c r="C34" s="22" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
@@ -5369,13 +7378,13 @@
     <row r="35" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B35" s="49"/>
       <c r="C35" s="22" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
@@ -5390,13 +7399,13 @@
     <row r="36" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B36" s="49"/>
       <c r="C36" s="22" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
@@ -5411,13 +7420,13 @@
     <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B37" s="49"/>
       <c r="C37" s="22" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D37" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="24" t="s">
         <v>201</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>217</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
@@ -5431,16 +7440,16 @@
     </row>
     <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B38" s="49" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
@@ -5456,10 +7465,10 @@
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
       <c r="D39" s="22" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
@@ -5475,10 +7484,10 @@
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
       <c r="D40" s="22" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
@@ -5494,10 +7503,10 @@
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
       <c r="D41" s="22" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
@@ -5512,13 +7521,13 @@
     <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B42" s="49"/>
       <c r="C42" s="49" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
@@ -5534,10 +7543,10 @@
       <c r="B43" s="49"/>
       <c r="C43" s="49"/>
       <c r="D43" s="22" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
@@ -5551,14 +7560,14 @@
     </row>
     <row r="44" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B44" s="49" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
@@ -5573,11 +7582,11 @@
     <row r="45" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B45" s="49"/>
       <c r="C45" s="22" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
@@ -5592,11 +7601,11 @@
     <row r="46" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B46" s="49"/>
       <c r="C46" s="22" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -5611,11 +7620,11 @@
     <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B47" s="49"/>
       <c r="C47" s="22" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -5630,11 +7639,11 @@
     <row r="48" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B48" s="49"/>
       <c r="C48" s="22" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -5648,9 +7657,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -5659,6 +7665,9 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B38:B43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5669,7 +7678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
@@ -5714,44 +7723,44 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C6" s="19" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C7" s="19" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
@@ -5789,11 +7798,11 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="17" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -5821,29 +7830,29 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C25" s="19" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -6343,7 +8352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
@@ -6361,7 +8370,7 @@
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="17" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -6389,11 +8398,11 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="17" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -6421,10 +8430,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -6452,10 +8461,10 @@
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B57" s="25" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
@@ -6483,75 +8492,75 @@
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D60" s="19" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D61" s="19" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D63" s="19" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D64" s="19" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D65" s="19" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C66" s="19" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D67" s="19" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D68" s="19" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="17" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -6579,10 +8588,10 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" s="25" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
@@ -6610,10 +8619,10 @@
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B106" s="25" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
@@ -6641,50 +8650,50 @@
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C108" s="19" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D110" s="19" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D112" s="19" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="19"/>
       <c r="H114" s="28"/>
       <c r="I114" s="50" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="J114" s="49"/>
       <c r="K114" s="49"/>
@@ -6727,24 +8736,24 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C121" s="19" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="17" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
@@ -6772,10 +8781,10 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B125" s="25" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="D125" s="27"/>
       <c r="E125" s="27"/>
@@ -6803,10 +8812,10 @@
     </row>
     <row r="161" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B161" s="25" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27"/>
@@ -6834,84 +8843,84 @@
     </row>
     <row r="162" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C162" s="19" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
     </row>
     <row r="163" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C163" s="19"/>
       <c r="D163" s="19" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
     </row>
     <row r="164" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C164" s="19"/>
       <c r="D164" s="19" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="165" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C165" s="19" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="166" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D166" s="19" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
     </row>
     <row r="167" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="168" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D168" s="19" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="169" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="170" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E171" s="19" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="172" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E172" s="19" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="173" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D173" s="19" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
     </row>
     <row r="174" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B174" s="25" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="D174" s="27"/>
       <c r="E174" s="27"/>
@@ -6939,23 +8948,23 @@
     </row>
     <row r="175" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C175" s="19" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="176" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D176" s="19" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C190" s="19" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -6986,10 +8995,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z190"/>
+  <dimension ref="A1:Z239"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="X66" sqref="X66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7033,558 +9042,1248 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>224</v>
-      </c>
+      <c r="A5" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
+      <c r="B29" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B33" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C34" s="19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C36" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C37" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C38" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B41" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C41" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B76" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="27"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C77" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C78" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C79" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C80" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B81" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="27"/>
+    </row>
+    <row r="82" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C82" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C83" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D84" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="85" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D85" s="19"/>
+      <c r="E85" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D86" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D87" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C88" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D89" s="19" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C90" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D91" s="19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="92" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D92" s="19" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="93" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B93" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="D93" s="26"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="27"/>
+      <c r="U93" s="27"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="27"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+    </row>
+    <row r="94" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C94" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D95" s="19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="96" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C96" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="97" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D97" s="19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B98" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="D98" s="26"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="27"/>
+      <c r="N98" s="27"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="27"/>
+      <c r="Q98" s="27"/>
+      <c r="R98" s="27"/>
+      <c r="S98" s="27"/>
+      <c r="T98" s="27"/>
+      <c r="U98" s="27"/>
+      <c r="V98" s="27"/>
+      <c r="W98" s="27"/>
+      <c r="X98" s="27"/>
+      <c r="Y98" s="27"/>
+      <c r="Z98" s="27"/>
+    </row>
+    <row r="99" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C99" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="100" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D100" s="19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="101" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C101" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="102" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C102" s="19"/>
+      <c r="D102" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="103" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C103" s="19"/>
+      <c r="D103" s="19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="104" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C104" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="105" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C105" s="19"/>
+      <c r="D105" s="19" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="106" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C106" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="107" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C107" s="19"/>
+      <c r="D107" s="19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="108" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C108" s="19"/>
+      <c r="D108" s="19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="109" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C109" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="110" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C110" s="19"/>
+      <c r="D110" s="19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C111" s="19"/>
+      <c r="D111" s="19" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="112" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D112" s="19"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A113" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+      <c r="Q113" s="13"/>
+      <c r="R113" s="13"/>
+      <c r="S113" s="13"/>
+      <c r="T113" s="13"/>
+      <c r="U113" s="13"/>
+      <c r="V113" s="13"/>
+      <c r="W113" s="13"/>
+      <c r="X113" s="13"/>
+      <c r="Y113" s="13"/>
+      <c r="Z113" s="13"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B114" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="27"/>
+      <c r="M114" s="27"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="27"/>
+      <c r="Q114" s="27"/>
+      <c r="R114" s="27"/>
+      <c r="S114" s="27"/>
+      <c r="T114" s="27"/>
+      <c r="U114" s="27"/>
+      <c r="V114" s="27"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="27"/>
+      <c r="Y114" s="27"/>
+      <c r="Z114" s="27"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B126" s="18"/>
+      <c r="C126" s="19"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B132" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="27"/>
+      <c r="P132" s="27"/>
+      <c r="Q132" s="27"/>
+      <c r="R132" s="27"/>
+      <c r="S132" s="27"/>
+      <c r="T132" s="27"/>
+      <c r="U132" s="27"/>
+      <c r="V132" s="27"/>
+      <c r="W132" s="27"/>
+      <c r="X132" s="27"/>
+      <c r="Y132" s="27"/>
+      <c r="Z132" s="27"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C133" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D134" s="19" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C135" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D136" s="19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D137" s="19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A138" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="O138" s="13"/>
+      <c r="P138" s="13"/>
+      <c r="Q138" s="13"/>
+      <c r="R138" s="13"/>
+      <c r="S138" s="13"/>
+      <c r="T138" s="13"/>
+      <c r="U138" s="13"/>
+      <c r="V138" s="13"/>
+      <c r="W138" s="13"/>
+      <c r="X138" s="13"/>
+      <c r="Y138" s="13"/>
+      <c r="Z138" s="13"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B139" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="27"/>
+      <c r="M139" s="27"/>
+      <c r="N139" s="27"/>
+      <c r="O139" s="27"/>
+      <c r="P139" s="27"/>
+      <c r="Q139" s="27"/>
+      <c r="R139" s="27"/>
+      <c r="S139" s="27"/>
+      <c r="T139" s="27"/>
+      <c r="U139" s="27"/>
+      <c r="V139" s="27"/>
+      <c r="W139" s="27"/>
+      <c r="X139" s="27"/>
+      <c r="Y139" s="27"/>
+      <c r="Z139" s="27"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B145" s="18"/>
+      <c r="C145" s="19"/>
+    </row>
+    <row r="169" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B169" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="27"/>
+      <c r="K169" s="27"/>
+      <c r="L169" s="27"/>
+      <c r="M169" s="27"/>
+      <c r="N169" s="27"/>
+      <c r="O169" s="27"/>
+      <c r="P169" s="27"/>
+      <c r="Q169" s="27"/>
+      <c r="R169" s="27"/>
+      <c r="S169" s="27"/>
+      <c r="T169" s="27"/>
+      <c r="U169" s="27"/>
+      <c r="V169" s="27"/>
+      <c r="W169" s="27"/>
+      <c r="X169" s="27"/>
+      <c r="Y169" s="27"/>
+      <c r="Z169" s="27"/>
+    </row>
+    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C170" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C171" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C172" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="173" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C173" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D173" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A147" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B147" s="17" t="s">
+    <row r="174" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D174" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="13"/>
-      <c r="K147" s="13"/>
-      <c r="L147" s="13"/>
-      <c r="M147" s="13"/>
-      <c r="N147" s="13"/>
-      <c r="O147" s="13"/>
-      <c r="P147" s="13"/>
-      <c r="Q147" s="13"/>
-      <c r="R147" s="13"/>
-      <c r="S147" s="13"/>
-      <c r="T147" s="13"/>
-      <c r="U147" s="13"/>
-      <c r="V147" s="13"/>
-      <c r="W147" s="13"/>
-      <c r="X147" s="13"/>
-      <c r="Y147" s="13"/>
-      <c r="Z147" s="13"/>
-    </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B148" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="19" t="s">
+    </row>
+    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D175" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B149" s="18"/>
-      <c r="C149" s="19" t="s">
+    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E176" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B177" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="C177" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+      <c r="K177" s="27"/>
+      <c r="L177" s="27"/>
+      <c r="M177" s="27"/>
+      <c r="N177" s="27"/>
+      <c r="O177" s="27"/>
+      <c r="P177" s="27"/>
+      <c r="Q177" s="27"/>
+      <c r="R177" s="27"/>
+      <c r="S177" s="27"/>
+      <c r="T177" s="27"/>
+      <c r="U177" s="27"/>
+      <c r="V177" s="27"/>
+      <c r="W177" s="27"/>
+      <c r="X177" s="27"/>
+      <c r="Y177" s="27"/>
+      <c r="Z177" s="27"/>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C178" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B150" s="18"/>
-      <c r="C150" s="19" t="s">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B179" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C179" s="26" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B151" s="18"/>
-      <c r="C151" s="19" t="s">
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="27"/>
+      <c r="K179" s="27"/>
+      <c r="L179" s="27"/>
+      <c r="M179" s="27"/>
+      <c r="N179" s="27"/>
+      <c r="O179" s="27"/>
+      <c r="P179" s="27"/>
+      <c r="Q179" s="27"/>
+      <c r="R179" s="27"/>
+      <c r="S179" s="27"/>
+      <c r="T179" s="27"/>
+      <c r="U179" s="27"/>
+      <c r="V179" s="27"/>
+      <c r="W179" s="27"/>
+      <c r="X179" s="27"/>
+      <c r="Y179" s="27"/>
+      <c r="Z179" s="27"/>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C180" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B152" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C153" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A155" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B155" s="17" t="s">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B181" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C181" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="13"/>
-      <c r="J155" s="13"/>
-      <c r="K155" s="13"/>
-      <c r="L155" s="13"/>
-      <c r="M155" s="13"/>
-      <c r="N155" s="13"/>
-      <c r="O155" s="13"/>
-      <c r="P155" s="13"/>
-      <c r="Q155" s="13"/>
-      <c r="R155" s="13"/>
-      <c r="S155" s="13"/>
-      <c r="T155" s="13"/>
-      <c r="U155" s="13"/>
-      <c r="V155" s="13"/>
-      <c r="W155" s="13"/>
-      <c r="X155" s="13"/>
-      <c r="Y155" s="13"/>
-      <c r="Z155" s="13"/>
-    </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B156" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C157" s="19" t="s">
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
+      <c r="K181" s="27"/>
+      <c r="L181" s="27"/>
+      <c r="M181" s="27"/>
+      <c r="N181" s="27"/>
+      <c r="O181" s="27"/>
+      <c r="P181" s="27"/>
+      <c r="Q181" s="27"/>
+      <c r="R181" s="27"/>
+      <c r="S181" s="27"/>
+      <c r="T181" s="27"/>
+      <c r="U181" s="27"/>
+      <c r="V181" s="27"/>
+      <c r="W181" s="27"/>
+      <c r="X181" s="27"/>
+      <c r="Y181" s="27"/>
+      <c r="Z181" s="27"/>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C182" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B158" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C158" s="19" t="s">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C183" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C159" s="19" t="s">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A185" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
+      <c r="K185" s="13"/>
+      <c r="L185" s="13"/>
+      <c r="M185" s="13"/>
+      <c r="N185" s="13"/>
+      <c r="O185" s="13"/>
+      <c r="P185" s="13"/>
+      <c r="Q185" s="13"/>
+      <c r="R185" s="13"/>
+      <c r="S185" s="13"/>
+      <c r="T185" s="13"/>
+      <c r="U185" s="13"/>
+      <c r="V185" s="13"/>
+      <c r="W185" s="13"/>
+      <c r="X185" s="13"/>
+      <c r="Y185" s="13"/>
+      <c r="Z185" s="13"/>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B186" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="27"/>
+      <c r="K186" s="27"/>
+      <c r="L186" s="27"/>
+      <c r="M186" s="27"/>
+      <c r="N186" s="27"/>
+      <c r="O186" s="27"/>
+      <c r="P186" s="27"/>
+      <c r="Q186" s="27"/>
+      <c r="R186" s="27"/>
+      <c r="S186" s="27"/>
+      <c r="T186" s="27"/>
+      <c r="U186" s="27"/>
+      <c r="V186" s="27"/>
+      <c r="W186" s="27"/>
+      <c r="X186" s="27"/>
+      <c r="Y186" s="27"/>
+      <c r="Z186" s="27"/>
+    </row>
+    <row r="220" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B220" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="D220" s="27"/>
+      <c r="E220" s="27"/>
+      <c r="F220" s="27"/>
+      <c r="G220" s="27"/>
+      <c r="H220" s="27"/>
+      <c r="I220" s="27"/>
+      <c r="J220" s="27"/>
+      <c r="K220" s="27"/>
+      <c r="L220" s="27"/>
+      <c r="M220" s="27"/>
+      <c r="N220" s="27"/>
+      <c r="O220" s="27"/>
+      <c r="P220" s="27"/>
+      <c r="Q220" s="27"/>
+      <c r="R220" s="27"/>
+      <c r="S220" s="27"/>
+      <c r="T220" s="27"/>
+      <c r="U220" s="27"/>
+      <c r="V220" s="27"/>
+      <c r="W220" s="27"/>
+      <c r="X220" s="27"/>
+      <c r="Y220" s="27"/>
+      <c r="Z220" s="27"/>
+    </row>
+    <row r="221" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B221" s="18"/>
+      <c r="C221" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D221" s="19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="222" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D222" s="19" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="223" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C223" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="224" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C224" s="19"/>
+      <c r="D224" s="19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="225" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B225" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C225" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="D225" s="27"/>
+      <c r="E225" s="27"/>
+      <c r="F225" s="27"/>
+      <c r="G225" s="27"/>
+      <c r="H225" s="27"/>
+      <c r="I225" s="27"/>
+      <c r="J225" s="27"/>
+      <c r="K225" s="27"/>
+      <c r="L225" s="27"/>
+      <c r="M225" s="27"/>
+      <c r="N225" s="27"/>
+      <c r="O225" s="27"/>
+      <c r="P225" s="27"/>
+      <c r="Q225" s="27"/>
+      <c r="R225" s="27"/>
+      <c r="S225" s="27"/>
+      <c r="T225" s="27"/>
+      <c r="U225" s="27"/>
+      <c r="V225" s="27"/>
+      <c r="W225" s="27"/>
+      <c r="X225" s="27"/>
+      <c r="Y225" s="27"/>
+      <c r="Z225" s="27"/>
+    </row>
+    <row r="226" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C226" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D226" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D227" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A160" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="13"/>
-      <c r="O160" s="13"/>
-      <c r="P160" s="13"/>
-      <c r="Q160" s="13"/>
-      <c r="R160" s="13"/>
-      <c r="S160" s="13"/>
-      <c r="T160" s="13"/>
-      <c r="U160" s="13"/>
-      <c r="V160" s="13"/>
-      <c r="W160" s="13"/>
-      <c r="X160" s="13"/>
-      <c r="Y160" s="13"/>
-      <c r="Z160" s="13"/>
-    </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B161" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="19" t="s">
+    <row r="228" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C228" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="D228" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C162" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D162" s="19" t="s">
+    <row r="229" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C229" s="18"/>
+      <c r="D229" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="230" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D230" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="231" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D231" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C163" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D163" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C164" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D164" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C165" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D165" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D166" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D167" s="19" t="s">
+    <row r="232" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D232" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E168" s="19" t="s">
+    <row r="233" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C233" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D233" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B169" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C169" s="19" t="s">
+    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D234" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C170" s="19" t="s">
+    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D235" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B171" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C171" s="19" t="s">
+    <row r="236" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C236" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D236" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C172" s="19" t="s">
+    <row r="237" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D237" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B173" s="18" t="s">
+    <row r="238" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C238" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="D238" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C173" s="19" t="s">
+    </row>
+    <row r="239" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D239" s="19" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C174" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C175" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A176" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B176" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="13"/>
-      <c r="H176" s="13"/>
-      <c r="I176" s="13"/>
-      <c r="J176" s="13"/>
-      <c r="K176" s="13"/>
-      <c r="L176" s="13"/>
-      <c r="M176" s="13"/>
-      <c r="N176" s="13"/>
-      <c r="O176" s="13"/>
-      <c r="P176" s="13"/>
-      <c r="Q176" s="13"/>
-      <c r="R176" s="13"/>
-      <c r="S176" s="13"/>
-      <c r="T176" s="13"/>
-      <c r="U176" s="13"/>
-      <c r="V176" s="13"/>
-      <c r="W176" s="13"/>
-      <c r="X176" s="13"/>
-      <c r="Y176" s="13"/>
-      <c r="Z176" s="13"/>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B177" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C178" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B179" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B180" s="18"/>
-      <c r="C180" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C181" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C182" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C183" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B184" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C184" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C185" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C186" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B187" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C187" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C188" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B189" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C189" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C190" s="19" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -7599,8 +10298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z222"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="X198" sqref="X198"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="W97" sqref="W97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7616,7 +10315,7 @@
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -7644,50 +10343,50 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C5" s="18" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D6" s="19" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D8" s="19" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -7695,11 +10394,11 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -7727,17 +10426,17 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D11" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -7765,10 +10464,10 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -7797,10 +10496,10 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -7828,10 +10527,10 @@
     </row>
     <row r="73" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B73" s="25" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
@@ -7859,75 +10558,75 @@
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C76" s="19" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D77" s="19" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="H78" s="19"/>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="H79" s="19"/>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D80" s="19" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="H80" s="19"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C81" s="19" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="H81" s="19"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D82" s="19" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="H82" s="19"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="H83" s="19"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
@@ -7935,11 +10634,11 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B86" s="17"/>
       <c r="C86" s="17" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
@@ -7967,10 +10666,10 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B87" s="25" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
@@ -7998,10 +10697,10 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B118" s="25" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D118" s="27"/>
       <c r="E118" s="27"/>
@@ -8029,63 +10728,63 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C119" s="18" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C121" s="18" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="18" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C125" s="18" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="B128" s="17"/>
       <c r="C128" s="17" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
@@ -8113,10 +10812,10 @@
     </row>
     <row r="129" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B129" s="25" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D129" s="27"/>
       <c r="E129" s="27"/>
@@ -8144,10 +10843,10 @@
     </row>
     <row r="166" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B166" s="25" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27"/>
@@ -8175,36 +10874,36 @@
     </row>
     <row r="167" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D168" s="19" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="169" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="170" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D170" s="19" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="172" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B172" s="25" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D172" s="27"/>
       <c r="E172" s="27"/>
@@ -8232,71 +10931,71 @@
     </row>
     <row r="173" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C173" s="19" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="174" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C174" s="19" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="175" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C175" s="19"/>
       <c r="D175" s="19" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="176" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C176" s="19" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C177" s="19"/>
       <c r="D177" s="19" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C178" s="19" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C179" s="19"/>
       <c r="D179" s="19" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C180" s="19" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D181" s="19" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B183" s="17"/>
       <c r="C183" s="17" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
@@ -8324,10 +11023,10 @@
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B184" s="25" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D184" s="27"/>
       <c r="E184" s="27"/>
@@ -8355,10 +11054,10 @@
     </row>
     <row r="208" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B208" s="25" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D208" s="27"/>
       <c r="E208" s="27"/>
@@ -8386,84 +11085,84 @@
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C209" s="19" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="210" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D210" s="19" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="211" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C211" s="19" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D212" s="19" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="213" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D213" s="19" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="214" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C214" s="19" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D215" s="19" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="216" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E216" s="19" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="217" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E217" s="19" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="218" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E218" s="19" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D219" s="19" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E220" s="19" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="221" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="222" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D222" s="19" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -8476,16 +11175,1085 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="J223" sqref="J223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="12" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C3" s="19" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C4" s="19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C5" s="19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E11" s="19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D12" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C14" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D15" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E16" s="19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D17" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E18" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C19" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D20" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E21" s="19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E22" s="19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D23" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E24" s="19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C25" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D26" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D27" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D28" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B36" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="19" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="19" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="19" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
+      <c r="Z65" s="13"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A98" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+      <c r="U98" s="13"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="13"/>
+      <c r="X98" s="13"/>
+      <c r="Y98" s="13"/>
+      <c r="Z98" s="13"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C112" s="19" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D113" s="19" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D114" s="19" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D115" s="19" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A117" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
+      <c r="O117" s="13"/>
+      <c r="P117" s="13"/>
+      <c r="Q117" s="13"/>
+      <c r="R117" s="13"/>
+      <c r="S117" s="13"/>
+      <c r="T117" s="13"/>
+      <c r="U117" s="13"/>
+      <c r="V117" s="13"/>
+      <c r="W117" s="13"/>
+      <c r="X117" s="13"/>
+      <c r="Y117" s="13"/>
+      <c r="Z117" s="13"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B118" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="27"/>
+      <c r="O118" s="27"/>
+      <c r="P118" s="27"/>
+      <c r="Q118" s="27"/>
+      <c r="R118" s="27"/>
+      <c r="S118" s="27"/>
+      <c r="T118" s="27"/>
+      <c r="U118" s="27"/>
+      <c r="V118" s="27"/>
+      <c r="W118" s="27"/>
+      <c r="X118" s="27"/>
+      <c r="Y118" s="27"/>
+      <c r="Z118" s="27"/>
+    </row>
+    <row r="154" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B154" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
+      <c r="K154" s="27"/>
+      <c r="L154" s="27"/>
+      <c r="M154" s="27"/>
+      <c r="N154" s="27"/>
+      <c r="O154" s="27"/>
+      <c r="P154" s="27"/>
+      <c r="Q154" s="27"/>
+      <c r="R154" s="27"/>
+      <c r="S154" s="27"/>
+      <c r="T154" s="27"/>
+      <c r="U154" s="27"/>
+      <c r="V154" s="27"/>
+      <c r="W154" s="27"/>
+      <c r="X154" s="27"/>
+      <c r="Y154" s="27"/>
+      <c r="Z154" s="27"/>
+    </row>
+    <row r="155" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C155" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="156" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D156" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="F156" s="19" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="157" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D157" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="F157" s="19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="158" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D158" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="F158" s="19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="159" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C159" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="160" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D160" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="F160" s="19" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D161" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="F161" s="19" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C162" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D163" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="F163" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E164" s="19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E165" s="19" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E166" s="19" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D167" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="F167" s="19" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E168" s="19" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E169" s="19" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D170" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D171" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C172" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D173" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="F173" s="19" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D174" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="F174" s="19" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C175" s="19" t="s">
+        <v>564</v>
+      </c>
+      <c r="D175" s="19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D176" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="E176" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="177" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D177" s="19"/>
+      <c r="E177" s="19" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D178" s="19" t="s">
+        <v>569</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="179" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E179" s="19" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B181" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
+      <c r="K181" s="27"/>
+      <c r="L181" s="27"/>
+      <c r="M181" s="27"/>
+      <c r="N181" s="27"/>
+      <c r="O181" s="27"/>
+      <c r="P181" s="27"/>
+      <c r="Q181" s="27"/>
+      <c r="R181" s="27"/>
+      <c r="S181" s="27"/>
+      <c r="T181" s="27"/>
+      <c r="U181" s="27"/>
+      <c r="V181" s="27"/>
+      <c r="W181" s="27"/>
+      <c r="X181" s="27"/>
+      <c r="Y181" s="27"/>
+      <c r="Z181" s="27"/>
+    </row>
+    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C182" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D183" s="19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D184" s="19" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="185" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C185" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="D185" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="186" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D186" s="19" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="187" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C187" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="188" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D188" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="E188" s="19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="189" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C189" s="19"/>
+      <c r="E189" s="19" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="190" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D190" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="E190" s="19" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="191" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E191" s="19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="192" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E192" s="19" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="193" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F193" s="19" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="194" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E194" s="19" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="195" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F195" s="19" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="196" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E196" s="19" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="197" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E197" s="19"/>
+      <c r="F197" s="19" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="198" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E198" s="19"/>
+    </row>
+    <row r="199" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E199" s="19"/>
+    </row>
+    <row r="200" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E200" s="19"/>
+    </row>
+    <row r="201" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E201" s="19"/>
+    </row>
+    <row r="202" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E202" s="19"/>
+    </row>
+    <row r="203" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F203" s="19" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="204" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F204" s="19" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="205" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F205" s="19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="206" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F206" s="19" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="207" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F207" s="19" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="208" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F208" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="H208" s="19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="209" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D209" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="E209" s="19" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="210" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E210" s="19" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="211" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D211" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="E211" s="19" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="212" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E212" s="19" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="213" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E213" s="19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="214" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E214" s="19" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="215" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D215" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="E215" s="19" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="216" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E216" s="19" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="217" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C217" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="D217" s="19" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="218" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D218" s="19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="219" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C219" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="D219" s="19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="220" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D220" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="221" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D221" s="19" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E222" s="19" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="223" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F223" s="19" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="224" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E224" s="19" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="225" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F225" s="19" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="226" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F226" s="19" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="227" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E227" s="19" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="228" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F228" s="19" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="229" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D229" s="19" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="230" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E230" s="19" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="231" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F231" s="19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="232" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E232" s="19" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="233" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F233" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="234" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F234" s="19" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="235" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F235" s="19" t="s">
+        <v>643</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/策划案/Java/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT物联网平台.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
     <sheet name="进度规划" sheetId="83" state="hidden" r:id="rId2"/>
-    <sheet name="设备列表页面" sheetId="79" r:id="rId3"/>
-    <sheet name="设备详情页面" sheetId="86" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="84" state="hidden" r:id="rId5"/>
-    <sheet name="群组页面" sheetId="80" r:id="rId6"/>
-    <sheet name="产品页面" sheetId="81" r:id="rId7"/>
-    <sheet name="规则模块" sheetId="87" r:id="rId8"/>
+    <sheet name="总览" sheetId="88" r:id="rId3"/>
+    <sheet name="设备列表页面" sheetId="79" r:id="rId4"/>
+    <sheet name="设备详情页面" sheetId="86" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="84" state="hidden" r:id="rId6"/>
+    <sheet name="群组页面" sheetId="80" r:id="rId7"/>
+    <sheet name="产品页面" sheetId="81" r:id="rId8"/>
+    <sheet name="规则模块" sheetId="87" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="648">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -2970,10 +2971,6 @@
   </si>
   <si>
     <t>目的概述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>随着5G通信技术和智能硬件的发展，物联网逐渐成为一个大有可为的行业，越来越多的中小公司希望加入或了解调研物联网行业。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3963,12 +3960,17 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>点击编辑通知内容，弹出如图窗体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>消息内容支持E</t>
+    <t>添加规则模块。
+修改群组模块，使设备群组模块可以绑定规则</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑内容根据主题的类型，展示不同页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主题类型暂时分2种，</t>
     </r>
     <r>
       <rPr>
@@ -3978,12 +3980,40 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>L表达式</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未来支持上传Json文件</t>
+      <t>http类型和短信通知类型</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>短信通知类型发送纯文本消息，文本支持E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>L表达式，访问设备影子的变量</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http类型通知内容为Json格式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>向用户展示各协议的域名，总体设置的项目、产品、设备、规则和主题数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE概要图</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4510,7 +4540,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4621,6 +4651,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4705,6 +4738,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>569868</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="723900"/>
+          <a:ext cx="13057143" cy="6352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5093,7 +5169,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5364,7 +5440,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5407,7 +5483,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5646,7 +5722,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5879,19 +5955,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>542050</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>84945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5923,13 +5999,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>93264</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>85409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5961,13 +6037,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>484386</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>37602</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5999,13 +6075,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>65034</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>75300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6037,13 +6113,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>712878</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>9393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6074,15 +6150,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>618471</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>9165</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>18396</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>132990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6099,7 +6175,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7229475" y="44072175"/>
+          <a:off x="7477125" y="43776900"/>
           <a:ext cx="5228571" cy="2876190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6111,20 +6187,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>732769</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>56794</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>427787</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>199571</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6137,8 +6213,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7324725" y="47082075"/>
-          <a:ext cx="5247619" cy="2847619"/>
+          <a:off x="6410325" y="46863000"/>
+          <a:ext cx="6704762" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>103937</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>209096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13230225" y="46872525"/>
+          <a:ext cx="6704762" cy="3628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6416,7 +6530,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -6528,10 +6642,16 @@
       </c>
       <c r="E10" s="45"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="44"/>
+    <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>43964</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>640</v>
+      </c>
       <c r="E11" s="45"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -6633,16 +6753,16 @@
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -6762,7 +6882,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -6787,7 +6907,7 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="22" t="s">
         <v>133</v>
       </c>
@@ -6810,7 +6930,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="22" t="s">
         <v>134</v>
       </c>
@@ -6833,7 +6953,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>152</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -6858,7 +6978,7 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="49"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="22" t="s">
         <v>136</v>
       </c>
@@ -6881,7 +7001,7 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="22" t="s">
         <v>137</v>
       </c>
@@ -6907,7 +7027,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="50" t="s">
         <v>153</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -6931,7 +7051,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="22" t="s">
         <v>139</v>
       </c>
@@ -6950,7 +7070,7 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="22" t="s">
         <v>146</v>
       </c>
@@ -6969,7 +7089,7 @@
       <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="22" t="s">
         <v>147</v>
       </c>
@@ -6988,7 +7108,7 @@
       <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="50" t="s">
         <v>154</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -7009,7 +7129,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="49"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="22" t="s">
         <v>156</v>
       </c>
@@ -7028,7 +7148,7 @@
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="49"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="22" t="s">
         <v>157</v>
       </c>
@@ -7047,7 +7167,7 @@
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="49"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="22" t="s">
         <v>160</v>
       </c>
@@ -7066,7 +7186,7 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="22" t="s">
         <v>161</v>
       </c>
@@ -7085,7 +7205,7 @@
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="49"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="24" t="s">
         <v>202</v>
       </c>
@@ -7104,7 +7224,7 @@
       <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="50" t="s">
         <v>162</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -7125,7 +7245,7 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="49"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="22" t="s">
         <v>164</v>
       </c>
@@ -7144,7 +7264,7 @@
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="49"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="22" t="s">
         <v>165</v>
       </c>
@@ -7163,7 +7283,7 @@
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="49"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="22" t="s">
         <v>166</v>
       </c>
@@ -7182,7 +7302,7 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="49"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="24" t="s">
         <v>203</v>
       </c>
@@ -7201,7 +7321,7 @@
       <c r="N25" s="22"/>
     </row>
     <row r="26" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="49"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="22" t="s">
         <v>167</v>
       </c>
@@ -7220,7 +7340,7 @@
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="49"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="22" t="s">
         <v>168</v>
       </c>
@@ -7239,7 +7359,7 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="50" t="s">
         <v>169</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -7260,7 +7380,7 @@
       <c r="N28" s="22"/>
     </row>
     <row r="29" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="49"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="22" t="s">
         <v>171</v>
       </c>
@@ -7279,7 +7399,7 @@
       <c r="N29" s="22"/>
     </row>
     <row r="30" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="49"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="22" t="s">
         <v>172</v>
       </c>
@@ -7298,7 +7418,7 @@
       <c r="N30" s="22"/>
     </row>
     <row r="31" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="50" t="s">
         <v>175</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -7319,7 +7439,7 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="49"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="22" t="s">
         <v>177</v>
       </c>
@@ -7338,7 +7458,7 @@
       <c r="N32" s="22"/>
     </row>
     <row r="33" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="49"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="22" t="s">
         <v>178</v>
       </c>
@@ -7357,7 +7477,7 @@
       <c r="N33" s="22"/>
     </row>
     <row r="34" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="49"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="22" t="s">
         <v>179</v>
       </c>
@@ -7376,7 +7496,7 @@
       <c r="N34" s="22"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="22" t="s">
         <v>180</v>
       </c>
@@ -7397,7 +7517,7 @@
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="49"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="22" t="s">
         <v>180</v>
       </c>
@@ -7418,7 +7538,7 @@
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="49"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="22" t="s">
         <v>180</v>
       </c>
@@ -7439,10 +7559,10 @@
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="50" t="s">
         <v>187</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -7462,8 +7582,8 @@
       <c r="N38" s="22"/>
     </row>
     <row r="39" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="22" t="s">
         <v>195</v>
       </c>
@@ -7481,8 +7601,8 @@
       <c r="N39" s="22"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="22" t="s">
         <v>196</v>
       </c>
@@ -7500,8 +7620,8 @@
       <c r="N40" s="22"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="22" t="s">
         <v>197</v>
       </c>
@@ -7519,8 +7639,8 @@
       <c r="N41" s="22"/>
     </row>
     <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49" t="s">
+      <c r="B42" s="50"/>
+      <c r="C42" s="50" t="s">
         <v>188</v>
       </c>
       <c r="D42" s="22" t="s">
@@ -7540,8 +7660,8 @@
       <c r="N42" s="22"/>
     </row>
     <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="22" t="s">
         <v>199</v>
       </c>
@@ -7559,7 +7679,7 @@
       <c r="N43" s="22"/>
     </row>
     <row r="44" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="50" t="s">
         <v>181</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -7580,7 +7700,7 @@
       <c r="N44" s="22"/>
     </row>
     <row r="45" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="49"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="22" t="s">
         <v>190</v>
       </c>
@@ -7599,7 +7719,7 @@
       <c r="N45" s="22"/>
     </row>
     <row r="46" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="49"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="22" t="s">
         <v>191</v>
       </c>
@@ -7618,7 +7738,7 @@
       <c r="N46" s="22"/>
     </row>
     <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="49"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="22" t="s">
         <v>192</v>
       </c>
@@ -7637,7 +7757,7 @@
       <c r="N47" s="22"/>
     </row>
     <row r="48" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="49"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="22" t="s">
         <v>193</v>
       </c>
@@ -7657,6 +7777,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -7665,9 +7788,6 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B38:B43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7676,27 +7796,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z177"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
-    <col min="8" max="26" width="10.625" style="12" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="12" customWidth="1"/>
     <col min="27" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="A1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -7722,6 +7842,98 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z177"/>
+  <sheetViews>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="R73" sqref="R73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
+    <col min="8" max="26" width="10.625" style="12" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>212</v>
       </c>
@@ -8348,7 +8560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z190"/>
   <sheetViews>
@@ -8692,47 +8904,47 @@
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="19"/>
       <c r="H114" s="28"/>
-      <c r="I114" s="50" t="s">
+      <c r="I114" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="J114" s="49"/>
-      <c r="K114" s="49"/>
+      <c r="J114" s="50"/>
+      <c r="K114" s="50"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D115" s="19"/>
-      <c r="I115" s="49"/>
-      <c r="J115" s="49"/>
-      <c r="K115" s="49"/>
+      <c r="I115" s="50"/>
+      <c r="J115" s="50"/>
+      <c r="K115" s="50"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D116" s="19"/>
-      <c r="I116" s="49"/>
-      <c r="J116" s="49"/>
-      <c r="K116" s="49"/>
+      <c r="I116" s="50"/>
+      <c r="J116" s="50"/>
+      <c r="K116" s="50"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D117" s="19"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="49"/>
+      <c r="I117" s="50"/>
+      <c r="J117" s="50"/>
+      <c r="K117" s="50"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D118" s="19"/>
-      <c r="I118" s="49"/>
-      <c r="J118" s="49"/>
-      <c r="K118" s="49"/>
+      <c r="I118" s="50"/>
+      <c r="J118" s="50"/>
+      <c r="K118" s="50"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D119" s="19"/>
-      <c r="I119" s="49"/>
-      <c r="J119" s="49"/>
-      <c r="K119" s="49"/>
+      <c r="I119" s="50"/>
+      <c r="J119" s="50"/>
+      <c r="K119" s="50"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D120" s="19"/>
-      <c r="I120" s="49"/>
-      <c r="J120" s="49"/>
-      <c r="K120" s="49"/>
+      <c r="I120" s="50"/>
+      <c r="J120" s="50"/>
+      <c r="K120" s="50"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C121" s="19" t="s">
@@ -8978,7 +9190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8993,7 +9205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z239"/>
   <sheetViews>
@@ -10294,7 +10506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z222"/>
   <sheetViews>
@@ -11173,12 +11385,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="J223" sqref="J223"/>
+    <sheetView topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="W216" sqref="W216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11262,40 +11474,41 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="25" t="s">
         <v>511</v>
       </c>
+      <c r="C5" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
@@ -11304,182 +11517,181 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>514</v>
+        <v>93</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C9" s="19" t="s">
-        <v>93</v>
-      </c>
+      <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D11" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C13" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D14" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E11" s="19" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D12" s="19" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E15" s="19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D16" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E16" s="19" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C14" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D15" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E16" s="19" t="s">
-        <v>495</v>
-      </c>
-    </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D17" s="19" t="s">
-        <v>493</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E18" s="19" t="s">
-        <v>516</v>
+      <c r="C18" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C19" s="19" t="s">
-        <v>496</v>
-      </c>
       <c r="D19" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D20" s="19" t="s">
-        <v>497</v>
-      </c>
       <c r="E20" s="19" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E21" s="19" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D22" s="19" t="s">
+        <v>500</v>
+      </c>
       <c r="E22" s="19" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D23" s="19" t="s">
-        <v>500</v>
-      </c>
       <c r="E23" s="19" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E24" s="19" t="s">
-        <v>515</v>
-      </c>
+      <c r="C24" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C25" s="19" t="s">
-        <v>504</v>
-      </c>
       <c r="D25" s="19" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D26" s="19" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D27" s="19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D28" s="19" t="s">
-        <v>507</v>
-      </c>
+      <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="A29" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
+      <c r="B30" s="19" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
@@ -11491,149 +11703,149 @@
         <v>519</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B33" s="19" t="s">
-        <v>520</v>
-      </c>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B36" s="18" t="s">
+      <c r="B35" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="C36" s="19" t="s">
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B57" s="18" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="18" t="s">
+      <c r="C57" s="19" t="s">
         <v>578</v>
       </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B60" s="18" t="s">
+        <v>581</v>
+      </c>
       <c r="C60" s="19" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="18" t="s">
         <v>582</v>
       </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="19" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="B65" s="17" t="s">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="13"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="13"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
-      <c r="O98" s="13"/>
-      <c r="P98" s="13"/>
-      <c r="Q98" s="13"/>
-      <c r="R98" s="13"/>
-      <c r="S98" s="13"/>
-      <c r="T98" s="13"/>
-      <c r="U98" s="13"/>
-      <c r="V98" s="13"/>
-      <c r="W98" s="13"/>
-      <c r="X98" s="13"/>
-      <c r="Y98" s="13"/>
-      <c r="Z98" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A97" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+      <c r="U97" s="13"/>
+      <c r="V97" s="13"/>
+      <c r="W97" s="13"/>
+      <c r="X97" s="13"/>
+      <c r="Y97" s="13"/>
+      <c r="Z97" s="13"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C111" s="19" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C112" s="19" t="s">
-        <v>526</v>
+      <c r="D112" s="19" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
@@ -11646,116 +11858,119 @@
         <v>555</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D115" s="19" t="s">
-        <v>556</v>
-      </c>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A116" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13"/>
+      <c r="Q116" s="13"/>
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="13"/>
+      <c r="U116" s="13"/>
+      <c r="V116" s="13"/>
+      <c r="W116" s="13"/>
+      <c r="X116" s="13"/>
+      <c r="Y116" s="13"/>
+      <c r="Z116" s="13"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A117" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
-      <c r="O117" s="13"/>
-      <c r="P117" s="13"/>
-      <c r="Q117" s="13"/>
-      <c r="R117" s="13"/>
-      <c r="S117" s="13"/>
-      <c r="T117" s="13"/>
-      <c r="U117" s="13"/>
-      <c r="V117" s="13"/>
-      <c r="W117" s="13"/>
-      <c r="X117" s="13"/>
-      <c r="Y117" s="13"/>
-      <c r="Z117" s="13"/>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B118" s="25" t="s">
+      <c r="B117" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="C117" s="26" t="s">
         <v>524</v>
       </c>
-      <c r="C118" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="27"/>
-      <c r="M118" s="27"/>
-      <c r="N118" s="27"/>
-      <c r="O118" s="27"/>
-      <c r="P118" s="27"/>
-      <c r="Q118" s="27"/>
-      <c r="R118" s="27"/>
-      <c r="S118" s="27"/>
-      <c r="T118" s="27"/>
-      <c r="U118" s="27"/>
-      <c r="V118" s="27"/>
-      <c r="W118" s="27"/>
-      <c r="X118" s="27"/>
-      <c r="Y118" s="27"/>
-      <c r="Z118" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
+      <c r="Q117" s="27"/>
+      <c r="R117" s="27"/>
+      <c r="S117" s="27"/>
+      <c r="T117" s="27"/>
+      <c r="U117" s="27"/>
+      <c r="V117" s="27"/>
+      <c r="W117" s="27"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
+    </row>
+    <row r="153" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B153" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="27"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="27"/>
+      <c r="M153" s="27"/>
+      <c r="N153" s="27"/>
+      <c r="O153" s="27"/>
+      <c r="P153" s="27"/>
+      <c r="Q153" s="27"/>
+      <c r="R153" s="27"/>
+      <c r="S153" s="27"/>
+      <c r="T153" s="27"/>
+      <c r="U153" s="27"/>
+      <c r="V153" s="27"/>
+      <c r="W153" s="27"/>
+      <c r="X153" s="27"/>
+      <c r="Y153" s="27"/>
+      <c r="Z153" s="27"/>
     </row>
     <row r="154" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B154" s="25" t="s">
-        <v>527</v>
-      </c>
-      <c r="C154" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="27"/>
-      <c r="K154" s="27"/>
-      <c r="L154" s="27"/>
-      <c r="M154" s="27"/>
-      <c r="N154" s="27"/>
-      <c r="O154" s="27"/>
-      <c r="P154" s="27"/>
-      <c r="Q154" s="27"/>
-      <c r="R154" s="27"/>
-      <c r="S154" s="27"/>
-      <c r="T154" s="27"/>
-      <c r="U154" s="27"/>
-      <c r="V154" s="27"/>
-      <c r="W154" s="27"/>
-      <c r="X154" s="27"/>
-      <c r="Y154" s="27"/>
-      <c r="Z154" s="27"/>
+      <c r="C154" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="155" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C155" s="19" t="s">
-        <v>534</v>
-      </c>
       <c r="D155" s="19" t="s">
-        <v>535</v>
+        <v>557</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="156" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D156" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F156" s="19" t="s">
         <v>530</v>
@@ -11763,80 +11978,77 @@
     </row>
     <row r="157" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D157" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="F157" s="19" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="158" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C158" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="159" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D159" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="F157" s="19" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="158" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D158" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="F158" s="19" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="159" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C159" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="D159" s="19" t="s">
-        <v>537</v>
+      <c r="F159" s="19" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="160" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D160" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F160" s="19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C161" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="D161" s="19" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D161" s="19" t="s">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D162" s="19" t="s">
         <v>557</v>
       </c>
-      <c r="F161" s="19" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C162" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="D162" s="19" t="s">
+      <c r="F162" s="19" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D163" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="F163" s="19" t="s">
-        <v>541</v>
+      <c r="E163" s="19" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E164" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E165" s="19" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E166" s="19" t="s">
+      <c r="D166" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="F166" s="19" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D167" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="F167" s="19" t="s">
+      <c r="E167" s="19" t="s">
         <v>545</v>
       </c>
     </row>
@@ -11846,6 +12058,9 @@
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D169" s="19" t="s">
+        <v>560</v>
+      </c>
       <c r="E169" s="19" t="s">
         <v>547</v>
       </c>
@@ -11855,111 +12070,108 @@
         <v>561</v>
       </c>
       <c r="E170" s="19" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C171" s="19" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D171" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="E171" s="19" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D172" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="F172" s="19" t="s">
         <v>551</v>
-      </c>
-    </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C172" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="D172" s="19" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D173" s="19" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F173" s="19" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C174" s="19" t="s">
+        <v>563</v>
+      </c>
       <c r="D174" s="19" t="s">
-        <v>563</v>
-      </c>
-      <c r="F174" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C175" s="19" t="s">
-        <v>564</v>
-      </c>
       <c r="D175" s="19" t="s">
         <v>565</v>
       </c>
+      <c r="E175" s="19" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D176" s="19" t="s">
-        <v>566</v>
-      </c>
+      <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D177" s="19"/>
+      <c r="D177" s="19" t="s">
+        <v>568</v>
+      </c>
       <c r="E177" s="19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="178" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D178" s="19" t="s">
-        <v>569</v>
-      </c>
       <c r="E178" s="19" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="179" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E179" s="19" t="s">
-        <v>571</v>
-      </c>
+    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B180" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+      <c r="K180" s="27"/>
+      <c r="L180" s="27"/>
+      <c r="M180" s="27"/>
+      <c r="N180" s="27"/>
+      <c r="O180" s="27"/>
+      <c r="P180" s="27"/>
+      <c r="Q180" s="27"/>
+      <c r="R180" s="27"/>
+      <c r="S180" s="27"/>
+      <c r="T180" s="27"/>
+      <c r="U180" s="27"/>
+      <c r="V180" s="27"/>
+      <c r="W180" s="27"/>
+      <c r="X180" s="27"/>
+      <c r="Y180" s="27"/>
+      <c r="Z180" s="27"/>
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B181" s="25" t="s">
+      <c r="C181" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D181" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="C181" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="27"/>
-      <c r="L181" s="27"/>
-      <c r="M181" s="27"/>
-      <c r="N181" s="27"/>
-      <c r="O181" s="27"/>
-      <c r="P181" s="27"/>
-      <c r="Q181" s="27"/>
-      <c r="R181" s="27"/>
-      <c r="S181" s="27"/>
-      <c r="T181" s="27"/>
-      <c r="U181" s="27"/>
-      <c r="V181" s="27"/>
-      <c r="W181" s="27"/>
-      <c r="X181" s="27"/>
-      <c r="Y181" s="27"/>
-      <c r="Z181" s="27"/>
     </row>
     <row r="182" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C182" s="19" t="s">
-        <v>529</v>
-      </c>
       <c r="D182" s="19" t="s">
         <v>586</v>
       </c>
@@ -11970,49 +12182,49 @@
       </c>
     </row>
     <row r="184" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C184" s="19" t="s">
+        <v>588</v>
+      </c>
       <c r="D184" s="19" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C185" s="19" t="s">
-        <v>589</v>
-      </c>
       <c r="D185" s="19" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="186" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C186" s="19" t="s">
+        <v>591</v>
+      </c>
       <c r="D186" s="19" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C187" s="19" t="s">
-        <v>592</v>
-      </c>
       <c r="D187" s="19" t="s">
         <v>595</v>
       </c>
+      <c r="E187" s="19" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="188" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D188" s="19" t="s">
-        <v>596</v>
-      </c>
+      <c r="C188" s="19"/>
       <c r="E188" s="19" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="189" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D189" s="19" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="189" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C189" s="19"/>
       <c r="E189" s="19" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D190" s="19" t="s">
-        <v>598</v>
-      </c>
       <c r="E190" s="19" t="s">
         <v>599</v>
       </c>
@@ -12023,101 +12235,101 @@
       </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E192" s="19" t="s">
+      <c r="F192" s="19" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="193" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F193" s="19" t="s">
+    <row r="193" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E193" s="19" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="194" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E194" s="19" t="s">
+    <row r="194" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F194" s="19" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="195" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F195" s="19" t="s">
+    <row r="195" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E195" s="19" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="196" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E196" s="19" t="s">
+    <row r="196" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E196" s="19"/>
+      <c r="F196" s="19" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="197" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E197" s="19"/>
+    </row>
+    <row r="198" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E198" s="19"/>
+    </row>
+    <row r="199" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E199" s="19"/>
+    </row>
+    <row r="200" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E200" s="19"/>
+    </row>
+    <row r="201" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E201" s="19"/>
+    </row>
+    <row r="202" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F202" s="19" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="197" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E197" s="19"/>
-      <c r="F197" s="19" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="198" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E198" s="19"/>
-    </row>
-    <row r="199" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E199" s="19"/>
-    </row>
-    <row r="200" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E200" s="19"/>
-    </row>
-    <row r="201" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E201" s="19"/>
-    </row>
-    <row r="202" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E202" s="19"/>
-    </row>
-    <row r="203" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F203" s="19" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="204" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F204" s="19" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="205" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F205" s="19" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="205" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F205" s="19" t="s">
+    <row r="206" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F206" s="19" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="206" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F206" s="19" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="207" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F207" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="H207" s="19" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="208" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D208" s="19" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="208" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F208" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="H208" s="19" t="s">
+      <c r="E208" s="19" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D209" s="19" t="s">
-        <v>611</v>
-      </c>
       <c r="E209" s="19" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="210" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D210" s="19" t="s">
+        <v>615</v>
+      </c>
       <c r="E210" s="19" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="211" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D211" s="19" t="s">
-        <v>616</v>
-      </c>
       <c r="E211" s="19" t="s">
         <v>617</v>
       </c>
@@ -12133,40 +12345,40 @@
       </c>
     </row>
     <row r="214" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D214" s="19" t="s">
+        <v>620</v>
+      </c>
       <c r="E214" s="19" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="215" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D215" s="19" t="s">
-        <v>621</v>
-      </c>
       <c r="E215" s="19" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E216" s="19" t="s">
-        <v>623</v>
+      <c r="C216" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="D216" s="19" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C217" s="19" t="s">
-        <v>592</v>
-      </c>
       <c r="D217" s="19" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C218" s="19" t="s">
+        <v>626</v>
+      </c>
       <c r="D218" s="19" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C219" s="19" t="s">
-        <v>627</v>
-      </c>
       <c r="D219" s="19" t="s">
         <v>628</v>
       </c>
@@ -12177,22 +12389,22 @@
       </c>
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D221" s="19" t="s">
+      <c r="E221" s="19" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F222" s="19" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E222" s="19" t="s">
-        <v>593</v>
-      </c>
-    </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F223" s="19" t="s">
+      <c r="E223" s="19" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E224" s="19" t="s">
+      <c r="F224" s="19" t="s">
         <v>632</v>
       </c>
     </row>
@@ -12202,58 +12414,59 @@
       </c>
     </row>
     <row r="226" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F226" s="19" t="s">
+      <c r="E226" s="19" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="227" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E227" s="19" t="s">
+      <c r="F227" s="12" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="228" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F228" s="19" t="s">
+      <c r="D228" s="12" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="229" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D229" s="19" t="s">
+      <c r="E229" s="12" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="230" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E230" s="19" t="s">
+      <c r="F230" s="12" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="231" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F231" s="19" t="s">
+      <c r="E231" s="12" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="232" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E232" s="19" t="s">
-        <v>640</v>
+      <c r="F232" s="19" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="233" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F233" s="19" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="234" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F234" s="19" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="235" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F235" s="19" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/策划案/Java/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT物联网平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="群组页面" sheetId="80" r:id="rId7"/>
     <sheet name="产品页面" sheetId="81" r:id="rId8"/>
     <sheet name="规则模块" sheetId="87" r:id="rId9"/>
+    <sheet name="主题" sheetId="89" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="823">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -68,10 +69,6 @@
     <t>初稿</t>
   </si>
   <si>
-    <t>能力商店各表结构设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>能力商店项目设计</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -82,10 +79,6 @@
   <si>
     <t>褚智勇</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOT物联网平台设计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>设计设备注册查询与群组界面</t>
@@ -4016,12 +4009,1089 @@
     <t>UE概要图</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>一.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题定义了一类消息，IOT平台的规则引擎，在上报属性满足条件时会触发动作，其中包含向特定主题发送消息。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户还可以订阅主题，当I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OT平台发送相关主题的消息后，订阅者可以以某种方式接受到这个主题消息。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概览</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建主题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加订阅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建主题按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击弹出创建主题页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题搜索</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊搜索选项，用户输入搜索内容，点击放大镜，则返回与输入内容模糊匹配的主题列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表项-标识名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题的名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这里的I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D使用用户Id+主题名字做Id</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题的显示名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布消息，弹出发布消息窗口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅消息，弹出订阅消息窗口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除，则删除主题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击跳转主题详情界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单包含</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息标题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传消息文件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用户上传消息文件，则消息框置灰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，英文约束，非重</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文的显示名，当然也能填英文</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动填充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表，包含短信，邮件，HTTP，HTTPS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅终端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>输入终端U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RL，并以;分隔</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考华为</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入有效手机号码：[+][国家码][手机号码]。国内手机号码可省略[+][国家码]，直接输入手机号码。批量添加手机号码时，以换行符隔开，手机号码支持空格、/和-，例如</t>
+  </si>
+  <si>
+    <t>185xxxx0000</t>
+  </si>
+  <si>
+    <t>+86185xxxx0000</t>
+  </si>
+  <si>
+    <t>+86 185 xxxx 0000</t>
+  </si>
+  <si>
+    <t>邮件：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认，向所有订阅者发布刚才编辑的消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击撤销或x，关闭弹出框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认，创建主题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果主题名称重复，则alert提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请添加订阅终端。批量添加终端信息时，以换行符隔开，例如</t>
+  </si>
+  <si>
+    <t>username@example.com</t>
+  </si>
+  <si>
+    <t>username2@example.com</t>
+  </si>
+  <si>
+    <t>http://example.com/notification/action</t>
+  </si>
+  <si>
+    <t>http://example2.com/notification/action</t>
+  </si>
+  <si>
+    <t>HTTP/HTTPS:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作结果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认，创建订阅，并跳转订阅列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击取消或x，退出弹出框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>四.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击弹出添加订阅界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量请求订阅、删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角的请求订阅和删除，初始置灰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在表格中选择需要批量操作的订阅后，两个按钮亮起。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮批量订阅请求，立即进行批量请求。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除，弹出确认框后删除。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选项包括协议筛选，状态筛选和模糊查询。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态筛选失业下拉表，包含所有状态，已确认，未确认。</t>
+  </si>
+  <si>
+    <t>模糊查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议筛选项是个下拉列表，包含所有协议，短信，邮件，HTTP，HTTPS</t>
+  </si>
+  <si>
+    <t>协议筛选项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态筛选项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户输入订阅终端的信息，点击放大镜，列表展示模糊查询的内容。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表包含选择框，订阅UNR，协议类型，订阅终端，主题名称，状态，操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表选择框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框。复选框为√状态，表示该项数据被选择，左上的按钮可批量操作。点击表头的复选框，该页所有数据都变成可选择状态。点掉表头的复选框，该页所有数据都变为未选择状态。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>订阅U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>订阅的U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RN，超出长度末尾用…表示</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅的协议</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示订阅终端的链接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所属的主题名称，是个超链接，点击进入主题详情页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有未确认和确认两种状态，未确认红色，确认绿色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求订阅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后向订阅端发送订阅链接，如果订阅链接被访问，则确认成功。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出确认框后，确认删除。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求订阅操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信、邮件类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>向终端发送确认订阅的地址链接，用户访问该地址，则确认订阅成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TTP/HTTPS类型</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>别有用心认识，用我们的平台做D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DOS，或骚扰其他用户</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为降低侵入性，向订阅终端链接/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Confirm发送请求，如果收到ok+主题Id，则表示订阅成功</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能详解</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>略，同三.4，除了把自动填充的主题换为可选择的主题下拉框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题名称、主题URN、显示名、创建时间、订阅总数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>和四.1的内容类似，只不过这里限定为显示当前主题的订阅，不赘述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加订阅、发布消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>与前面功能类似，不做赘述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含元素详述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户资源空间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>即用户I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D，用于设备接入时，设定访问链接</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台接入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态页面，告诉用户接入相关的信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源概览</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示当前创建的各资源的数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击进入相应的模块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚智勇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOT物联网平台设计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IOT物联网平台设计文档
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF5F5F5F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该文档属于策划案，不是产品规格说明书，仅用于指导开发，并不面向用户阅读</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加总览页面和主题模块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4151,6 +5221,21 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF5F5F5F"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -4540,7 +5625,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4600,6 +5685,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4627,9 +5730,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4645,29 +5745,15 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4720,6 +5806,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF5F5F5F"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF3399"/>
       <color rgb="FFFF66CC"/>
@@ -6264,6 +7351,315 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>808826</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="1209675"/>
+          <a:ext cx="6390476" cy="5504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27923</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>85452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="15297150"/>
+          <a:ext cx="5219048" cy="2180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>685068</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>104295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="23088600"/>
+          <a:ext cx="5857143" cy="3838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>217431</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>122925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="7591425"/>
+          <a:ext cx="13152381" cy="7200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408769</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>94714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="22212300"/>
+          <a:ext cx="6447619" cy="4285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>322206</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>141973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="39862125"/>
+          <a:ext cx="13152381" cy="7219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>646974</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>37627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="56397525"/>
+          <a:ext cx="5809524" cy="3780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74558</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>46728</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="61398150"/>
+          <a:ext cx="13133333" cy="7171428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6530,7 +7926,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -6539,31 +7935,31 @@
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="1"/>
     <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D3" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>14</v>
+      <c r="E3" s="42" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6573,26 +7969,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
-    </row>
-    <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="41"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="52" t="s">
+        <v>821</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -6601,181 +7997,183 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
         <v>43947</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>43949</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="45"/>
+        <v>372</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>43951</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="E10" s="45"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
         <v>43964</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>640</v>
-      </c>
-      <c r="E11" s="45"/>
+        <v>202</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="B12" s="7">
+        <v>43966</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -6788,12 +8186,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -6814,6 +8216,1069 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z336"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="12" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B35" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C36" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D73" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="19" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="19" t="s">
+        <v>671</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="19" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="19"/>
+      <c r="E79" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D80" s="19"/>
+      <c r="E80" s="19" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D81" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E82" s="19" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D83" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D84" s="19"/>
+      <c r="E84" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="85" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D85" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D86" s="19"/>
+      <c r="E86" s="19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D87" s="19"/>
+      <c r="E87" s="19" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D88" s="19"/>
+      <c r="E88" s="19" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B89" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27"/>
+      <c r="T89" s="27"/>
+      <c r="U89" s="27"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C90" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="102" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C102" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="103" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D103" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="104" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D104" s="19"/>
+      <c r="E104" s="12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="105" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D105" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="106" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D106" s="19"/>
+      <c r="E106" s="19" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="107" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C107" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="E107" s="19"/>
+    </row>
+    <row r="108" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D108" s="19" t="s">
+        <v>729</v>
+      </c>
+      <c r="E108" s="19"/>
+    </row>
+    <row r="109" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D109" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="E109" s="19"/>
+    </row>
+    <row r="110" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B110" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="27"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="27"/>
+      <c r="Q110" s="27"/>
+      <c r="R110" s="27"/>
+      <c r="S110" s="27"/>
+      <c r="T110" s="27"/>
+      <c r="U110" s="27"/>
+      <c r="V110" s="27"/>
+      <c r="W110" s="27"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="27"/>
+    </row>
+    <row r="111" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C111" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="133" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C133" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="134" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C134" s="19"/>
+      <c r="D134" s="19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="135" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C135" s="19"/>
+      <c r="D135" s="19" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="136" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="137" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C137" s="19"/>
+      <c r="D137" s="19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="138" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C138" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="139" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C139" s="19"/>
+      <c r="D139" s="19" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="140" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C140" s="19"/>
+      <c r="D140" s="19" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="141" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B141" s="25" t="s">
+        <v>664</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
+      <c r="K141" s="27"/>
+      <c r="L141" s="27"/>
+      <c r="M141" s="27"/>
+      <c r="N141" s="27"/>
+      <c r="O141" s="27"/>
+      <c r="P141" s="27"/>
+      <c r="Q141" s="27"/>
+      <c r="R141" s="27"/>
+      <c r="S141" s="27"/>
+      <c r="T141" s="27"/>
+      <c r="U141" s="27"/>
+      <c r="V141" s="27"/>
+      <c r="W141" s="27"/>
+      <c r="X141" s="27"/>
+      <c r="Y141" s="27"/>
+      <c r="Z141" s="27"/>
+    </row>
+    <row r="142" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C142" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C162" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D163" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D164" s="19"/>
+      <c r="E164" s="19" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D165" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E166" s="19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D167" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E168" s="19" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D169" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E170" s="19" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E171" s="19" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F172" s="51" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F173" s="51" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F174" s="51" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F175" s="51" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E176" s="19" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F177" s="51" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F178" s="51" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F179" s="51" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E180" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F181" s="51" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F182" s="51" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F183" s="51" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C184" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="D184" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="E184" s="19"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D185" s="19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D186" s="19" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A188" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
+      <c r="K188" s="13"/>
+      <c r="L188" s="13"/>
+      <c r="M188" s="13"/>
+      <c r="N188" s="13"/>
+      <c r="O188" s="13"/>
+      <c r="P188" s="13"/>
+      <c r="Q188" s="13"/>
+      <c r="R188" s="13"/>
+      <c r="S188" s="13"/>
+      <c r="T188" s="13"/>
+      <c r="U188" s="13"/>
+      <c r="V188" s="13"/>
+      <c r="W188" s="13"/>
+      <c r="X188" s="13"/>
+      <c r="Y188" s="13"/>
+      <c r="Z188" s="13"/>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B189" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C190" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="D190" s="19" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C226" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="D226" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C227" s="19"/>
+      <c r="D227" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="E227" s="19" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="228" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C228" s="19"/>
+      <c r="D228" s="19"/>
+      <c r="E228" s="19" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="229" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D229" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="E229" s="19" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="230" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E230" s="19" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D231" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="E231" s="19" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="232" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E232" s="19" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C233" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="D233" s="19" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D234" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="E234" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E235" s="19" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="236" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D236" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="E236" s="19" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="237" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E237" s="19" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="238" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E238" s="19" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="239" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E239" s="19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="240" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E240" s="19" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="241" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D241" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="E241" s="19" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="242" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E242" s="19" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="243" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E243" s="19" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="244" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E244" s="19"/>
+      <c r="F244" s="12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="245" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E245" s="19" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="246" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E246" s="19"/>
+      <c r="F246" s="12" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E247" s="19" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="248" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F248" s="19" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="249" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D249" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="E249" s="19" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="250" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E250" s="19" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="251" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E251" s="19" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="252" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F252" s="19" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="253" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E253" s="19" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="254" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F254" s="19" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="255" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E255" s="19" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="256" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F256" s="19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E257" s="19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F258" s="19" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E259" s="19" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F260" s="19" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E261" s="19" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F262" s="19" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E263" s="19" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F264" s="19" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G265" s="19" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F266" s="19" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G267" s="19" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B268" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="C268" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C269" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="D269" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C289" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="D289" s="19" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D290" s="19" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A292" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B292" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="C292" s="13"/>
+      <c r="D292" s="13"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="13"/>
+      <c r="G292" s="13"/>
+      <c r="H292" s="13"/>
+      <c r="I292" s="13"/>
+      <c r="J292" s="13"/>
+      <c r="K292" s="13"/>
+      <c r="L292" s="13"/>
+      <c r="M292" s="13"/>
+      <c r="N292" s="13"/>
+      <c r="O292" s="13"/>
+      <c r="P292" s="13"/>
+      <c r="Q292" s="13"/>
+      <c r="R292" s="13"/>
+      <c r="S292" s="13"/>
+      <c r="T292" s="13"/>
+      <c r="U292" s="13"/>
+      <c r="V292" s="13"/>
+      <c r="W292" s="13"/>
+      <c r="X292" s="13"/>
+      <c r="Y292" s="13"/>
+      <c r="Z292" s="13"/>
+    </row>
+    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B293" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="C293" s="19" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B329" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C330" s="19" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D331" s="19" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C332" s="19" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D333" s="19" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B334" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="C334" s="19" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D335" s="19" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D336" s="19" t="s">
+        <v>806</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6842,58 +9307,58 @@
   <sheetData>
     <row r="4" spans="2:19" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
-        <v>151</v>
-      </c>
       <c r="C5" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G5" s="22">
         <v>0.1</v>
@@ -6907,16 +9372,16 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="50"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G6" s="22">
         <v>0.1</v>
@@ -6930,16 +9395,16 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="50"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G7" s="22">
         <v>0.1</v>
@@ -6953,18 +9418,18 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="50" t="s">
-        <v>152</v>
+      <c r="B8" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G8" s="22">
         <v>0.1</v>
@@ -6978,16 +9443,16 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="50"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G9" s="22">
         <v>0.1</v>
@@ -7001,16 +9466,16 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="50"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G10" s="22">
         <v>0.1</v>
@@ -7023,19 +9488,19 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="S10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="50" t="s">
-        <v>153</v>
+      <c r="B11" s="49" t="s">
+        <v>151</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -7047,17 +9512,17 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="S11" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="50"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -7070,13 +9535,13 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -7089,13 +9554,13 @@
       <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="50"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -7108,15 +9573,15 @@
       <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="50" t="s">
-        <v>154</v>
+      <c r="B15" s="49" t="s">
+        <v>152</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -7129,13 +9594,13 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="50"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -7148,13 +9613,13 @@
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="50"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -7167,13 +9632,13 @@
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="50"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -7186,13 +9651,13 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="50"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -7205,13 +9670,13 @@
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="50"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -7224,15 +9689,15 @@
       <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="50" t="s">
-        <v>162</v>
+      <c r="B21" s="49" t="s">
+        <v>160</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -7245,13 +9710,13 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="50"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -7264,13 +9729,13 @@
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="50"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -7283,13 +9748,13 @@
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="50"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -7302,13 +9767,13 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="50"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
@@ -7321,13 +9786,13 @@
       <c r="N25" s="22"/>
     </row>
     <row r="26" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="50"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
@@ -7340,13 +9805,13 @@
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="50"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -7359,15 +9824,15 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="50" t="s">
-        <v>169</v>
+      <c r="B28" s="49" t="s">
+        <v>167</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
@@ -7380,13 +9845,13 @@
       <c r="N28" s="22"/>
     </row>
     <row r="29" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="50"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -7399,13 +9864,13 @@
       <c r="N29" s="22"/>
     </row>
     <row r="30" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="50"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
@@ -7418,15 +9883,15 @@
       <c r="N30" s="22"/>
     </row>
     <row r="31" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="50" t="s">
-        <v>175</v>
+      <c r="B31" s="49" t="s">
+        <v>173</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
@@ -7439,13 +9904,13 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="50"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
@@ -7458,13 +9923,13 @@
       <c r="N32" s="22"/>
     </row>
     <row r="33" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="50"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -7477,13 +9942,13 @@
       <c r="N33" s="22"/>
     </row>
     <row r="34" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="50"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
@@ -7496,15 +9961,15 @@
       <c r="N34" s="22"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="50"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
@@ -7517,15 +9982,15 @@
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="50"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
@@ -7538,15 +10003,15 @@
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="50"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
@@ -7559,17 +10024,17 @@
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>187</v>
+      <c r="B38" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>185</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
@@ -7582,13 +10047,13 @@
       <c r="N38" s="22"/>
     </row>
     <row r="39" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
@@ -7601,13 +10066,13 @@
       <c r="N39" s="22"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
@@ -7620,13 +10085,13 @@
       <c r="N40" s="22"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
@@ -7639,15 +10104,15 @@
       <c r="N41" s="22"/>
     </row>
     <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50" t="s">
-        <v>188</v>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49" t="s">
+        <v>186</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
@@ -7660,13 +10125,13 @@
       <c r="N42" s="22"/>
     </row>
     <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="24" t="s">
         <v>199</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>201</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
@@ -7679,15 +10144,15 @@
       <c r="N43" s="22"/>
     </row>
     <row r="44" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="50" t="s">
-        <v>181</v>
+      <c r="B44" s="49" t="s">
+        <v>179</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
@@ -7700,13 +10165,13 @@
       <c r="N44" s="22"/>
     </row>
     <row r="45" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="50"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
@@ -7719,13 +10184,13 @@
       <c r="N45" s="22"/>
     </row>
     <row r="46" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="50"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -7738,13 +10203,13 @@
       <c r="N46" s="22"/>
     </row>
     <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="50"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -7757,13 +10222,13 @@
       <c r="N47" s="22"/>
     </row>
     <row r="48" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="50"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -7777,6 +10242,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B21:B27"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="B38:B43"/>
@@ -7784,10 +10253,6 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B21:B27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7796,10 +10261,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7811,10 +10276,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -7843,15 +10308,15 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -7878,6 +10343,82 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B36" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C37" s="19" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B38" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C39" s="19" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B40" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C41" s="19" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C42" s="19" t="s">
+        <v>818</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7890,7 +10431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
@@ -7903,11 +10444,11 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -7935,48 +10476,48 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C6" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C7" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -8010,11 +10551,11 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -8042,38 +10583,38 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C25" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -8101,11 +10642,11 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
@@ -8133,219 +10674,219 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B64" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C65" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="3:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C69" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D70" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D71" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D72" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D73" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C74" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D75" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D76" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C77" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D78" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C79" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D80" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C81" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D82" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D83" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C85" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C92" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D95" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D97" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D98" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D99" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E100" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F101" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E102" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F103" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F104" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F105" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
@@ -8356,69 +10897,69 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C109" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C114" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D115" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D116" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D117" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E117" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E118" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E119" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
@@ -8446,19 +10987,19 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B122" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B145" s="13"/>
       <c r="C145" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
@@ -8486,70 +11027,70 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B146" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C170" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D171" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C172" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D173" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C174" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D175" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C176" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D177" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -8564,7 +11105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z190"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
@@ -8578,11 +11119,11 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -8610,11 +11151,11 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -8642,10 +11183,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -8673,10 +11214,10 @@
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B57" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
@@ -8704,75 +11245,75 @@
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D60" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D61" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D63" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D64" s="19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D65" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C66" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D67" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D68" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
@@ -8800,10 +11341,10 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
@@ -8831,10 +11372,10 @@
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B106" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
@@ -8862,110 +11403,110 @@
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C108" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D110" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D112" s="19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="19"/>
       <c r="H114" s="28"/>
-      <c r="I114" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="J114" s="50"/>
-      <c r="K114" s="50"/>
+      <c r="I114" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D115" s="19"/>
-      <c r="I115" s="50"/>
-      <c r="J115" s="50"/>
-      <c r="K115" s="50"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D116" s="19"/>
-      <c r="I116" s="50"/>
-      <c r="J116" s="50"/>
-      <c r="K116" s="50"/>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
+      <c r="K116" s="49"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D117" s="19"/>
-      <c r="I117" s="50"/>
-      <c r="J117" s="50"/>
-      <c r="K117" s="50"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
+      <c r="K117" s="49"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D118" s="19"/>
-      <c r="I118" s="50"/>
-      <c r="J118" s="50"/>
-      <c r="K118" s="50"/>
+      <c r="I118" s="49"/>
+      <c r="J118" s="49"/>
+      <c r="K118" s="49"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D119" s="19"/>
-      <c r="I119" s="50"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="50"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
+      <c r="K119" s="49"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D120" s="19"/>
-      <c r="I120" s="50"/>
-      <c r="J120" s="50"/>
-      <c r="K120" s="50"/>
+      <c r="I120" s="49"/>
+      <c r="J120" s="49"/>
+      <c r="K120" s="49"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C121" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
@@ -8993,10 +11534,10 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B125" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D125" s="27"/>
       <c r="E125" s="27"/>
@@ -9024,10 +11565,10 @@
     </row>
     <row r="161" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B161" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27"/>
@@ -9055,84 +11596,84 @@
     </row>
     <row r="162" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C162" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="163" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C163" s="19"/>
       <c r="D163" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C164" s="19"/>
       <c r="D164" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="165" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C165" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D166" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="167" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="168" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D168" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="169" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="171" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E171" s="19" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="172" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E172" s="19" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D173" s="19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="174" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B174" s="25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D174" s="27"/>
       <c r="E174" s="27"/>
@@ -9160,23 +11701,23 @@
     </row>
     <row r="175" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C175" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D176" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="190" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C190" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -9222,11 +11763,11 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -9254,21 +11795,21 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -9296,16 +11837,16 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -9333,11 +11874,11 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -9365,18 +11906,18 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -9385,10 +11926,10 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -9417,55 +11958,55 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C34" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -9494,10 +12035,10 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B41" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
@@ -9525,10 +12066,10 @@
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B76" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
@@ -9556,42 +12097,42 @@
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C77" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C80" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B81" s="25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
@@ -9619,87 +12160,87 @@
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D85" s="19"/>
       <c r="E85" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D87" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C88" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D89" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D91" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B93" s="25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D93" s="26"/>
       <c r="E93" s="27"/>
@@ -9727,36 +12268,36 @@
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C94" s="19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C96" s="19" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D97" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B98" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="27"/>
@@ -9784,89 +12325,89 @@
     </row>
     <row r="99" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C99" s="19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D100" s="19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C101" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19"/>
       <c r="D102" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C103" s="19"/>
       <c r="D103" s="19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C104" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C106" s="19" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19"/>
       <c r="D107" s="19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C108" s="19"/>
       <c r="D108" s="19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C109" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C110" s="19"/>
       <c r="D110" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19"/>
       <c r="D111" s="19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.3">
@@ -9874,10 +12415,10 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -9906,10 +12447,10 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B114" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
@@ -9941,10 +12482,10 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" s="25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D132" s="27"/>
       <c r="E132" s="27"/>
@@ -9972,41 +12513,41 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D134" s="19" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D136" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D137" s="19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
@@ -10035,10 +12576,10 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B139" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D139" s="27"/>
       <c r="E139" s="27"/>
@@ -10070,10 +12611,10 @@
     </row>
     <row r="169" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B169" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D169" s="27"/>
       <c r="E169" s="27"/>
@@ -10101,57 +12642,57 @@
     </row>
     <row r="170" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C170" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C172" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="173" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C173" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D174" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="175" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E176" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B177" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D177" s="27"/>
       <c r="E177" s="27"/>
@@ -10179,15 +12720,15 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C178" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B179" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C179" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D179" s="27"/>
       <c r="E179" s="27"/>
@@ -10215,15 +12756,15 @@
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C180" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B181" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D181" s="27"/>
       <c r="E181" s="27"/>
@@ -10251,20 +12792,20 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C182" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C183" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -10293,10 +12834,10 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B186" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D186" s="27"/>
       <c r="E186" s="27"/>
@@ -10324,10 +12865,10 @@
     </row>
     <row r="220" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B220" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D220" s="27"/>
       <c r="E220" s="27"/>
@@ -10356,37 +12897,37 @@
     <row r="221" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B221" s="18"/>
       <c r="C221" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="222" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D222" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="223" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C223" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D223" s="19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="224" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C224" s="19"/>
       <c r="D224" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="225" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B225" s="25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D225" s="27"/>
       <c r="E225" s="27"/>
@@ -10414,88 +12955,88 @@
     </row>
     <row r="226" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C226" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D227" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="228" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C228" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="229" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C229" s="18"/>
       <c r="D229" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="230" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D230" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="231" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D231" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="232" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D232" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="233" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C233" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="234" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D234" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="235" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D235" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="236" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C236" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="237" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D237" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="238" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C238" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D238" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="239" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D239" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -10523,11 +13064,11 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -10555,50 +13096,50 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C5" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D6" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D8" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
@@ -10606,11 +13147,11 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -10638,17 +13179,17 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D11" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -10676,10 +13217,10 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -10708,10 +13249,10 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -10739,10 +13280,10 @@
     </row>
     <row r="73" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B73" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
@@ -10770,75 +13311,75 @@
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C74" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C76" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D77" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H78" s="19"/>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H79" s="19"/>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D80" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H80" s="19"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C81" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H81" s="19"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D82" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H82" s="19"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H83" s="19"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
@@ -10846,11 +13387,11 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B86" s="17"/>
       <c r="C86" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
@@ -10878,10 +13419,10 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B87" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
@@ -10909,10 +13450,10 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B118" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D118" s="27"/>
       <c r="E118" s="27"/>
@@ -10940,63 +13481,63 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C119" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C121" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C123" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C125" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B128" s="17"/>
       <c r="C128" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
@@ -11024,10 +13565,10 @@
     </row>
     <row r="129" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B129" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D129" s="27"/>
       <c r="E129" s="27"/>
@@ -11055,10 +13596,10 @@
     </row>
     <row r="166" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B166" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C166" s="26" t="s">
         <v>279</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>281</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27"/>
@@ -11086,36 +13627,36 @@
     </row>
     <row r="167" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C167" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="168" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D168" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="169" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="170" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D170" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="172" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B172" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D172" s="27"/>
       <c r="E172" s="27"/>
@@ -11143,71 +13684,71 @@
     </row>
     <row r="173" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C173" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="174" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C174" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C175" s="19"/>
       <c r="D175" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="176" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C176" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C177" s="19"/>
       <c r="D177" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C178" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C179" s="19"/>
       <c r="D179" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C180" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D181" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B183" s="17"/>
       <c r="C183" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
@@ -11235,10 +13776,10 @@
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B184" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D184" s="27"/>
       <c r="E184" s="27"/>
@@ -11266,10 +13807,10 @@
     </row>
     <row r="208" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B208" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D208" s="27"/>
       <c r="E208" s="27"/>
@@ -11297,84 +13838,84 @@
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C209" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D209" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="210" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D210" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="211" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C211" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D212" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="213" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D213" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="214" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C214" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="215" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D215" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="216" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E216" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="217" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E217" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="218" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E218" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="219" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D219" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E220" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="221" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C221" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="222" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D222" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -11402,10 +13943,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -11434,10 +13975,10 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -11465,20 +14006,20 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C3" s="19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -11507,148 +14048,148 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E10" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D11" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D14" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E15" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E17" s="19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D19" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E20" s="19" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E21" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D22" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E23" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D25" s="19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D26" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D27" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E27" s="19"/>
     </row>
@@ -11658,10 +14199,10 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -11690,25 +14231,25 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -11737,49 +14278,49 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -11808,10 +14349,10 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -11840,30 +14381,30 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D112" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D114" s="19" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -11892,10 +14433,10 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B117" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="27"/>
@@ -11923,10 +14464,10 @@
     </row>
     <row r="153" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B153" s="25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="27"/>
@@ -11954,190 +14495,190 @@
     </row>
     <row r="154" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C154" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="155" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D155" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="156" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D156" s="19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D157" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="158" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C158" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="159" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D159" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="160" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D160" s="19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161" s="19" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D162" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E163" s="19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E164" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E165" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D166" s="19" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E167" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D170" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D173" s="19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C174" s="19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D177" s="19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="180" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B180" s="25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27"/>
@@ -12165,99 +14706,99 @@
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C181" s="19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="182" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D182" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="183" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="184" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C184" s="19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="186" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C186" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E187" s="19" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="188" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19"/>
       <c r="E188" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="189" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E190" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="191" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E191" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
       <c r="F192" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="193" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E193" s="19" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="194" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F194" s="19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="195" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E195" s="19" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="196" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E196" s="19"/>
       <c r="F196" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="197" spans="4:8" x14ac:dyDescent="0.3">
@@ -12277,190 +14818,190 @@
     </row>
     <row r="202" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F202" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="203" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F203" s="19" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="204" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F204" s="19" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="205" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F205" s="19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="206" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F206" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="207" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F207" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H207" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="208" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D208" s="19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E208" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E209" s="19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="210" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D210" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E210" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="211" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E211" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E212" s="19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="213" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E213" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="214" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D214" s="19" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E214" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="215" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E215" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C216" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D217" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C218" s="19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D219" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="220" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D220" s="19" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E221" s="19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F222" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E223" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F224" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="225" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F225" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="226" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E226" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="227" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F227" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="228" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D228" s="12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="229" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E229" s="12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="230" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F230" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="231" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E231" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="232" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F232" s="19" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="233" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F233" s="19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="234" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F234" s="19" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="235" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F235" s="19" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/Java/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT物联网平台.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="836">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -2979,10 +2979,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>弄清目标用户，有助于我们在设计时，避免过度设计和设计不足的问题。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>这一点，在这个模块中</t>
     </r>
@@ -4359,10 +4355,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>如果用户上传消息文件，则消息框置灰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>包含内容</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5084,6 +5076,157 @@
   </si>
   <si>
     <t>添加总览页面和主题模块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用户上传消息文件，则消息框置灰，并自动填充为文件内容，文件上传框…变为x，点击x则消息框恢复（不清空）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1阶段包含功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令下发性能需求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>多数物联网设备，如水表电表，是使用电池的。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们要用尽量省电的方式完成命令下发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以推荐使用Ajax方式，而不是让设备去监听端口。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现方式推荐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发命令后，把命令放到redis缓存的队列中，设备心跳时拉取缓存。服务端收到执行完成的回执后，让该命令出队。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对设备的角色进行定义，用于规则引擎的做批量操作。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1阶段，IOT项目围绕着规则引擎来实现。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户通过在平台上注册设备，接入设备S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DK，把设备与我们的后台连接。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过配置产品模型，设备群组，规则引擎，实现设备与设备间和设备与第三方后台间的联动，用较低成本实现一个物联网系统。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>弄清目标用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，有助于我们在设计时，避免过度设计和设计不足的问题。</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5685,24 +5828,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5730,6 +5856,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5745,15 +5874,29 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -5856,6 +5999,50 @@
         <a:xfrm>
           <a:off x="200025" y="723900"/>
           <a:ext cx="13057143" cy="6352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>66160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="9925050"/>
+          <a:ext cx="6610350" cy="11934310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6338,13 +6525,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>551627</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>18379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6376,13 +6563,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>447025</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>85415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6451,15 +6638,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>542275</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>27925</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>95095</xdr:rowOff>
+      <xdr:rowOff>104620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6476,7 +6663,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7181850" y="12058650"/>
+          <a:off x="7010400" y="12068175"/>
           <a:ext cx="5200000" cy="1238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6490,13 +6677,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>512705</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>170545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6815,13 +7002,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>560372</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>161045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6853,13 +7040,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93606</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>94353</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6891,13 +7078,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>675600</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>66101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6929,13 +7116,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>494613</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>151817</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6967,13 +7154,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>475406</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>132782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7005,13 +7192,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>84084</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>199268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7356,15 +7543,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>808826</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>8837</xdr:rowOff>
+      <xdr:colOff>770726</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>189812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7381,7 +7568,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="1209675"/>
+          <a:off x="285750" y="1181100"/>
           <a:ext cx="6390476" cy="5504762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7941,12 +8128,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -7955,11 +8142,11 @@
       <c r="C3" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>820</v>
+      <c r="E3" s="37" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -7969,26 +8156,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="43"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>821</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="39" t="s">
+        <v>819</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -7997,10 +8184,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -8009,10 +8196,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -8021,10 +8208,10 @@
       <c r="C9" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -8033,10 +8220,10 @@
       <c r="C10" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="45" t="s">
         <v>375</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -8045,135 +8232,139 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>638</v>
-      </c>
-      <c r="E11" s="30"/>
+      <c r="D11" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="E12" s="30"/>
+        <v>817</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>820</v>
+      </c>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -8186,16 +8377,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -8223,8 +8410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8236,10 +8423,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>646</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>647</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -8268,12 +8455,12 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -8281,10 +8468,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>650</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>651</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -8313,10 +8500,10 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>652</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>653</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -8345,10 +8532,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -8376,133 +8563,133 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>657</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="D72" s="19" t="s">
         <v>666</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D73" s="19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E74" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>671</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E76" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D77" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>674</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>676</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>679</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E82" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="E83" s="19" t="s">
         <v>682</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19"/>
       <c r="E84" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D85" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="E85" s="19" t="s">
         <v>685</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19"/>
       <c r="E86" s="19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D87" s="19"/>
       <c r="E87" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B89" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="C89" s="26" t="s">
         <v>659</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>660</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -8530,75 +8717,75 @@
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="D102" s="19" t="s">
         <v>691</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="12" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D105" s="19" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E107" s="19"/>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D108" s="19" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E108" s="19"/>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B110" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="C110" s="26" t="s">
         <v>662</v>
-      </c>
-      <c r="C110" s="26" t="s">
-        <v>663</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
@@ -8626,71 +8813,71 @@
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="133" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="D133" s="19" t="s">
         <v>693</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="134" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C134" s="19"/>
       <c r="D134" s="19" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="135" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="136" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>698</v>
+        <v>821</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="138" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C138" s="19" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="139" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="140" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="141" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B141" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="C141" s="26" t="s">
         <v>664</v>
-      </c>
-      <c r="C141" s="26" t="s">
-        <v>665</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27"/>
@@ -8718,163 +8905,163 @@
     </row>
     <row r="142" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C142" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162" s="19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D163" s="19" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D164" s="19"/>
       <c r="E164" s="19" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D165" s="19" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E166" s="19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D167" s="19" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E167" s="19" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E171" s="19" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F172" s="29" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F173" s="29" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F172" s="51" t="s">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F174" s="29" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F173" s="51" t="s">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F175" s="29" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F174" s="51" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F175" s="51" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E176" s="19" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="F177" s="51" t="s">
+      <c r="F177" s="29" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F178" s="29" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F179" s="29" t="s">
         <v>731</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="F178" s="51" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="F179" s="51" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="F181" s="51" t="s">
-        <v>731</v>
+      <c r="F181" s="29" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="F182" s="51" t="s">
-        <v>734</v>
+      <c r="F182" s="29" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="F183" s="51" t="s">
-        <v>735</v>
+      <c r="F183" s="29" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C184" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E184" s="19"/>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D186" s="19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
@@ -8903,297 +9090,297 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B189" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C190" s="19" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="226" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C226" s="19" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="227" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C227" s="19"/>
       <c r="D227" s="19" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E227" s="19" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="228" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C228" s="19"/>
       <c r="D228" s="19"/>
       <c r="E228" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="229" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D229" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E229" s="19" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E230" s="19" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D231" s="19" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E231" s="19" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E232" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C233" s="19" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D234" s="19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E234" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E235" s="19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D236" s="19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E237" s="19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E238" s="19" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E239" s="19" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E240" s="19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="241" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D241" s="19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E241" s="19" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="242" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E242" s="19" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E243" s="19" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="244" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E244" s="19"/>
       <c r="F244" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="245" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E245" s="19" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E246" s="19"/>
       <c r="F246" s="12" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E247" s="19" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="248" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F248" s="19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D249" s="19" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E249" s="19" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E250" s="19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E251" s="19" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F252" s="19" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E253" s="19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F254" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E259" s="19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F260" s="19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E261" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F262" s="19" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E263" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F264" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G265" s="19" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F266" s="19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G267" s="19" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B268" s="18" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C269" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D269" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C289" s="19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D289" s="19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D290" s="19" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B292" s="17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
@@ -9222,56 +9409,56 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B293" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B329" s="19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C330" s="19" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D331" s="19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C332" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D333" s="19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B334" s="19" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D335" s="19" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D336" s="19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -9347,7 +9534,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="51" t="s">
         <v>149</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -9372,7 +9559,7 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="49"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="22" t="s">
         <v>131</v>
       </c>
@@ -9395,7 +9582,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="49"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="22" t="s">
         <v>132</v>
       </c>
@@ -9418,7 +9605,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="51" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -9443,7 +9630,7 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="49"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="22" t="s">
         <v>134</v>
       </c>
@@ -9466,7 +9653,7 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="49"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="22" t="s">
         <v>135</v>
       </c>
@@ -9492,7 +9679,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="51" t="s">
         <v>151</v>
       </c>
       <c r="C11" s="22" t="s">
@@ -9516,7 +9703,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="22" t="s">
         <v>137</v>
       </c>
@@ -9535,7 +9722,7 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="49"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="22" t="s">
         <v>144</v>
       </c>
@@ -9554,7 +9741,7 @@
       <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="22" t="s">
         <v>145</v>
       </c>
@@ -9573,7 +9760,7 @@
       <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="51" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -9594,7 +9781,7 @@
       <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="49"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="22" t="s">
         <v>154</v>
       </c>
@@ -9613,7 +9800,7 @@
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="49"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="22" t="s">
         <v>155</v>
       </c>
@@ -9632,7 +9819,7 @@
       <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="49"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="22" t="s">
         <v>158</v>
       </c>
@@ -9651,7 +9838,7 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="49"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="22" t="s">
         <v>159</v>
       </c>
@@ -9670,7 +9857,7 @@
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="49"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="24" t="s">
         <v>200</v>
       </c>
@@ -9689,7 +9876,7 @@
       <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="22" t="s">
@@ -9710,7 +9897,7 @@
       <c r="N21" s="22"/>
     </row>
     <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="49"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="22" t="s">
         <v>162</v>
       </c>
@@ -9729,7 +9916,7 @@
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="49"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="22" t="s">
         <v>163</v>
       </c>
@@ -9748,7 +9935,7 @@
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="49"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="22" t="s">
         <v>164</v>
       </c>
@@ -9767,7 +9954,7 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="49"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="24" t="s">
         <v>201</v>
       </c>
@@ -9786,7 +9973,7 @@
       <c r="N25" s="22"/>
     </row>
     <row r="26" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="22" t="s">
         <v>165</v>
       </c>
@@ -9805,7 +9992,7 @@
       <c r="N26" s="22"/>
     </row>
     <row r="27" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="49"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="22" t="s">
         <v>166</v>
       </c>
@@ -9824,7 +10011,7 @@
       <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="51" t="s">
         <v>167</v>
       </c>
       <c r="C28" s="22" t="s">
@@ -9845,7 +10032,7 @@
       <c r="N28" s="22"/>
     </row>
     <row r="29" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="49"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="22" t="s">
         <v>169</v>
       </c>
@@ -9864,7 +10051,7 @@
       <c r="N29" s="22"/>
     </row>
     <row r="30" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="49"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="22" t="s">
         <v>170</v>
       </c>
@@ -9883,7 +10070,7 @@
       <c r="N30" s="22"/>
     </row>
     <row r="31" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="51" t="s">
         <v>173</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -9904,7 +10091,7 @@
       <c r="N31" s="22"/>
     </row>
     <row r="32" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="49"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="22" t="s">
         <v>175</v>
       </c>
@@ -9923,7 +10110,7 @@
       <c r="N32" s="22"/>
     </row>
     <row r="33" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="49"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="22" t="s">
         <v>176</v>
       </c>
@@ -9942,7 +10129,7 @@
       <c r="N33" s="22"/>
     </row>
     <row r="34" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="49"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="22" t="s">
         <v>177</v>
       </c>
@@ -9961,7 +10148,7 @@
       <c r="N34" s="22"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="49"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="22" t="s">
         <v>178</v>
       </c>
@@ -9982,7 +10169,7 @@
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="49"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="22" t="s">
         <v>178</v>
       </c>
@@ -10003,7 +10190,7 @@
       <c r="N36" s="22"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="49"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="22" t="s">
         <v>178</v>
       </c>
@@ -10024,10 +10211,10 @@
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="51" t="s">
         <v>185</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -10047,8 +10234,8 @@
       <c r="N38" s="22"/>
     </row>
     <row r="39" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="22" t="s">
         <v>193</v>
       </c>
@@ -10066,8 +10253,8 @@
       <c r="N39" s="22"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="22" t="s">
         <v>194</v>
       </c>
@@ -10085,8 +10272,8 @@
       <c r="N40" s="22"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="22" t="s">
         <v>195</v>
       </c>
@@ -10104,8 +10291,8 @@
       <c r="N41" s="22"/>
     </row>
     <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49" t="s">
+      <c r="B42" s="51"/>
+      <c r="C42" s="51" t="s">
         <v>186</v>
       </c>
       <c r="D42" s="22" t="s">
@@ -10125,8 +10312,8 @@
       <c r="N42" s="22"/>
     </row>
     <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="22" t="s">
         <v>197</v>
       </c>
@@ -10144,7 +10331,7 @@
       <c r="N43" s="22"/>
     </row>
     <row r="44" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="51" t="s">
         <v>179</v>
       </c>
       <c r="C44" s="22" t="s">
@@ -10165,7 +10352,7 @@
       <c r="N44" s="22"/>
     </row>
     <row r="45" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="49"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="22" t="s">
         <v>188</v>
       </c>
@@ -10184,7 +10371,7 @@
       <c r="N45" s="22"/>
     </row>
     <row r="46" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="49"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="22" t="s">
         <v>189</v>
       </c>
@@ -10203,7 +10390,7 @@
       <c r="N46" s="22"/>
     </row>
     <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="49"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="22" t="s">
         <v>190</v>
       </c>
@@ -10222,7 +10409,7 @@
       <c r="N47" s="22"/>
     </row>
     <row r="48" spans="2:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="49"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="22" t="s">
         <v>191</v>
       </c>
@@ -10261,10 +10448,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10279,7 +10466,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -10308,7 +10495,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -10316,7 +10503,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -10345,10 +10532,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -10377,46 +10564,93 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>818</v>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B45" s="19" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B47" s="19" t="s">
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -10431,8 +10665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W111" sqref="W111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11103,10 +11337,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z190"/>
+  <dimension ref="A1:Z197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="Z191" sqref="Z191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11437,57 +11671,57 @@
         <v>344</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="114" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="19"/>
       <c r="H114" s="28"/>
-      <c r="I114" s="50" t="s">
+      <c r="I114" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="J114" s="49"/>
-      <c r="K114" s="49"/>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J114" s="51"/>
+      <c r="K114" s="51"/>
+    </row>
+    <row r="115" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D115" s="19"/>
-      <c r="I115" s="49"/>
-      <c r="J115" s="49"/>
-      <c r="K115" s="49"/>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
+      <c r="K115" s="51"/>
+    </row>
+    <row r="116" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D116" s="19"/>
-      <c r="I116" s="49"/>
-      <c r="J116" s="49"/>
-      <c r="K116" s="49"/>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
+    </row>
+    <row r="117" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D117" s="19"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="49"/>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I117" s="51"/>
+      <c r="J117" s="51"/>
+      <c r="K117" s="51"/>
+    </row>
+    <row r="118" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D118" s="19"/>
-      <c r="I118" s="49"/>
-      <c r="J118" s="49"/>
-      <c r="K118" s="49"/>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I118" s="51"/>
+      <c r="J118" s="51"/>
+      <c r="K118" s="51"/>
+    </row>
+    <row r="119" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D119" s="19"/>
-      <c r="I119" s="49"/>
-      <c r="J119" s="49"/>
-      <c r="K119" s="49"/>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
+      <c r="K119" s="51"/>
+    </row>
+    <row r="120" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D120" s="19"/>
-      <c r="I120" s="49"/>
-      <c r="J120" s="49"/>
-      <c r="K120" s="49"/>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+    </row>
+    <row r="121" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C121" s="19" t="s">
         <v>345</v>
       </c>
@@ -11495,228 +11729,293 @@
         <v>346</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A124" s="17" t="s">
+    <row r="123" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D123" s="19"/>
+    </row>
+    <row r="124" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B124" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="27"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="27"/>
+      <c r="N124" s="27"/>
+      <c r="O124" s="27"/>
+      <c r="P124" s="27"/>
+      <c r="Q124" s="27"/>
+      <c r="R124" s="27"/>
+      <c r="S124" s="27"/>
+      <c r="T124" s="27"/>
+      <c r="U124" s="27"/>
+      <c r="V124" s="27"/>
+      <c r="W124" s="27"/>
+      <c r="X124" s="27"/>
+      <c r="Y124" s="27"/>
+      <c r="Z124" s="27"/>
+    </row>
+    <row r="125" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C125" s="19" t="s">
+        <v>826</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="126" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D126" s="19" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="127" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C127" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="128" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D128" s="19" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D129" s="19" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A131" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="17" t="s">
+      <c r="B131" s="13"/>
+      <c r="C131" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
-      <c r="M124" s="13"/>
-      <c r="N124" s="13"/>
-      <c r="O124" s="13"/>
-      <c r="P124" s="13"/>
-      <c r="Q124" s="13"/>
-      <c r="R124" s="13"/>
-      <c r="S124" s="13"/>
-      <c r="T124" s="13"/>
-      <c r="U124" s="13"/>
-      <c r="V124" s="13"/>
-      <c r="W124" s="13"/>
-      <c r="X124" s="13"/>
-      <c r="Y124" s="13"/>
-      <c r="Z124" s="13"/>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B125" s="25" t="s">
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="13"/>
+      <c r="N131" s="13"/>
+      <c r="O131" s="13"/>
+      <c r="P131" s="13"/>
+      <c r="Q131" s="13"/>
+      <c r="R131" s="13"/>
+      <c r="S131" s="13"/>
+      <c r="T131" s="13"/>
+      <c r="U131" s="13"/>
+      <c r="V131" s="13"/>
+      <c r="W131" s="13"/>
+      <c r="X131" s="13"/>
+      <c r="Y131" s="13"/>
+      <c r="Z131" s="13"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B132" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C125" s="26" t="s">
+      <c r="C132" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27"/>
-      <c r="N125" s="27"/>
-      <c r="O125" s="27"/>
-      <c r="P125" s="27"/>
-      <c r="Q125" s="27"/>
-      <c r="R125" s="27"/>
-      <c r="S125" s="27"/>
-      <c r="T125" s="27"/>
-      <c r="U125" s="27"/>
-      <c r="V125" s="27"/>
-      <c r="W125" s="27"/>
-      <c r="X125" s="27"/>
-      <c r="Y125" s="27"/>
-      <c r="Z125" s="27"/>
-    </row>
-    <row r="161" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B161" s="25" t="s">
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="27"/>
+      <c r="P132" s="27"/>
+      <c r="Q132" s="27"/>
+      <c r="R132" s="27"/>
+      <c r="S132" s="27"/>
+      <c r="T132" s="27"/>
+      <c r="U132" s="27"/>
+      <c r="V132" s="27"/>
+      <c r="W132" s="27"/>
+      <c r="X132" s="27"/>
+      <c r="Y132" s="27"/>
+      <c r="Z132" s="27"/>
+    </row>
+    <row r="168" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B168" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C168" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="27"/>
-      <c r="K161" s="27"/>
-      <c r="L161" s="27"/>
-      <c r="M161" s="27"/>
-      <c r="N161" s="27"/>
-      <c r="O161" s="27"/>
-      <c r="P161" s="27"/>
-      <c r="Q161" s="27"/>
-      <c r="R161" s="27"/>
-      <c r="S161" s="27"/>
-      <c r="T161" s="27"/>
-      <c r="U161" s="27"/>
-      <c r="V161" s="27"/>
-      <c r="W161" s="27"/>
-      <c r="X161" s="27"/>
-      <c r="Y161" s="27"/>
-      <c r="Z161" s="27"/>
-    </row>
-    <row r="162" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C162" s="19" t="s">
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="27"/>
+      <c r="L168" s="27"/>
+      <c r="M168" s="27"/>
+      <c r="N168" s="27"/>
+      <c r="O168" s="27"/>
+      <c r="P168" s="27"/>
+      <c r="Q168" s="27"/>
+      <c r="R168" s="27"/>
+      <c r="S168" s="27"/>
+      <c r="T168" s="27"/>
+      <c r="U168" s="27"/>
+      <c r="V168" s="27"/>
+      <c r="W168" s="27"/>
+      <c r="X168" s="27"/>
+      <c r="Y168" s="27"/>
+      <c r="Z168" s="27"/>
+    </row>
+    <row r="169" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C169" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="D162" s="19" t="s">
+      <c r="D169" s="19" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="163" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C163" s="19"/>
-      <c r="D163" s="19" t="s">
+    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C170" s="19"/>
+      <c r="D170" s="19" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="164" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C164" s="19"/>
-      <c r="D164" s="19" t="s">
+    <row r="171" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C171" s="19"/>
+      <c r="D171" s="19" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="165" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C165" s="19" t="s">
+    <row r="172" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C172" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="D165" s="19" t="s">
+      <c r="D172" s="19" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="166" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D166" s="19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="167" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C167" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="D167" s="19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="168" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D168" s="19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="169" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D169" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="E169" s="19" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E170" s="19" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="171" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E171" s="19" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="172" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E172" s="19" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="173" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D173" s="19" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B174" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="C174" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="27"/>
-      <c r="K174" s="27"/>
-      <c r="L174" s="27"/>
-      <c r="M174" s="27"/>
-      <c r="N174" s="27"/>
-      <c r="O174" s="27"/>
-      <c r="P174" s="27"/>
-      <c r="Q174" s="27"/>
-      <c r="R174" s="27"/>
-      <c r="S174" s="27"/>
-      <c r="T174" s="27"/>
-      <c r="U174" s="27"/>
-      <c r="V174" s="27"/>
-      <c r="W174" s="27"/>
-      <c r="X174" s="27"/>
-      <c r="Y174" s="27"/>
-      <c r="Z174" s="27"/>
+      <c r="C174" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D174" s="19" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="175" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C175" s="19" t="s">
-        <v>353</v>
-      </c>
       <c r="D175" s="19" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="176" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D176" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="E176" s="19" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="177" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E177" s="19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E178" s="19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="179" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E179" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D180" s="19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B181" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C181" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
+      <c r="K181" s="27"/>
+      <c r="L181" s="27"/>
+      <c r="M181" s="27"/>
+      <c r="N181" s="27"/>
+      <c r="O181" s="27"/>
+      <c r="P181" s="27"/>
+      <c r="Q181" s="27"/>
+      <c r="R181" s="27"/>
+      <c r="S181" s="27"/>
+      <c r="T181" s="27"/>
+      <c r="U181" s="27"/>
+      <c r="V181" s="27"/>
+      <c r="W181" s="27"/>
+      <c r="X181" s="27"/>
+      <c r="Y181" s="27"/>
+      <c r="Z181" s="27"/>
+    </row>
+    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C182" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D183" s="19" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C190" s="19" t="s">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C197" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="D190" s="19" t="s">
+      <c r="D197" s="19" t="s">
         <v>371</v>
       </c>
     </row>
@@ -11750,8 +12049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z239"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="X94" sqref="X94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13049,10 +13348,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z222"/>
+  <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="W97" sqref="W97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13183,738 +13482,744 @@
       </c>
       <c r="D11" s="19"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B38" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B38" s="25" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B39" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C39" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B73" s="25" t="s">
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B74" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C74" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="27"/>
-      <c r="T73" s="27"/>
-      <c r="U73" s="27"/>
-      <c r="V73" s="27"/>
-      <c r="W73" s="27"/>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="27"/>
-      <c r="Z73" s="27"/>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C74" s="19" t="s">
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C75" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D75" s="19" t="s">
+    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D76" s="19" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C76" s="19" t="s">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C77" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D77" s="19" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D77" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D79" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="H78" s="19"/>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C79" s="19" t="s">
+      <c r="H79" s="19"/>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C80" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D80" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="H79" s="19"/>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D80" s="19" t="s">
+      <c r="H80" s="19"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D81" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C81" s="19" t="s">
+      <c r="H81" s="19"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C82" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D82" s="19" t="s">
         <v>261</v>
-      </c>
-      <c r="H81" s="19"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D82" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="H82" s="19"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H83" s="19"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="H84" s="19"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D85" s="19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D85" s="19"/>
-    </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A86" s="17" t="s">
+      <c r="D86" s="19"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17" t="s">
+      <c r="B87" s="17"/>
+      <c r="C87" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
-      <c r="U86" s="13"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="13"/>
-      <c r="Y86" s="13"/>
-      <c r="Z86" s="13"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B87" s="25" t="s">
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="13"/>
+      <c r="X87" s="13"/>
+      <c r="Y87" s="13"/>
+      <c r="Z87" s="13"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B88" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C88" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B118" s="25" t="s">
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="27"/>
+      <c r="S88" s="27"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+    </row>
+    <row r="119" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B119" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C118" s="26" t="s">
+      <c r="C119" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="27"/>
-      <c r="M118" s="27"/>
-      <c r="N118" s="27"/>
-      <c r="O118" s="27"/>
-      <c r="P118" s="27"/>
-      <c r="Q118" s="27"/>
-      <c r="R118" s="27"/>
-      <c r="S118" s="27"/>
-      <c r="T118" s="27"/>
-      <c r="U118" s="27"/>
-      <c r="V118" s="27"/>
-      <c r="W118" s="27"/>
-      <c r="X118" s="27"/>
-      <c r="Y118" s="27"/>
-      <c r="Z118" s="27"/>
-    </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C119" s="18" t="s">
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="27"/>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="27"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+    </row>
+    <row r="120" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C120" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D119" s="19" t="s">
+      <c r="D120" s="19" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D120" s="19" t="s">
+    <row r="121" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D121" s="19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C121" s="18" t="s">
+    <row r="122" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C122" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D122" s="19" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D122" s="19" t="s">
+    <row r="123" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D123" s="19" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C123" s="18" t="s">
+    <row r="124" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C124" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D124" s="19" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D124" s="19" t="s">
+    <row r="125" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D125" s="19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C125" s="18" t="s">
+    <row r="126" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C126" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D126" s="19" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D126" s="19" t="s">
+    <row r="127" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D127" s="19" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A128" s="17" t="s">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A129" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17" t="s">
+      <c r="B129" s="17"/>
+      <c r="C129" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
-      <c r="M128" s="13"/>
-      <c r="N128" s="13"/>
-      <c r="O128" s="13"/>
-      <c r="P128" s="13"/>
-      <c r="Q128" s="13"/>
-      <c r="R128" s="13"/>
-      <c r="S128" s="13"/>
-      <c r="T128" s="13"/>
-      <c r="U128" s="13"/>
-      <c r="V128" s="13"/>
-      <c r="W128" s="13"/>
-      <c r="X128" s="13"/>
-      <c r="Y128" s="13"/>
-      <c r="Z128" s="13"/>
-    </row>
-    <row r="129" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B129" s="25" t="s">
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
+      <c r="O129" s="13"/>
+      <c r="P129" s="13"/>
+      <c r="Q129" s="13"/>
+      <c r="R129" s="13"/>
+      <c r="S129" s="13"/>
+      <c r="T129" s="13"/>
+      <c r="U129" s="13"/>
+      <c r="V129" s="13"/>
+      <c r="W129" s="13"/>
+      <c r="X129" s="13"/>
+      <c r="Y129" s="13"/>
+      <c r="Z129" s="13"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B130" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C130" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="27"/>
-      <c r="L129" s="27"/>
-      <c r="M129" s="27"/>
-      <c r="N129" s="27"/>
-      <c r="O129" s="27"/>
-      <c r="P129" s="27"/>
-      <c r="Q129" s="27"/>
-      <c r="R129" s="27"/>
-      <c r="S129" s="27"/>
-      <c r="T129" s="27"/>
-      <c r="U129" s="27"/>
-      <c r="V129" s="27"/>
-      <c r="W129" s="27"/>
-      <c r="X129" s="27"/>
-      <c r="Y129" s="27"/>
-      <c r="Z129" s="27"/>
-    </row>
-    <row r="166" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B166" s="25" t="s">
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="27"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="27"/>
+      <c r="Q130" s="27"/>
+      <c r="R130" s="27"/>
+      <c r="S130" s="27"/>
+      <c r="T130" s="27"/>
+      <c r="U130" s="27"/>
+      <c r="V130" s="27"/>
+      <c r="W130" s="27"/>
+      <c r="X130" s="27"/>
+      <c r="Y130" s="27"/>
+      <c r="Z130" s="27"/>
+    </row>
+    <row r="167" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B167" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="C166" s="26" t="s">
+      <c r="C167" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="27"/>
-      <c r="K166" s="27"/>
-      <c r="L166" s="27"/>
-      <c r="M166" s="27"/>
-      <c r="N166" s="27"/>
-      <c r="O166" s="27"/>
-      <c r="P166" s="27"/>
-      <c r="Q166" s="27"/>
-      <c r="R166" s="27"/>
-      <c r="S166" s="27"/>
-      <c r="T166" s="27"/>
-      <c r="U166" s="27"/>
-      <c r="V166" s="27"/>
-      <c r="W166" s="27"/>
-      <c r="X166" s="27"/>
-      <c r="Y166" s="27"/>
-      <c r="Z166" s="27"/>
-    </row>
-    <row r="167" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C167" s="19" t="s">
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="27"/>
+      <c r="K167" s="27"/>
+      <c r="L167" s="27"/>
+      <c r="M167" s="27"/>
+      <c r="N167" s="27"/>
+      <c r="O167" s="27"/>
+      <c r="P167" s="27"/>
+      <c r="Q167" s="27"/>
+      <c r="R167" s="27"/>
+      <c r="S167" s="27"/>
+      <c r="T167" s="27"/>
+      <c r="U167" s="27"/>
+      <c r="V167" s="27"/>
+      <c r="W167" s="27"/>
+      <c r="X167" s="27"/>
+      <c r="Y167" s="27"/>
+      <c r="Z167" s="27"/>
+    </row>
+    <row r="168" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C168" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D167" s="19" t="s">
+      <c r="D168" s="19" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="168" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D168" s="19" t="s">
+    <row r="169" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D169" s="19" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="169" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C169" s="19" t="s">
+    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C170" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D169" s="19" t="s">
+      <c r="D170" s="19" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D170" s="19" t="s">
+    <row r="171" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D171" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="172" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B172" s="25" t="s">
+    <row r="173" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B173" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="C172" s="26" t="s">
+      <c r="C173" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="27"/>
-      <c r="K172" s="27"/>
-      <c r="L172" s="27"/>
-      <c r="M172" s="27"/>
-      <c r="N172" s="27"/>
-      <c r="O172" s="27"/>
-      <c r="P172" s="27"/>
-      <c r="Q172" s="27"/>
-      <c r="R172" s="27"/>
-      <c r="S172" s="27"/>
-      <c r="T172" s="27"/>
-      <c r="U172" s="27"/>
-      <c r="V172" s="27"/>
-      <c r="W172" s="27"/>
-      <c r="X172" s="27"/>
-      <c r="Y172" s="27"/>
-      <c r="Z172" s="27"/>
-    </row>
-    <row r="173" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C173" s="19" t="s">
-        <v>288</v>
-      </c>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+      <c r="K173" s="27"/>
+      <c r="L173" s="27"/>
+      <c r="M173" s="27"/>
+      <c r="N173" s="27"/>
+      <c r="O173" s="27"/>
+      <c r="P173" s="27"/>
+      <c r="Q173" s="27"/>
+      <c r="R173" s="27"/>
+      <c r="S173" s="27"/>
+      <c r="T173" s="27"/>
+      <c r="U173" s="27"/>
+      <c r="V173" s="27"/>
+      <c r="W173" s="27"/>
+      <c r="X173" s="27"/>
+      <c r="Y173" s="27"/>
+      <c r="Z173" s="27"/>
     </row>
     <row r="174" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C174" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C175" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D174" s="19" t="s">
+      <c r="D175" s="19" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C175" s="19"/>
-      <c r="D175" s="19" t="s">
+    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C176" s="19"/>
+      <c r="D176" s="19" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C176" s="19" t="s">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C177" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D176" s="19" t="s">
+      <c r="D177" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C177" s="19"/>
-      <c r="D177" s="19" t="s">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C178" s="19"/>
+      <c r="D178" s="19" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C178" s="19" t="s">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C179" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="D178" s="19" t="s">
+      <c r="D179" s="19" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C179" s="19"/>
-      <c r="D179" s="19" t="s">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C180" s="19"/>
+      <c r="D180" s="19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C180" s="19" t="s">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C181" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="D180" s="19" t="s">
+      <c r="D181" s="19" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D181" s="19" t="s">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D182" s="19" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A183" s="17" t="s">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A184" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="B183" s="17"/>
-      <c r="C183" s="17" t="s">
+      <c r="B184" s="17"/>
+      <c r="C184" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="13"/>
-      <c r="H183" s="13"/>
-      <c r="I183" s="13"/>
-      <c r="J183" s="13"/>
-      <c r="K183" s="13"/>
-      <c r="L183" s="13"/>
-      <c r="M183" s="13"/>
-      <c r="N183" s="13"/>
-      <c r="O183" s="13"/>
-      <c r="P183" s="13"/>
-      <c r="Q183" s="13"/>
-      <c r="R183" s="13"/>
-      <c r="S183" s="13"/>
-      <c r="T183" s="13"/>
-      <c r="U183" s="13"/>
-      <c r="V183" s="13"/>
-      <c r="W183" s="13"/>
-      <c r="X183" s="13"/>
-      <c r="Y183" s="13"/>
-      <c r="Z183" s="13"/>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B184" s="25" t="s">
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="13"/>
+      <c r="K184" s="13"/>
+      <c r="L184" s="13"/>
+      <c r="M184" s="13"/>
+      <c r="N184" s="13"/>
+      <c r="O184" s="13"/>
+      <c r="P184" s="13"/>
+      <c r="Q184" s="13"/>
+      <c r="R184" s="13"/>
+      <c r="S184" s="13"/>
+      <c r="T184" s="13"/>
+      <c r="U184" s="13"/>
+      <c r="V184" s="13"/>
+      <c r="W184" s="13"/>
+      <c r="X184" s="13"/>
+      <c r="Y184" s="13"/>
+      <c r="Z184" s="13"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B185" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C184" s="26" t="s">
+      <c r="C185" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="27"/>
-      <c r="K184" s="27"/>
-      <c r="L184" s="27"/>
-      <c r="M184" s="27"/>
-      <c r="N184" s="27"/>
-      <c r="O184" s="27"/>
-      <c r="P184" s="27"/>
-      <c r="Q184" s="27"/>
-      <c r="R184" s="27"/>
-      <c r="S184" s="27"/>
-      <c r="T184" s="27"/>
-      <c r="U184" s="27"/>
-      <c r="V184" s="27"/>
-      <c r="W184" s="27"/>
-      <c r="X184" s="27"/>
-      <c r="Y184" s="27"/>
-      <c r="Z184" s="27"/>
-    </row>
-    <row r="208" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B208" s="25" t="s">
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="27"/>
+      <c r="K185" s="27"/>
+      <c r="L185" s="27"/>
+      <c r="M185" s="27"/>
+      <c r="N185" s="27"/>
+      <c r="O185" s="27"/>
+      <c r="P185" s="27"/>
+      <c r="Q185" s="27"/>
+      <c r="R185" s="27"/>
+      <c r="S185" s="27"/>
+      <c r="T185" s="27"/>
+      <c r="U185" s="27"/>
+      <c r="V185" s="27"/>
+      <c r="W185" s="27"/>
+      <c r="X185" s="27"/>
+      <c r="Y185" s="27"/>
+      <c r="Z185" s="27"/>
+    </row>
+    <row r="209" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B209" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C208" s="26" t="s">
+      <c r="C209" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D208" s="27"/>
-      <c r="E208" s="27"/>
-      <c r="F208" s="27"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="27"/>
-      <c r="I208" s="27"/>
-      <c r="J208" s="27"/>
-      <c r="K208" s="27"/>
-      <c r="L208" s="27"/>
-      <c r="M208" s="27"/>
-      <c r="N208" s="27"/>
-      <c r="O208" s="27"/>
-      <c r="P208" s="27"/>
-      <c r="Q208" s="27"/>
-      <c r="R208" s="27"/>
-      <c r="S208" s="27"/>
-      <c r="T208" s="27"/>
-      <c r="U208" s="27"/>
-      <c r="V208" s="27"/>
-      <c r="W208" s="27"/>
-      <c r="X208" s="27"/>
-      <c r="Y208" s="27"/>
-      <c r="Z208" s="27"/>
-    </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C209" s="19" t="s">
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="27"/>
+      <c r="G209" s="27"/>
+      <c r="H209" s="27"/>
+      <c r="I209" s="27"/>
+      <c r="J209" s="27"/>
+      <c r="K209" s="27"/>
+      <c r="L209" s="27"/>
+      <c r="M209" s="27"/>
+      <c r="N209" s="27"/>
+      <c r="O209" s="27"/>
+      <c r="P209" s="27"/>
+      <c r="Q209" s="27"/>
+      <c r="R209" s="27"/>
+      <c r="S209" s="27"/>
+      <c r="T209" s="27"/>
+      <c r="U209" s="27"/>
+      <c r="V209" s="27"/>
+      <c r="W209" s="27"/>
+      <c r="X209" s="27"/>
+      <c r="Y209" s="27"/>
+      <c r="Z209" s="27"/>
+    </row>
+    <row r="210" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C210" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D209" s="19" t="s">
+      <c r="D210" s="19" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D210" s="19" t="s">
+    <row r="211" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D211" s="19" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="211" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C211" s="19" t="s">
+    <row r="212" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C212" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="D211" s="19" t="s">
+      <c r="D212" s="19" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="212" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D212" s="19" t="s">
+    <row r="213" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D213" s="19" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D213" s="19" t="s">
+    <row r="214" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D214" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C214" s="19" t="s">
+    <row r="215" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C215" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="D214" s="19" t="s">
+      <c r="D215" s="19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D215" s="19" t="s">
+    <row r="216" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D216" s="19" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E216" s="19" t="s">
+    <row r="217" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E217" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="217" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E217" s="19" t="s">
+    <row r="218" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E218" s="19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E218" s="19" t="s">
+    <row r="219" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E219" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="219" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D219" s="19" t="s">
+    <row r="220" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D220" s="19" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E220" s="19" t="s">
+    <row r="221" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E221" s="19" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C221" s="19" t="s">
+    <row r="222" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C222" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="D221" s="19" t="s">
+      <c r="D222" s="19" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="222" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D222" s="19" t="s">
+    <row r="223" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D223" s="19" t="s">
         <v>318</v>
       </c>
     </row>
@@ -13930,8 +14235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z235"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="W216" sqref="W216"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14048,13 +14353,13 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>510</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -14124,7 +14429,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E17" s="19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
@@ -14163,7 +14468,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E23" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
@@ -14177,7 +14482,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D25" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E25" s="19"/>
     </row>
@@ -14199,7 +14504,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>228</v>
@@ -14231,25 +14536,25 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -14278,46 +14583,46 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>573</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>575</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>579</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>248</v>
@@ -14349,10 +14654,10 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -14381,22 +14686,22 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D112" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D114" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
@@ -14404,7 +14709,7 @@
         <v>385</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -14433,10 +14738,10 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B117" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="C117" s="26" t="s">
         <v>521</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>522</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="27"/>
@@ -14464,10 +14769,10 @@
     </row>
     <row r="153" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B153" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="C153" s="26" t="s">
         <v>524</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>525</v>
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="27"/>
@@ -14495,190 +14800,190 @@
     </row>
     <row r="154" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C154" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="D154" s="19" t="s">
         <v>531</v>
-      </c>
-      <c r="D154" s="19" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="155" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D155" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="156" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D156" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="157" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D157" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="158" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C158" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="D158" s="19" t="s">
         <v>533</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="159" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D159" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="160" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D160" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D162" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E163" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E164" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E165" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D166" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E167" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D170" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D171" s="19" t="s">
         <v>546</v>
-      </c>
-      <c r="D171" s="19" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D173" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C174" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="D174" s="19" t="s">
         <v>561</v>
-      </c>
-      <c r="D174" s="19" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="E175" s="19" t="s">
         <v>563</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D177" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E177" s="19" t="s">
         <v>566</v>
-      </c>
-      <c r="E177" s="19" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="178" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B180" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27"/>
@@ -14706,99 +15011,99 @@
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C181" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="182" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D182" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="183" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="184" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C184" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="D184" s="19" t="s">
         <v>586</v>
-      </c>
-      <c r="D184" s="19" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="186" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C186" s="19" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="E187" s="19" t="s">
         <v>593</v>
-      </c>
-      <c r="E187" s="19" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="188" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19"/>
       <c r="E188" s="19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="189" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="E189" s="19" t="s">
         <v>595</v>
-      </c>
-      <c r="E189" s="19" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E190" s="19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="191" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E191" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
       <c r="F192" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="193" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E193" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="194" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F194" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="195" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E195" s="19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="196" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E196" s="19"/>
       <c r="F196" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="197" spans="4:8" x14ac:dyDescent="0.3">
@@ -14818,190 +15123,190 @@
     </row>
     <row r="202" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F202" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="203" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F203" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="204" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F204" s="19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="205" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F205" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="206" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F206" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F207" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="H207" s="19" t="s">
         <v>609</v>
-      </c>
-      <c r="H207" s="19" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="208" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D208" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E208" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E209" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="210" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D210" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="E210" s="19" t="s">
         <v>613</v>
-      </c>
-      <c r="E210" s="19" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="211" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E211" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E212" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="213" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E213" s="19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="214" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D214" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="E214" s="19" t="s">
         <v>618</v>
-      </c>
-      <c r="E214" s="19" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="215" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E215" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C216" s="19" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D217" s="19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C218" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="D218" s="19" t="s">
         <v>624</v>
-      </c>
-      <c r="D218" s="19" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D219" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="220" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D220" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E221" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F222" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E223" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F224" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="225" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F225" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="226" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E226" s="19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="227" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F227" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="228" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D228" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="229" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E229" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="230" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F230" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="231" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E231" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="232" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F232" s="19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="233" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F233" s="19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="234" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F234" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="235" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F235" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/Java/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT物联网平台.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
     <sheet name="进度规划" sheetId="83" state="hidden" r:id="rId2"/>
     <sheet name="总览" sheetId="88" r:id="rId3"/>
-    <sheet name="设备列表页面" sheetId="79" r:id="rId4"/>
-    <sheet name="设备详情页面" sheetId="86" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="84" state="hidden" r:id="rId6"/>
-    <sheet name="群组页面" sheetId="80" r:id="rId7"/>
-    <sheet name="产品页面" sheetId="81" r:id="rId8"/>
-    <sheet name="规则模块" sheetId="87" r:id="rId9"/>
-    <sheet name="主题" sheetId="89" r:id="rId10"/>
+    <sheet name="项目" sheetId="90" r:id="rId4"/>
+    <sheet name="设备列表页面" sheetId="79" r:id="rId5"/>
+    <sheet name="设备详情页面" sheetId="86" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="84" state="hidden" r:id="rId7"/>
+    <sheet name="群组页面" sheetId="80" r:id="rId8"/>
+    <sheet name="产品页面" sheetId="81" r:id="rId9"/>
+    <sheet name="规则模块" sheetId="87" r:id="rId10"/>
+    <sheet name="主题" sheetId="89" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="888">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -5049,10 +5050,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>褚智勇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>IOT物联网平台设计</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -5227,6 +5224,311 @@
       </rPr>
       <t>，有助于我们在设计时，避免过度设计和设计不足的问题。</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目是一个物联网产品的根结点。项目下可包含多个产品。同时，规则，主题，设备群组，都是项目下的模块。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备的物联在本平台中，只能在同一个项目中进行联通交互。(不同项目间的设备联动，在北向应用v2版本中实现)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含元素和元素详解</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击创建项目，弹出项目创建页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含项目名称，显示名，项目Id，创建时间，操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称可点击，点击进入对应项目的详情页面。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作有详情和删除，点击产出需有弹框二次确认。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目概念介绍，一个包含设备，群组，规则，主题的图标，以让用户直观的理解我们的系统。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑按钮，编辑按钮消失，下发出现取消和确认按钮。详细信息和显示名变为可编辑。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认，保存信息，退出编辑状态，取消和确认按钮消失，编辑按钮出现。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>四.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，英文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文标题，用于显示，简要说明，可中文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目的描述，可以考虑带滚动条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x，点击后关闭窗口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没填写时，确认置灰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写项目名称后，确认亮起。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认，取消</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击取消退出窗口。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确认则新建项目，而后关闭窗口。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚智勇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚智勇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加项目模块</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5829,6 +6131,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5873,24 +6193,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -6055,6 +6357,125 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>807983</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>113396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="1266825"/>
+          <a:ext cx="13133333" cy="7228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>93606</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>94348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="11106150"/>
+          <a:ext cx="13152381" cy="7219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370750</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>113895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="21183600"/>
+          <a:ext cx="5800000" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6443,7 +6864,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6714,7 +7135,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6757,7 +7178,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6996,7 +7417,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7229,7 +7650,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7538,7 +7959,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8112,8 +8533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -8128,12 +8549,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -8142,11 +8563,11 @@
       <c r="C3" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>818</v>
+      <c r="E3" s="43" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8156,26 +8577,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>819</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
+      <c r="C5" s="45" t="s">
+        <v>818</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -8184,10 +8605,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -8196,10 +8617,10 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -8208,10 +8629,10 @@
       <c r="C9" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
@@ -8220,10 +8641,10 @@
       <c r="C10" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -8232,139 +8653,141 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="35" t="s">
         <v>637</v>
       </c>
-      <c r="E11" s="46"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>820</v>
-      </c>
-      <c r="E12" s="46"/>
+        <v>885</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="B13" s="7">
+        <v>43976</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>887</v>
+      </c>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -8377,12 +8800,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -8408,10 +8835,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z336"/>
+  <dimension ref="A1:Z235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="W46" sqref="W46"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8423,10 +8850,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>645</v>
+        <v>482</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>646</v>
+        <v>483</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -8454,6 +8881,1092 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C3" s="19" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C4" s="19" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E10" s="19" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D11" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C13" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D14" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E15" s="19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D16" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E17" s="19" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C18" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D19" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E20" s="19" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E21" s="19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D22" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E23" s="19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C24" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D25" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D26" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D27" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B30" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B57" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C58" s="19" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C59" s="19" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B60" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C61" s="19" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A97" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+      <c r="U97" s="13"/>
+      <c r="V97" s="13"/>
+      <c r="W97" s="13"/>
+      <c r="X97" s="13"/>
+      <c r="Y97" s="13"/>
+      <c r="Z97" s="13"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C111" s="19" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D112" s="19" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D113" s="19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D114" s="19" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A116" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13"/>
+      <c r="Q116" s="13"/>
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="13"/>
+      <c r="U116" s="13"/>
+      <c r="V116" s="13"/>
+      <c r="W116" s="13"/>
+      <c r="X116" s="13"/>
+      <c r="Y116" s="13"/>
+      <c r="Z116" s="13"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B117" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
+      <c r="Q117" s="27"/>
+      <c r="R117" s="27"/>
+      <c r="S117" s="27"/>
+      <c r="T117" s="27"/>
+      <c r="U117" s="27"/>
+      <c r="V117" s="27"/>
+      <c r="W117" s="27"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
+    </row>
+    <row r="153" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B153" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="27"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="27"/>
+      <c r="M153" s="27"/>
+      <c r="N153" s="27"/>
+      <c r="O153" s="27"/>
+      <c r="P153" s="27"/>
+      <c r="Q153" s="27"/>
+      <c r="R153" s="27"/>
+      <c r="S153" s="27"/>
+      <c r="T153" s="27"/>
+      <c r="U153" s="27"/>
+      <c r="V153" s="27"/>
+      <c r="W153" s="27"/>
+      <c r="X153" s="27"/>
+      <c r="Y153" s="27"/>
+      <c r="Z153" s="27"/>
+    </row>
+    <row r="154" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C154" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="155" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D155" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="156" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D156" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="F156" s="19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="157" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D157" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="F157" s="19" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="158" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C158" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="159" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D159" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="160" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D160" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="F160" s="19" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C161" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D162" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="F162" s="19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E163" s="19" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E164" s="19" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E165" s="19" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D166" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="F166" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E167" s="19" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E168" s="19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D169" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D170" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C171" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D172" s="19" t="s">
+        <v>554</v>
+      </c>
+      <c r="F172" s="19" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D173" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="F173" s="19" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C174" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="D174" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D175" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="E175" s="19" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D176" s="19"/>
+      <c r="E176" s="19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="177" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D177" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E177" s="19" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E178" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B180" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="C180" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+      <c r="K180" s="27"/>
+      <c r="L180" s="27"/>
+      <c r="M180" s="27"/>
+      <c r="N180" s="27"/>
+      <c r="O180" s="27"/>
+      <c r="P180" s="27"/>
+      <c r="Q180" s="27"/>
+      <c r="R180" s="27"/>
+      <c r="S180" s="27"/>
+      <c r="T180" s="27"/>
+      <c r="U180" s="27"/>
+      <c r="V180" s="27"/>
+      <c r="W180" s="27"/>
+      <c r="X180" s="27"/>
+      <c r="Y180" s="27"/>
+      <c r="Z180" s="27"/>
+    </row>
+    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C181" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="D181" s="19" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D182" s="19" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D183" s="19" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C184" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="D184" s="19" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="185" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D185" s="19" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="186" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C186" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="D186" s="19" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="187" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D187" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="E187" s="19" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="188" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C188" s="19"/>
+      <c r="E188" s="19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="189" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D189" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="E189" s="19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="190" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E190" s="19" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="191" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E191" s="19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="192" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="F192" s="19" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="193" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E193" s="19" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="194" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F194" s="19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="195" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E195" s="19" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="196" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E196" s="19"/>
+      <c r="F196" s="19" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="197" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E197" s="19"/>
+    </row>
+    <row r="198" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E198" s="19"/>
+    </row>
+    <row r="199" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E199" s="19"/>
+    </row>
+    <row r="200" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E200" s="19"/>
+    </row>
+    <row r="201" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E201" s="19"/>
+    </row>
+    <row r="202" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F202" s="19" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="203" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F203" s="19" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="204" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F204" s="19" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="205" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F205" s="19" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="206" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F206" s="19" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="207" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F207" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="H207" s="19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="208" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D208" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="E208" s="19" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="209" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E209" s="19" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="210" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D210" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="E210" s="19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="211" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E211" s="19" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="212" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E212" s="19" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="213" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E213" s="19" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="214" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D214" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="E214" s="19" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="215" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E215" s="19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="216" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C216" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="D216" s="19" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="217" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D217" s="19" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="218" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C218" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="D218" s="19" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="219" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D219" s="19" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="220" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D220" s="19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="221" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E221" s="19" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F222" s="19" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="223" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E223" s="19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="224" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F224" s="19" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="225" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F225" s="19" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="226" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E226" s="19" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="227" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F227" s="12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="228" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D228" s="12" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="229" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E229" s="12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="230" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F230" s="12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="231" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E231" s="12" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="232" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F232" s="19" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="233" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F233" s="19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="234" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F234" s="19" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="235" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F235" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z336"/>
+  <sheetViews>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="12" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>647</v>
       </c>
@@ -8843,7 +10356,7 @@
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
@@ -10429,6 +11942,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B20"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
@@ -10436,10 +11953,6 @@
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10611,7 +12124,7 @@
         <v>226</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -10640,17 +12153,17 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -10663,27 +12176,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z177"/>
+  <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W111" sqref="W111"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="Q115" sqref="Q115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
-    <col min="8" max="26" width="10.625" style="12" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="12" customWidth="1"/>
     <col min="27" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="A1" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -10709,6 +12222,397 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="19" t="s">
+        <v>843</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="19" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="19" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="19" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C49" s="19" t="s">
+        <v>851</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D50" s="19" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B53" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="19" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D92" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D93" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D94" s="19" t="s">
+        <v>851</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D95" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D96" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E97" s="19" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E98" s="19" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="13"/>
+      <c r="V100" s="13"/>
+      <c r="W100" s="13"/>
+      <c r="X100" s="13"/>
+      <c r="Y100" s="13"/>
+      <c r="Z100" s="13"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B101" s="18" t="s">
+        <v>869</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C119" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D120" s="19" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C121" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D122" s="19" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C123" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D124" s="19" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C125" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D126" s="19" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D127" s="19" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E128" s="19" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E129" s="19" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E130" s="19" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E131" s="19" t="s">
+        <v>884</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z177"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
+    <col min="8" max="25" width="10.625" style="12" customWidth="1"/>
+    <col min="26" max="26" width="13.25" style="12" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>210</v>
       </c>
@@ -11335,11 +13239,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z197"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z191" sqref="Z191"/>
     </sheetView>
   </sheetViews>
@@ -11742,7 +13646,7 @@
         <v>319</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D124" s="27"/>
       <c r="E124" s="27"/>
@@ -11770,33 +13674,33 @@
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C125" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="D125" s="19" t="s">
         <v>826</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C127" s="19" t="s">
+        <v>827</v>
+      </c>
+      <c r="D127" s="19" t="s">
         <v>828</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D128" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D129" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
@@ -12030,7 +13934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12045,11 +13949,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z239"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="X94" sqref="X94"/>
     </sheetView>
   </sheetViews>
@@ -13346,7 +15250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z223"/>
   <sheetViews>
@@ -13484,7 +15388,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -14229,1090 +16133,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z235"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
-    <col min="8" max="26" width="11.125" style="12" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C3" s="19" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C4" s="19" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C8" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E10" s="19" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D11" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D12" s="19"/>
-      <c r="E12" s="19" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C13" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D14" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E15" s="19" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D16" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E17" s="19" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C18" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D19" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E20" s="19" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E21" s="19" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D22" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E23" s="19" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C24" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D25" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D26" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D27" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B35" s="18" t="s">
-        <v>572</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B57" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C58" s="19" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C59" s="19" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B60" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C61" s="19" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-      <c r="T97" s="13"/>
-      <c r="U97" s="13"/>
-      <c r="V97" s="13"/>
-      <c r="W97" s="13"/>
-      <c r="X97" s="13"/>
-      <c r="Y97" s="13"/>
-      <c r="Z97" s="13"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C111" s="19" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D112" s="19" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D113" s="19" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D114" s="19" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A116" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="13"/>
-      <c r="P116" s="13"/>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="13"/>
-      <c r="S116" s="13"/>
-      <c r="T116" s="13"/>
-      <c r="U116" s="13"/>
-      <c r="V116" s="13"/>
-      <c r="W116" s="13"/>
-      <c r="X116" s="13"/>
-      <c r="Y116" s="13"/>
-      <c r="Z116" s="13"/>
-    </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B117" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="27"/>
-      <c r="O117" s="27"/>
-      <c r="P117" s="27"/>
-      <c r="Q117" s="27"/>
-      <c r="R117" s="27"/>
-      <c r="S117" s="27"/>
-      <c r="T117" s="27"/>
-      <c r="U117" s="27"/>
-      <c r="V117" s="27"/>
-      <c r="W117" s="27"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27"/>
-    </row>
-    <row r="153" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B153" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="27"/>
-      <c r="K153" s="27"/>
-      <c r="L153" s="27"/>
-      <c r="M153" s="27"/>
-      <c r="N153" s="27"/>
-      <c r="O153" s="27"/>
-      <c r="P153" s="27"/>
-      <c r="Q153" s="27"/>
-      <c r="R153" s="27"/>
-      <c r="S153" s="27"/>
-      <c r="T153" s="27"/>
-      <c r="U153" s="27"/>
-      <c r="V153" s="27"/>
-      <c r="W153" s="27"/>
-      <c r="X153" s="27"/>
-      <c r="Y153" s="27"/>
-      <c r="Z153" s="27"/>
-    </row>
-    <row r="154" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C154" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="D154" s="19" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="155" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D155" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="F155" s="19" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="156" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D156" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="F156" s="19" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="157" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D157" s="19" t="s">
-        <v>555</v>
-      </c>
-      <c r="F157" s="19" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="158" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C158" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="159" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D159" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="F159" s="19" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="160" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D160" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="F160" s="19" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C161" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="D161" s="19" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D162" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="F162" s="19" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E163" s="19" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E164" s="19" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E165" s="19" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D166" s="19" t="s">
-        <v>556</v>
-      </c>
-      <c r="F166" s="19" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E167" s="19" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E168" s="19" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D169" s="19" t="s">
-        <v>557</v>
-      </c>
-      <c r="E169" s="19" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D170" s="19" t="s">
-        <v>558</v>
-      </c>
-      <c r="E170" s="19" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C171" s="19" t="s">
-        <v>545</v>
-      </c>
-      <c r="D171" s="19" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D172" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="F172" s="19" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D173" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="F173" s="19" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C174" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="D174" s="19" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D175" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="E175" s="19" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D176" s="19"/>
-      <c r="E176" s="19" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="177" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D177" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="E177" s="19" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E178" s="19" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B180" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="C180" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="27"/>
-      <c r="L180" s="27"/>
-      <c r="M180" s="27"/>
-      <c r="N180" s="27"/>
-      <c r="O180" s="27"/>
-      <c r="P180" s="27"/>
-      <c r="Q180" s="27"/>
-      <c r="R180" s="27"/>
-      <c r="S180" s="27"/>
-      <c r="T180" s="27"/>
-      <c r="U180" s="27"/>
-      <c r="V180" s="27"/>
-      <c r="W180" s="27"/>
-      <c r="X180" s="27"/>
-      <c r="Y180" s="27"/>
-      <c r="Z180" s="27"/>
-    </row>
-    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C181" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="D181" s="19" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D182" s="19" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D183" s="19" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C184" s="19" t="s">
-        <v>585</v>
-      </c>
-      <c r="D184" s="19" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="185" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D185" s="19" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="186" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C186" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="D186" s="19" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="187" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D187" s="19" t="s">
-        <v>592</v>
-      </c>
-      <c r="E187" s="19" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="188" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C188" s="19"/>
-      <c r="E188" s="19" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="189" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D189" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="E189" s="19" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="190" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E190" s="19" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="191" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E191" s="19" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="192" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="F192" s="19" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="193" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E193" s="19" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="194" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F194" s="19" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="195" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E195" s="19" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="196" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E196" s="19"/>
-      <c r="F196" s="19" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="197" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E197" s="19"/>
-    </row>
-    <row r="198" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E198" s="19"/>
-    </row>
-    <row r="199" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E199" s="19"/>
-    </row>
-    <row r="200" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E200" s="19"/>
-    </row>
-    <row r="201" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E201" s="19"/>
-    </row>
-    <row r="202" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F202" s="19" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="203" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F203" s="19" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="204" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F204" s="19" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="205" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F205" s="19" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="206" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F206" s="19" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="207" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F207" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="H207" s="19" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="208" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D208" s="19" t="s">
-        <v>607</v>
-      </c>
-      <c r="E208" s="19" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E209" s="19" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D210" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="E210" s="19" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E211" s="19" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E212" s="19" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E213" s="19" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D214" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="E214" s="19" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E215" s="19" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C216" s="19" t="s">
-        <v>588</v>
-      </c>
-      <c r="D216" s="19" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D217" s="19" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C218" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="D218" s="19" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D219" s="19" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D220" s="19" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E221" s="19" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F222" s="19" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E223" s="19" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F224" s="19" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F225" s="19" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E226" s="19" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F227" s="12" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D228" s="12" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E229" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F230" s="12" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E231" s="12" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F232" s="19" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F233" s="19" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F234" s="19" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F235" s="19" t="s">
-        <v>641</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/策划案/Java/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT物联网平台.xlsx
@@ -11,11 +11,11 @@
     <sheet name="进度规划" sheetId="83" state="hidden" r:id="rId2"/>
     <sheet name="总览" sheetId="88" r:id="rId3"/>
     <sheet name="项目" sheetId="90" r:id="rId4"/>
-    <sheet name="设备列表页面" sheetId="79" r:id="rId5"/>
-    <sheet name="设备详情页面" sheetId="86" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="84" state="hidden" r:id="rId7"/>
-    <sheet name="群组页面" sheetId="80" r:id="rId8"/>
-    <sheet name="产品页面" sheetId="81" r:id="rId9"/>
+    <sheet name="产品页面" sheetId="81" r:id="rId5"/>
+    <sheet name="设备列表页面" sheetId="79" r:id="rId6"/>
+    <sheet name="设备详情页面" sheetId="86" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="84" state="hidden" r:id="rId8"/>
+    <sheet name="群组页面" sheetId="80" r:id="rId9"/>
     <sheet name="规则模块" sheetId="87" r:id="rId10"/>
     <sheet name="主题" sheetId="89" r:id="rId11"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="901">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1507,22 +1507,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>son，Protobuf</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>约束</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1591,10 +1575,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>模型配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>每个产品有且只有一个上行数据模型和下发命令模型</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1616,18 +1596,6 @@
   </si>
   <si>
     <t>模型属性字段展示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示属性名称，数据类型，是否必要和描述字段，不展示约束字段。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型字段操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除要谈确认对话框，修改弹出添加属性的界面，只是相关的属性已经自动填上。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3234,10 +3202,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>下拉列表，包含"全部“和"某一个”</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>选择某一个时，只要一个条件满足，就回触发规则</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3666,10 +3630,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>设备范围选择，有3个选项，某个设备，全部设备，lua脚本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>某个设备</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3915,14 +3875,6 @@
   </si>
   <si>
     <t>命令名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据产品选择，展示要发送的命令名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前因硬件限制，一个产品只能执行一个命令，故这里就直接帮用户选择好了</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -5524,11 +5476,99 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>添加项目模块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备范围选择，有3个选项，某1特定设备，某个设备，全部设备，lua脚本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示属性名称，数据类型，不展示约束字段。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出添加属性的界面，只不过相关属性已经自动填充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意弹出确认框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性字段操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加命令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除命令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出确认框，确认后删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json，Protobuf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出新增属性界面，见”五“</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有必选项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出添加命令对话框，如右图所示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表，包含"全部“，"某一个”和特定设备，特定设备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉列表，根据产品选择，展示可发送的命令名称列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>褚智勇</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>添加项目模块</t>
+    <t>褚智勇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改产品模块，支持多个命令</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6131,24 +6171,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6193,6 +6215,24 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -6476,6 +6516,277 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>560372</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>161045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="8001000"/>
+          <a:ext cx="12819047" cy="7038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>675600</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>66101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="38642925"/>
+          <a:ext cx="5400000" cy="4590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>494613</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>151817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991225" y="38652450"/>
+          <a:ext cx="5495238" cy="4666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475406</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>132782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="2714625"/>
+          <a:ext cx="6752381" cy="4542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>84084</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>199268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="18240375"/>
+          <a:ext cx="13123809" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>712751</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>122817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="27260550"/>
+          <a:ext cx="12990476" cy="8066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18451</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>171125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="39271575"/>
+          <a:ext cx="4790476" cy="2600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6864,7 +7175,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7135,7 +7446,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7178,7 +7489,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7417,239 +7728,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>560372</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>161045</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="428625" y="8001000"/>
-          <a:ext cx="12819047" cy="7038095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>93606</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>94353</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="27079575"/>
-          <a:ext cx="13152381" cy="7171428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>675600</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>66101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="333375" y="38642925"/>
-          <a:ext cx="5400000" cy="4590476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>494613</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>151817</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5991225" y="38652450"/>
-          <a:ext cx="5495238" cy="4666667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>475406</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>132782</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="2714625"/>
-          <a:ext cx="6752381" cy="4542857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>84084</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>199268</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="18240375"/>
-          <a:ext cx="13123809" cy="6057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7768,44 +7846,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>65034</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>75300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="24726900"/>
-          <a:ext cx="13123809" cy="7200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>196</xdr:row>
@@ -7825,7 +7865,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7863,7 +7903,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7901,7 +7941,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7939,7 +7979,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7948,6 +7988,44 @@
         <a:xfrm>
           <a:off x="13230225" y="46872525"/>
           <a:ext cx="6704762" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>798461</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>151501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="24603075"/>
+          <a:ext cx="13114286" cy="7190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8534,7 +8612,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -8549,25 +8627,25 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D3" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>817</v>
+      <c r="E3" s="37" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8577,26 +8655,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>818</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="C5" s="39" t="s">
+        <v>809</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -8605,10 +8683,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -8617,34 +8695,34 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>43949</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D9" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="7">
         <v>43951</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="E10" s="31"/>
+        <v>368</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7">
@@ -8653,141 +8731,151 @@
       <c r="C11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>637</v>
-      </c>
-      <c r="E11" s="31"/>
+      <c r="D11" s="47" t="s">
+        <v>628</v>
+      </c>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="7">
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="E12" s="31"/>
+        <v>876</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>810</v>
+      </c>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7">
         <v>43976</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>887</v>
-      </c>
-      <c r="E13" s="31"/>
+        <v>898</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>877</v>
+      </c>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="B14" s="7">
+        <v>43977</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>900</v>
+      </c>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -8800,16 +8888,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -8835,10 +8919,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z235"/>
+  <dimension ref="A1:Z234"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8850,10 +8934,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -8885,7 +8969,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -8913,20 +8997,20 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C3" s="19" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -8955,13 +9039,13 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -8969,134 +9053,134 @@
         <v>91</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E10" s="19" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D11" s="19" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D14" s="19" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E15" s="19" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16" s="19" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E17" s="19" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D19" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E20" s="19" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E21" s="19" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D22" s="19" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E23" s="19" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D25" s="19" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D26" s="19" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D27" s="19" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E27" s="19"/>
     </row>
@@ -9106,7 +9190,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>228</v>
@@ -9138,25 +9222,25 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -9185,46 +9269,46 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>248</v>
@@ -9256,10 +9340,10 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -9288,30 +9372,30 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D112" s="19" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D114" s="19" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -9340,10 +9424,10 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B117" s="25" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="27"/>
@@ -9371,10 +9455,10 @@
     </row>
     <row r="153" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B153" s="25" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="27"/>
@@ -9402,190 +9486,190 @@
     </row>
     <row r="154" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C154" s="19" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="155" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D155" s="19" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="156" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D156" s="19" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D157" s="19" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C158" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="159" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D159" s="19" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="160" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D160" s="19" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161" s="19" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D162" s="19" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E163" s="19" t="s">
-        <v>539</v>
+        <v>896</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E164" s="19" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E165" s="19" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D166" s="19" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E167" s="19" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D170" s="19" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D173" s="19" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C174" s="19" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D177" s="19" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="178" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="180" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B180" s="25" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27"/>
@@ -9613,99 +9697,99 @@
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C181" s="19" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="182" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D182" s="19" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="183" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="184" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C184" s="19" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C186" s="19" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E187" s="19" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="188" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19"/>
       <c r="E188" s="19" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="189" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E190" s="19" t="s">
-        <v>596</v>
+        <v>878</v>
       </c>
     </row>
     <row r="191" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E191" s="19" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
       <c r="F192" s="19" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="193" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E193" s="19" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="194" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F194" s="19" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E195" s="19" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="196" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E196" s="19"/>
       <c r="F196" s="19" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="197" spans="4:8" x14ac:dyDescent="0.3">
@@ -9725,190 +9809,185 @@
     </row>
     <row r="202" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F202" s="19" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="203" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F203" s="19" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="204" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F204" s="19" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="205" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F205" s="19" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="206" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F206" s="19" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="207" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F207" s="19" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="H207" s="19" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="208" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D208" s="19" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="E208" s="19" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E209" s="19" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="210" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D210" s="19" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E210" s="19" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="211" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E211" s="19" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E212" s="19" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="213" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E213" s="19" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="214" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D214" s="19" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E214" s="19" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="215" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E215" s="19" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C216" s="19" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D217" s="19" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C218" s="19" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D219" s="19" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="220" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D220" s="19" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E221" s="19" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F222" s="19" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E223" s="19" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F224" s="19" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="225" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E225" s="19" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="226" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F226" s="12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="227" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D227" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="228" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E228" s="12" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="229" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F229" s="12" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="230" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E230" s="12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="231" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F231" s="19" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F225" s="19" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E226" s="19" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F227" s="12" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D228" s="12" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E229" s="12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F230" s="12" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E231" s="12" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="232" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F232" s="19" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="233" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F233" s="19" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="234" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F234" s="19" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F235" s="19" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -9923,8 +10002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z336"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="W46" sqref="W46"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="R271" sqref="R271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9936,10 +10015,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -9968,12 +10047,12 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -9981,10 +10060,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -10013,10 +10092,10 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -10045,10 +10124,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -10076,133 +10155,133 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" s="19" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D73" s="19" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E74" s="19" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E76" s="19" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D77" s="19" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E82" s="19" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19"/>
       <c r="E84" s="19" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D85" s="19" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19"/>
       <c r="E86" s="19" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D87" s="19"/>
       <c r="E87" s="19" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B89" s="25" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -10230,75 +10309,75 @@
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="12" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D105" s="19" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="E107" s="19"/>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D108" s="19" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="E108" s="19"/>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B110" s="25" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
@@ -10326,71 +10405,71 @@
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="133" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="134" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C134" s="19"/>
       <c r="D134" s="19" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="135" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
     </row>
     <row r="136" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="138" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C138" s="19" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="139" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="140" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="141" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B141" s="25" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27"/>
@@ -10418,163 +10497,163 @@
     </row>
     <row r="142" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C142" s="19" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162" s="19" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D163" s="19" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D164" s="19"/>
       <c r="E164" s="19" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D165" s="19" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E166" s="19" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D167" s="19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="E167" s="19" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E171" s="19" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F172" s="29" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F173" s="29" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F174" s="29" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F175" s="29" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E176" s="19" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F177" s="29" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F178" s="29" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F179" s="29" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F181" s="29" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F182" s="29" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F183" s="29" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C184" s="19" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E184" s="19"/>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D186" s="19" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
@@ -10603,297 +10682,297 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B189" s="18" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C190" s="19" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="226" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C226" s="19" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="227" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C227" s="19"/>
       <c r="D227" s="19" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E227" s="19" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="228" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C228" s="19"/>
       <c r="D228" s="19"/>
       <c r="E228" s="19" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
     </row>
     <row r="229" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D229" s="19" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="E229" s="19" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E230" s="19" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D231" s="19" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="E231" s="19" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E232" s="19" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C233" s="19" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D234" s="19" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="E234" s="19" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E235" s="19" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D236" s="19" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
     </row>
     <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E237" s="19" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E238" s="19" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E239" s="19" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E240" s="19" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="241" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D241" s="19" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="E241" s="19" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="242" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E242" s="19" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E243" s="19" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="244" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E244" s="19"/>
       <c r="F244" s="12" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="245" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E245" s="19" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E246" s="19"/>
       <c r="F246" s="12" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E247" s="19" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="248" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F248" s="19" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D249" s="19" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="E249" s="19" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E250" s="19" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E251" s="19" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F252" s="19" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E253" s="19" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F254" s="19" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E259" s="19" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F260" s="19" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E261" s="19" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F262" s="19" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E263" s="19" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F264" s="19" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G265" s="19" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F266" s="19" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G267" s="19" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B268" s="18" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C269" s="19" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="D269" s="19" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C289" s="19" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D289" s="19" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D290" s="19" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B292" s="17" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
@@ -10922,56 +11001,56 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B293" s="19" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B329" s="19" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C330" s="19" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D331" s="19" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C332" s="19" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D333" s="19" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B334" s="19" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D335" s="19" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D336" s="19" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -11942,6 +12021,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -11950,9 +12032,6 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B21:B27"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B38:B43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11979,7 +12058,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -12008,7 +12087,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -12016,7 +12095,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -12045,10 +12124,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -12077,46 +12156,46 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -12124,7 +12203,7 @@
         <v>226</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -12153,17 +12232,17 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -12178,8 +12257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z131"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="Q115" sqref="Q115"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12191,10 +12270,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -12223,20 +12302,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -12268,72 +12347,72 @@
         <v>205</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="19" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -12365,78 +12444,78 @@
         <v>205</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>851</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E97" s="19" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E98" s="19" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -12465,10 +12544,10 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
@@ -12476,20 +12555,20 @@
         <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C119" s="19" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
@@ -12497,25 +12576,25 @@
         <v>257</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C123" s="19" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
@@ -12523,37 +12602,37 @@
         <v>97</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E128" s="19" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="19" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="19" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="19" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -12566,27 +12645,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z177"/>
+  <dimension ref="A1:Z243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="X189" sqref="X189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
-    <col min="8" max="25" width="10.625" style="12" customWidth="1"/>
-    <col min="26" max="26" width="13.25" style="12" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="12" customWidth="1"/>
     <col min="27" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
-        <v>16</v>
+      <c r="A1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -12614,6 +12692,992 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C5" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D6" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C7" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D8" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B39" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B74" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C75" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D76" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C77" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D78" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D79" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="H79" s="19"/>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C80" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H80" s="19"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D81" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H81" s="19"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C82" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H82" s="19"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D83" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="H83" s="19"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D84" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="H84" s="19"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D85" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D86" s="19"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="13"/>
+      <c r="X87" s="13"/>
+      <c r="Y87" s="13"/>
+      <c r="Z87" s="13"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B88" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="27"/>
+      <c r="S88" s="27"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+    </row>
+    <row r="119" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B119" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="27"/>
+      <c r="Q119" s="27"/>
+      <c r="R119" s="27"/>
+      <c r="S119" s="27"/>
+      <c r="T119" s="27"/>
+      <c r="U119" s="27"/>
+      <c r="V119" s="27"/>
+      <c r="W119" s="27"/>
+      <c r="X119" s="27"/>
+      <c r="Y119" s="27"/>
+      <c r="Z119" s="27"/>
+    </row>
+    <row r="120" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C120" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D121" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="122" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C122" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D123" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C124" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D125" s="19" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="126" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C126" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D127" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A129" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
+      <c r="O129" s="13"/>
+      <c r="P129" s="13"/>
+      <c r="Q129" s="13"/>
+      <c r="R129" s="13"/>
+      <c r="S129" s="13"/>
+      <c r="T129" s="13"/>
+      <c r="U129" s="13"/>
+      <c r="V129" s="13"/>
+      <c r="W129" s="13"/>
+      <c r="X129" s="13"/>
+      <c r="Y129" s="13"/>
+      <c r="Z129" s="13"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B130" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="27"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="27"/>
+      <c r="Q130" s="27"/>
+      <c r="R130" s="27"/>
+      <c r="S130" s="27"/>
+      <c r="T130" s="27"/>
+      <c r="U130" s="27"/>
+      <c r="V130" s="27"/>
+      <c r="W130" s="27"/>
+      <c r="X130" s="27"/>
+      <c r="Y130" s="27"/>
+      <c r="Z130" s="27"/>
+    </row>
+    <row r="171" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B171" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="27"/>
+      <c r="K171" s="27"/>
+      <c r="L171" s="27"/>
+      <c r="M171" s="27"/>
+      <c r="N171" s="27"/>
+      <c r="O171" s="27"/>
+      <c r="P171" s="27"/>
+      <c r="Q171" s="27"/>
+      <c r="R171" s="27"/>
+      <c r="S171" s="27"/>
+      <c r="T171" s="27"/>
+      <c r="U171" s="27"/>
+      <c r="V171" s="27"/>
+      <c r="W171" s="27"/>
+      <c r="X171" s="27"/>
+      <c r="Y171" s="27"/>
+      <c r="Z171" s="27"/>
+    </row>
+    <row r="172" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C172" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D172" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="173" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D173" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="174" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C174" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D174" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D175" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B177" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C177" s="26" t="s">
+        <v>880</v>
+      </c>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+      <c r="K177" s="27"/>
+      <c r="L177" s="27"/>
+      <c r="M177" s="27"/>
+      <c r="N177" s="27"/>
+      <c r="O177" s="27"/>
+      <c r="P177" s="27"/>
+      <c r="Q177" s="27"/>
+      <c r="R177" s="27"/>
+      <c r="S177" s="27"/>
+      <c r="T177" s="27"/>
+      <c r="U177" s="27"/>
+      <c r="V177" s="27"/>
+      <c r="W177" s="27"/>
+      <c r="X177" s="27"/>
+      <c r="Y177" s="27"/>
+      <c r="Z177" s="27"/>
+    </row>
+    <row r="178" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C178" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="179" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C179" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D179" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C180" s="19"/>
+      <c r="D180" s="19" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C181" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D181" s="19" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C182" s="19"/>
+      <c r="D182" s="19" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="185" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C185" s="19"/>
+      <c r="D185" s="19" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="186" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="187" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C187" s="19"/>
+      <c r="D187" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="189" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C189" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="D189" s="19" t="s">
+        <v>886</v>
+      </c>
+      <c r="E189" s="19"/>
+    </row>
+    <row r="190" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C190" s="19"/>
+      <c r="D190" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="E190" s="19"/>
+    </row>
+    <row r="191" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="192" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C192" s="19"/>
+      <c r="D192" s="19" t="s">
+        <v>888</v>
+      </c>
+      <c r="E192" s="19"/>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C194" s="19"/>
+      <c r="D194" s="19" t="s">
+        <v>890</v>
+      </c>
+      <c r="E194" s="19"/>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C196" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D196" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C197" s="19"/>
+      <c r="D197" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C198" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D198" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D199" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D200" s="19"/>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D201" s="19"/>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D202" s="19"/>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A204" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B204" s="17"/>
+      <c r="C204" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="13"/>
+      <c r="K204" s="13"/>
+      <c r="L204" s="13"/>
+      <c r="M204" s="13"/>
+      <c r="N204" s="13"/>
+      <c r="O204" s="13"/>
+      <c r="P204" s="13"/>
+      <c r="Q204" s="13"/>
+      <c r="R204" s="13"/>
+      <c r="S204" s="13"/>
+      <c r="T204" s="13"/>
+      <c r="U204" s="13"/>
+      <c r="V204" s="13"/>
+      <c r="W204" s="13"/>
+      <c r="X204" s="13"/>
+      <c r="Y204" s="13"/>
+      <c r="Z204" s="13"/>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B205" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="27"/>
+      <c r="G205" s="27"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="27"/>
+      <c r="J205" s="27"/>
+      <c r="K205" s="27"/>
+      <c r="L205" s="27"/>
+      <c r="M205" s="27"/>
+      <c r="N205" s="27"/>
+      <c r="O205" s="27"/>
+      <c r="P205" s="27"/>
+      <c r="Q205" s="27"/>
+      <c r="R205" s="27"/>
+      <c r="S205" s="27"/>
+      <c r="T205" s="27"/>
+      <c r="U205" s="27"/>
+      <c r="V205" s="27"/>
+      <c r="W205" s="27"/>
+      <c r="X205" s="27"/>
+      <c r="Y205" s="27"/>
+      <c r="Z205" s="27"/>
+    </row>
+    <row r="229" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B229" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C229" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D229" s="27"/>
+      <c r="E229" s="27"/>
+      <c r="F229" s="27"/>
+      <c r="G229" s="27"/>
+      <c r="H229" s="27"/>
+      <c r="I229" s="27"/>
+      <c r="J229" s="27"/>
+      <c r="K229" s="27"/>
+      <c r="L229" s="27"/>
+      <c r="M229" s="27"/>
+      <c r="N229" s="27"/>
+      <c r="O229" s="27"/>
+      <c r="P229" s="27"/>
+      <c r="Q229" s="27"/>
+      <c r="R229" s="27"/>
+      <c r="S229" s="27"/>
+      <c r="T229" s="27"/>
+      <c r="U229" s="27"/>
+      <c r="V229" s="27"/>
+      <c r="W229" s="27"/>
+      <c r="X229" s="27"/>
+      <c r="Y229" s="27"/>
+      <c r="Z229" s="27"/>
+    </row>
+    <row r="230" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C230" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D230" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="231" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D231" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="232" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C232" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D232" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="233" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D233" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="234" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D234" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="235" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C235" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D235" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="236" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D236" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="237" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E237" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="238" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E238" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="239" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E239" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="240" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D240" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E241" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C242" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D242" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D243" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z177"/>
+  <sheetViews>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
+    <col min="8" max="25" width="10.625" style="12" customWidth="1"/>
+    <col min="26" max="26" width="13.25" style="12" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
         <v>210</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -13239,11 +14303,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Z191" sqref="Z191"/>
     </sheetView>
   </sheetViews>
@@ -13293,7 +14357,7 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -13321,10 +14385,10 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -13383,71 +14447,71 @@
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D60" s="19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D61" s="19" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C62" s="19" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D63" s="19" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D64" s="19" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D65" s="19" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C66" s="19" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D67" s="19" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D68" s="19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="17" t="s">
@@ -13479,10 +14543,10 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B71" s="25" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
@@ -13541,50 +14605,50 @@
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C108" s="19" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D110" s="19" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D112" s="19" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="19"/>
       <c r="H114" s="28"/>
       <c r="I114" s="52" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J114" s="51"/>
       <c r="K114" s="51"/>
@@ -13627,15 +14691,15 @@
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C121" s="19" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="2:26" x14ac:dyDescent="0.3">
@@ -13643,10 +14707,10 @@
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B124" s="25" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="D124" s="27"/>
       <c r="E124" s="27"/>
@@ -13674,42 +14738,42 @@
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C125" s="19" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C127" s="19" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D128" s="19" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D129" s="19" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="17" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
@@ -13737,10 +14801,10 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" s="25" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D132" s="27"/>
       <c r="E132" s="27"/>
@@ -13768,7 +14832,7 @@
     </row>
     <row r="168" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B168" s="25" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C168" s="26" t="s">
         <v>228</v>
@@ -13799,84 +14863,84 @@
     </row>
     <row r="169" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C169" s="19" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="170" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="171" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C171" s="19"/>
       <c r="D171" s="19" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C172" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D173" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="174" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C174" s="19" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="176" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D176" s="19" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E176" s="19" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E177" s="19" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="178" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="179" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E179" s="19" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="180" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D180" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B181" s="25" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D181" s="27"/>
       <c r="E181" s="27"/>
@@ -13904,23 +14968,23 @@
     </row>
     <row r="182" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C182" s="19" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="197" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C197" s="19" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -13934,7 +14998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13949,11 +15013,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z239"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="X94" sqref="X94"/>
     </sheetView>
   </sheetViews>
@@ -14003,7 +15067,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -14049,7 +15113,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="17" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -14117,10 +15181,10 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -14132,7 +15196,7 @@
         <v>208</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -14161,55 +15225,55 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C34" s="19" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -14241,7 +15305,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
@@ -14272,7 +15336,7 @@
         <v>237</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
@@ -14300,42 +15364,42 @@
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C77" s="19" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C80" s="19" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B81" s="25" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
@@ -14363,87 +15427,87 @@
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D85" s="19"/>
       <c r="E85" s="20" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D87" s="19" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C88" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D89" s="19" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D91" s="19" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B93" s="25" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D93" s="26"/>
       <c r="E93" s="27"/>
@@ -14471,36 +15535,36 @@
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C94" s="19" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C96" s="19" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D97" s="19" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B98" s="25" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="27"/>
@@ -14528,89 +15592,89 @@
     </row>
     <row r="99" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C99" s="19" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D100" s="19" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C101" s="19" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19"/>
       <c r="D102" s="19" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C103" s="19"/>
       <c r="D103" s="19" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C104" s="19" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C106" s="19" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19"/>
       <c r="D107" s="19" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C108" s="19"/>
       <c r="D108" s="19" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C109" s="19" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C110" s="19"/>
       <c r="D110" s="19" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19"/>
       <c r="D111" s="19" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.3">
@@ -14621,7 +15685,7 @@
         <v>227</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -14650,10 +15714,10 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B114" s="25" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
@@ -14685,10 +15749,10 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" s="25" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D132" s="27"/>
       <c r="E132" s="27"/>
@@ -14716,41 +15780,41 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D134" s="19" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D136" s="19" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D137" s="19" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
@@ -14779,10 +15843,10 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B139" s="25" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D139" s="27"/>
       <c r="E139" s="27"/>
@@ -14814,7 +15878,7 @@
     </row>
     <row r="169" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B169" s="25" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C169" s="26" t="s">
         <v>103</v>
@@ -14892,7 +15956,7 @@
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B177" s="25" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C177" s="26" t="s">
         <v>109</v>
@@ -14928,7 +15992,7 @@
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B179" s="25" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C179" s="26" t="s">
         <v>111</v>
@@ -14964,7 +16028,7 @@
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B181" s="25" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C181" s="26" t="s">
         <v>113</v>
@@ -15005,7 +16069,7 @@
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B185" s="17" t="s">
         <v>101</v>
@@ -15037,10 +16101,10 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B186" s="25" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D186" s="27"/>
       <c r="E186" s="27"/>
@@ -15068,10 +16132,10 @@
     </row>
     <row r="220" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B220" s="25" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C220" s="26" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D220" s="27"/>
       <c r="E220" s="27"/>
@@ -15100,37 +16164,37 @@
     <row r="221" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B221" s="18"/>
       <c r="C221" s="19" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="222" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D222" s="19" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="223" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C223" s="19" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D223" s="19" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="224" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C224" s="19"/>
       <c r="D224" s="19" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="225" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B225" s="25" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D225" s="27"/>
       <c r="E225" s="27"/>
@@ -15171,7 +16235,7 @@
     </row>
     <row r="228" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C228" s="18" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D228" s="19" t="s">
         <v>117</v>
@@ -15200,7 +16264,7 @@
     </row>
     <row r="233" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C233" s="18" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D233" s="19" t="s">
         <v>122</v>
@@ -15218,7 +16282,7 @@
     </row>
     <row r="236" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C236" s="18" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D236" s="19" t="s">
         <v>125</v>
@@ -15231,7 +16295,7 @@
     </row>
     <row r="238" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C238" s="18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D238" s="19" t="s">
         <v>127</v>
@@ -15248,889 +16312,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z223"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="7" width="3.125" style="12" customWidth="1"/>
-    <col min="8" max="26" width="11.125" style="12" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C5" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D6" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C7" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D8" s="19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
-        <v>830</v>
-      </c>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B39" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B74" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="27"/>
-      <c r="T74" s="27"/>
-      <c r="U74" s="27"/>
-      <c r="V74" s="27"/>
-      <c r="W74" s="27"/>
-      <c r="X74" s="27"/>
-      <c r="Y74" s="27"/>
-      <c r="Z74" s="27"/>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C75" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D76" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C77" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D78" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D79" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="H79" s="19"/>
-    </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C80" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D81" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="H81" s="19"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C82" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="H82" s="19"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D83" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="H83" s="19"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D84" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="H84" s="19"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D85" s="19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D86" s="19"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A87" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
-      <c r="T87" s="13"/>
-      <c r="U87" s="13"/>
-      <c r="V87" s="13"/>
-      <c r="W87" s="13"/>
-      <c r="X87" s="13"/>
-      <c r="Y87" s="13"/>
-      <c r="Z87" s="13"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B88" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-    </row>
-    <row r="119" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B119" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="27"/>
-      <c r="M119" s="27"/>
-      <c r="N119" s="27"/>
-      <c r="O119" s="27"/>
-      <c r="P119" s="27"/>
-      <c r="Q119" s="27"/>
-      <c r="R119" s="27"/>
-      <c r="S119" s="27"/>
-      <c r="T119" s="27"/>
-      <c r="U119" s="27"/>
-      <c r="V119" s="27"/>
-      <c r="W119" s="27"/>
-      <c r="X119" s="27"/>
-      <c r="Y119" s="27"/>
-      <c r="Z119" s="27"/>
-    </row>
-    <row r="120" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C120" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D121" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C122" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D123" s="19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="124" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C124" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D125" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="126" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C126" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D127" s="19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A129" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
-      <c r="O129" s="13"/>
-      <c r="P129" s="13"/>
-      <c r="Q129" s="13"/>
-      <c r="R129" s="13"/>
-      <c r="S129" s="13"/>
-      <c r="T129" s="13"/>
-      <c r="U129" s="13"/>
-      <c r="V129" s="13"/>
-      <c r="W129" s="13"/>
-      <c r="X129" s="13"/>
-      <c r="Y129" s="13"/>
-      <c r="Z129" s="13"/>
-    </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B130" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="27"/>
-      <c r="P130" s="27"/>
-      <c r="Q130" s="27"/>
-      <c r="R130" s="27"/>
-      <c r="S130" s="27"/>
-      <c r="T130" s="27"/>
-      <c r="U130" s="27"/>
-      <c r="V130" s="27"/>
-      <c r="W130" s="27"/>
-      <c r="X130" s="27"/>
-      <c r="Y130" s="27"/>
-      <c r="Z130" s="27"/>
-    </row>
-    <row r="167" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B167" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="C167" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="27"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="27"/>
-      <c r="M167" s="27"/>
-      <c r="N167" s="27"/>
-      <c r="O167" s="27"/>
-      <c r="P167" s="27"/>
-      <c r="Q167" s="27"/>
-      <c r="R167" s="27"/>
-      <c r="S167" s="27"/>
-      <c r="T167" s="27"/>
-      <c r="U167" s="27"/>
-      <c r="V167" s="27"/>
-      <c r="W167" s="27"/>
-      <c r="X167" s="27"/>
-      <c r="Y167" s="27"/>
-      <c r="Z167" s="27"/>
-    </row>
-    <row r="168" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C168" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D168" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="169" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D169" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C170" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D170" s="19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="171" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D171" s="19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="173" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B173" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="C173" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="27"/>
-      <c r="K173" s="27"/>
-      <c r="L173" s="27"/>
-      <c r="M173" s="27"/>
-      <c r="N173" s="27"/>
-      <c r="O173" s="27"/>
-      <c r="P173" s="27"/>
-      <c r="Q173" s="27"/>
-      <c r="R173" s="27"/>
-      <c r="S173" s="27"/>
-      <c r="T173" s="27"/>
-      <c r="U173" s="27"/>
-      <c r="V173" s="27"/>
-      <c r="W173" s="27"/>
-      <c r="X173" s="27"/>
-      <c r="Y173" s="27"/>
-      <c r="Z173" s="27"/>
-    </row>
-    <row r="174" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C174" s="19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C175" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D175" s="19" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C176" s="19"/>
-      <c r="D176" s="19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C177" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D177" s="19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C178" s="19"/>
-      <c r="D178" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C179" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D179" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C180" s="19"/>
-      <c r="D180" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C181" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D181" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D182" s="19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A184" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="B184" s="17"/>
-      <c r="C184" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="13"/>
-      <c r="H184" s="13"/>
-      <c r="I184" s="13"/>
-      <c r="J184" s="13"/>
-      <c r="K184" s="13"/>
-      <c r="L184" s="13"/>
-      <c r="M184" s="13"/>
-      <c r="N184" s="13"/>
-      <c r="O184" s="13"/>
-      <c r="P184" s="13"/>
-      <c r="Q184" s="13"/>
-      <c r="R184" s="13"/>
-      <c r="S184" s="13"/>
-      <c r="T184" s="13"/>
-      <c r="U184" s="13"/>
-      <c r="V184" s="13"/>
-      <c r="W184" s="13"/>
-      <c r="X184" s="13"/>
-      <c r="Y184" s="13"/>
-      <c r="Z184" s="13"/>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B185" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C185" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="27"/>
-      <c r="L185" s="27"/>
-      <c r="M185" s="27"/>
-      <c r="N185" s="27"/>
-      <c r="O185" s="27"/>
-      <c r="P185" s="27"/>
-      <c r="Q185" s="27"/>
-      <c r="R185" s="27"/>
-      <c r="S185" s="27"/>
-      <c r="T185" s="27"/>
-      <c r="U185" s="27"/>
-      <c r="V185" s="27"/>
-      <c r="W185" s="27"/>
-      <c r="X185" s="27"/>
-      <c r="Y185" s="27"/>
-      <c r="Z185" s="27"/>
-    </row>
-    <row r="209" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B209" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C209" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D209" s="27"/>
-      <c r="E209" s="27"/>
-      <c r="F209" s="27"/>
-      <c r="G209" s="27"/>
-      <c r="H209" s="27"/>
-      <c r="I209" s="27"/>
-      <c r="J209" s="27"/>
-      <c r="K209" s="27"/>
-      <c r="L209" s="27"/>
-      <c r="M209" s="27"/>
-      <c r="N209" s="27"/>
-      <c r="O209" s="27"/>
-      <c r="P209" s="27"/>
-      <c r="Q209" s="27"/>
-      <c r="R209" s="27"/>
-      <c r="S209" s="27"/>
-      <c r="T209" s="27"/>
-      <c r="U209" s="27"/>
-      <c r="V209" s="27"/>
-      <c r="W209" s="27"/>
-      <c r="X209" s="27"/>
-      <c r="Y209" s="27"/>
-      <c r="Z209" s="27"/>
-    </row>
-    <row r="210" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C210" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D210" s="19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="211" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D211" s="19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="212" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C212" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="D212" s="19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="213" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D213" s="19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="214" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D214" s="19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="215" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C215" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="D215" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="216" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D216" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="217" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E217" s="19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="218" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E218" s="19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="219" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E219" s="19" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="220" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D220" s="19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="221" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E221" s="19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="222" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C222" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="D222" s="19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="223" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D223" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/策划案/Java/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT物联网平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="900">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1889,14 +1889,6 @@
   </si>
   <si>
     <t>三.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个设备只有1个命令下发模型。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示命令下发模型的各字段的表单。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -5569,6 +5561,10 @@
   </si>
   <si>
     <t>修改产品模块，支持多个命令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户选择的命令，展示命令下发模型的各字段的表单。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6634,15 +6630,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>475406</xdr:colOff>
+      <xdr:colOff>484931</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>132782</xdr:rowOff>
+      <xdr:rowOff>180407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6659,7 +6655,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="2714625"/>
+          <a:off x="485775" y="2971800"/>
           <a:ext cx="6752381" cy="4542857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7054,50 +7050,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>599143</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>180402</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="29203650"/>
-          <a:ext cx="7457143" cy="4580952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -7117,7 +7069,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7155,7 +7107,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7172,23 +7124,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>626993</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>103908</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>799250</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>94750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7198,15 +7145,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400050" y="14963775"/>
-          <a:ext cx="13257143" cy="6933333"/>
+          <a:off x="523875" y="30746700"/>
+          <a:ext cx="6800000" cy="4000000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7215,6 +7162,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -7236,7 +7188,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7257,13 +7209,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>551627</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>18379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7274,7 +7226,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7295,13 +7247,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>447025</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>85415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7312,7 +7264,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7350,7 +7302,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7388,7 +7340,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7408,19 +7360,57 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>512705</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>170545</xdr:rowOff>
+      <xdr:colOff>455555</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>180070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="27955875"/>
+          <a:ext cx="13161905" cy="7238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>646063</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>180073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7433,8 +7423,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="26269950"/>
-          <a:ext cx="13161905" cy="7238095"/>
+          <a:off x="581025" y="14963775"/>
+          <a:ext cx="13095238" cy="7219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7495,13 +7485,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>655613</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>103930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7613,82 +7603,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>36459</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>75474</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="447675" y="25069800"/>
-          <a:ext cx="13123809" cy="5809524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>17415</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>113421</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="476250" y="8591550"/>
-          <a:ext cx="13076190" cy="7028571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>96</xdr:row>
@@ -7708,7 +7622,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7717,6 +7631,120 @@
         <a:xfrm>
           <a:off x="7915275" y="20316825"/>
           <a:ext cx="5504762" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>703209</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>180096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="29194125"/>
+          <a:ext cx="13123809" cy="7028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>703206</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>170569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="8629650"/>
+          <a:ext cx="13152381" cy="7047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314181</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="8696325"/>
+          <a:ext cx="1152381" cy="352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8611,8 +8639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -8639,13 +8667,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8663,7 +8691,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
@@ -8705,7 +8733,7 @@
         <v>43949</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D9" s="45" t="s">
         <v>203</v>
@@ -8717,10 +8745,10 @@
         <v>43951</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>368</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>370</v>
       </c>
       <c r="E10" s="46"/>
     </row>
@@ -8732,7 +8760,7 @@
         <v>202</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E11" s="46"/>
     </row>
@@ -8741,10 +8769,10 @@
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E12" s="46"/>
     </row>
@@ -8753,10 +8781,10 @@
         <v>43976</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E13" s="46"/>
     </row>
@@ -8765,10 +8793,10 @@
         <v>43977</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E14" s="46"/>
     </row>
@@ -8934,10 +8962,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -8969,7 +8997,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -8997,20 +9025,20 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C3" s="19" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C4" s="19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -9039,13 +9067,13 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -9053,134 +9081,134 @@
         <v>91</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E10" s="19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D11" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C13" s="19" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D14" s="19" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E15" s="19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E17" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C18" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D19" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E20" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E21" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D22" s="19" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E23" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D25" s="19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D26" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D27" s="19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E27" s="19"/>
     </row>
@@ -9190,7 +9218,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>228</v>
@@ -9222,25 +9250,25 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -9269,46 +9297,46 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C61" s="19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>248</v>
@@ -9340,10 +9368,10 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -9372,30 +9400,30 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D112" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D114" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -9424,10 +9452,10 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B117" s="25" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="27"/>
@@ -9455,10 +9483,10 @@
     </row>
     <row r="153" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B153" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D153" s="27"/>
       <c r="E153" s="27"/>
@@ -9486,190 +9514,190 @@
     </row>
     <row r="154" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C154" s="19" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D155" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="156" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D156" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="157" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D157" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="158" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C158" s="19" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D159" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="160" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D160" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161" s="19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D162" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E163" s="19" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E164" s="19" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E165" s="19" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D166" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E167" s="19" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D170" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C171" s="19" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D172" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D173" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C174" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D176" s="19"/>
       <c r="E176" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D177" s="19" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E177" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="178" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="180" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B180" s="25" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C180" s="26" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D180" s="27"/>
       <c r="E180" s="27"/>
@@ -9697,99 +9725,99 @@
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C181" s="19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="182" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D182" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="183" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D183" s="19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C184" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C186" s="19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D187" s="19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E187" s="19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C188" s="19"/>
       <c r="E188" s="19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="189" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D189" s="19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E190" s="19" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="191" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E191" s="19" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
       <c r="F192" s="19" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="193" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E193" s="19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="194" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F194" s="19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="195" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E195" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="196" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E196" s="19"/>
       <c r="F196" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="197" spans="4:8" x14ac:dyDescent="0.3">
@@ -9809,185 +9837,185 @@
     </row>
     <row r="202" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F202" s="19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F203" s="19" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="204" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F204" s="19" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="205" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F205" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="206" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F206" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="207" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F207" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H207" s="19" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="208" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D208" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E208" s="19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E209" s="19" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="210" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D210" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E210" s="19" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="211" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E211" s="19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E212" s="19" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="213" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E213" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="214" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D214" s="19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E214" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="215" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E215" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C216" s="19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D217" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C218" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D219" s="19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="220" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D220" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E221" s="19" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F222" s="19" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E223" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F224" s="19" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="225" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E225" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="226" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F226" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="227" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D227" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="228" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E228" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="229" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F229" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="230" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E230" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="231" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F231" s="19" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="232" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F232" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="233" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F233" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="234" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F234" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -10015,10 +10043,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -10047,12 +10075,12 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -10060,10 +10088,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -10092,10 +10120,10 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -10124,10 +10152,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>644</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>646</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -10155,133 +10183,133 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D73" s="19" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E74" s="19" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E76" s="19" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D77" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E82" s="19" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19"/>
       <c r="E84" s="19" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D85" s="19" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19"/>
       <c r="E86" s="19" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D87" s="19"/>
       <c r="E87" s="19" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B89" s="25" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -10309,75 +10337,75 @@
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D104" s="19"/>
       <c r="E104" s="12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D105" s="19" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E107" s="19"/>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D108" s="19" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E108" s="19"/>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E109" s="19"/>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B110" s="25" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
@@ -10405,71 +10433,71 @@
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="133" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="134" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C134" s="19"/>
       <c r="D134" s="19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="135" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="136" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C137" s="19"/>
       <c r="D137" s="19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="138" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C138" s="19" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="139" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="140" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C140" s="19"/>
       <c r="D140" s="19" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="141" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B141" s="25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="27"/>
@@ -10497,163 +10525,163 @@
     </row>
     <row r="142" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C142" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D163" s="19" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D164" s="19"/>
       <c r="E164" s="19" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D165" s="19" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E165" s="19" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E166" s="19" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D167" s="19" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E167" s="19" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E168" s="19" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D169" s="19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E169" s="19" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E170" s="19" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E171" s="19" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F172" s="29" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F173" s="29" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F174" s="29" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F175" s="29" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E176" s="19" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F177" s="29" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F178" s="29" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F179" s="29" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F181" s="29" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F182" s="29" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F183" s="29" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C184" s="19" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E184" s="19"/>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D186" s="19" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
@@ -10682,297 +10710,297 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B189" s="18" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C190" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="226" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C226" s="19" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="227" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C227" s="19"/>
       <c r="D227" s="19" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E227" s="19" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="228" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C228" s="19"/>
       <c r="D228" s="19"/>
       <c r="E228" s="19" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="229" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D229" s="19" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E229" s="19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E230" s="19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D231" s="19" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E231" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E232" s="19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C233" s="19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D234" s="19" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E234" s="19" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E235" s="19" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D236" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E237" s="19" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E238" s="19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E239" s="19" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E240" s="19" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="241" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D241" s="19" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E241" s="19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="242" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E242" s="19" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E243" s="19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="244" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E244" s="19"/>
       <c r="F244" s="12" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="245" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E245" s="19" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E246" s="19"/>
       <c r="F246" s="12" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E247" s="19" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="248" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F248" s="19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D249" s="19" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E249" s="19" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E250" s="19" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E251" s="19" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F252" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E253" s="19" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F254" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E259" s="19" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F260" s="19" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E261" s="19" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F262" s="19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E263" s="19" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F264" s="19" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G265" s="19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F266" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G267" s="19" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B268" s="18" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C269" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D269" s="19" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C289" s="19" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D289" s="19" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D290" s="19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B292" s="17" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
@@ -11001,56 +11029,56 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B293" s="19" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B329" s="19" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C330" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D331" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C332" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D333" s="19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B334" s="19" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D335" s="19" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D336" s="19" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -12021,9 +12049,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B38:B43"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -12032,6 +12057,9 @@
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B21:B27"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B38:B43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12043,7 +12071,7 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12058,7 +12086,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -12087,7 +12115,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -12095,7 +12123,7 @@
         <v>217</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -12124,10 +12152,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -12156,46 +12184,46 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -12203,7 +12231,7 @@
         <v>226</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -12232,17 +12260,17 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -12270,10 +12298,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -12302,20 +12330,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -12352,67 +12380,67 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="19" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -12449,73 +12477,73 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E97" s="19" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E98" s="19" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -12544,10 +12572,10 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
@@ -12555,20 +12583,20 @@
         <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C119" s="19" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
@@ -12576,12 +12604,12 @@
         <v>257</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
@@ -12589,12 +12617,12 @@
         <v>302</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
@@ -12602,37 +12630,37 @@
         <v>97</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E128" s="19" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="19" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -12647,8 +12675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X189" sqref="X189"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="X159" sqref="X159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12781,7 +12809,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -13117,7 +13145,7 @@
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D125" s="19" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
@@ -13258,7 +13286,7 @@
         <v>285</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D177" s="27"/>
       <c r="E177" s="27"/>
@@ -13300,7 +13328,7 @@
     <row r="180" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C180" s="19"/>
       <c r="D180" s="19" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.3">
@@ -13308,40 +13336,40 @@
         <v>257</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="182" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C182" s="19"/>
       <c r="D182" s="19" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="183" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C183" s="19"/>
       <c r="D183" s="19"/>
       <c r="E183" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="184" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
       <c r="E184" s="19" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C185" s="19"/>
       <c r="D185" s="19" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="186" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C186" s="19"/>
       <c r="D186" s="19"/>
       <c r="E186" s="19" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
@@ -13354,22 +13382,22 @@
       <c r="C188" s="19"/>
       <c r="D188" s="19"/>
       <c r="E188" s="19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="189" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C189" s="19" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E189" s="19"/>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C190" s="19"/>
       <c r="D190" s="19" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E190" s="19"/>
     </row>
@@ -13377,13 +13405,13 @@
       <c r="C191" s="19"/>
       <c r="D191" s="19"/>
       <c r="E191" s="19" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C192" s="19"/>
       <c r="D192" s="19" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E192" s="19"/>
     </row>
@@ -13391,13 +13419,13 @@
       <c r="C193" s="19"/>
       <c r="D193" s="19"/>
       <c r="E193" s="19" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C194" s="19"/>
       <c r="D194" s="19" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E194" s="19"/>
     </row>
@@ -13405,7 +13433,7 @@
       <c r="C195" s="19"/>
       <c r="D195" s="19"/>
       <c r="E195" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
@@ -13630,10 +13658,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z177"/>
+  <dimension ref="A1:Z176"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T155" sqref="T155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14235,63 +14263,63 @@
         <v>87</v>
       </c>
     </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B168" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B169" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="C169" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C170" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="D170" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C171" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="D171" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C172" s="15" t="s">
-        <v>24</v>
-      </c>
       <c r="D172" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C173" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="D173" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C174" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="D174" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C175" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="D175" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C176" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="D176" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D177" s="15" t="s">
         <v>99</v>
       </c>
     </row>
@@ -14305,10 +14333,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z197"/>
+  <dimension ref="A1:Z198"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Z191" sqref="Z191"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="W143" sqref="W143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14572,90 +14600,80 @@
       <c r="Y71" s="27"/>
       <c r="Z71" s="27"/>
     </row>
-    <row r="106" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B106" s="25" t="s">
+    <row r="108" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B108" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C108" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="27"/>
-      <c r="N106" s="27"/>
-      <c r="O106" s="27"/>
-      <c r="P106" s="27"/>
-      <c r="Q106" s="27"/>
-      <c r="R106" s="27"/>
-      <c r="S106" s="27"/>
-      <c r="T106" s="27"/>
-      <c r="U106" s="27"/>
-      <c r="V106" s="27"/>
-      <c r="W106" s="27"/>
-      <c r="X106" s="27"/>
-      <c r="Y106" s="27"/>
-      <c r="Z106" s="27"/>
-    </row>
-    <row r="107" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C107" s="19" t="s">
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="27"/>
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="27"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="27"/>
+    </row>
+    <row r="109" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C109" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="110" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C110" s="19"/>
+      <c r="D110" s="19" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D111" s="19" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C108" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D109" s="19" t="s">
+    <row r="112" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C112" s="19" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="110" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D110" s="19" t="s">
+      <c r="D112" s="19" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C111" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D112" s="19" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="113" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="114" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="19"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="52" t="s">
-        <v>343</v>
-      </c>
-      <c r="J114" s="51"/>
-      <c r="K114" s="51"/>
-    </row>
-    <row r="115" spans="2:26" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D114" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="115" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D115" s="19"/>
-      <c r="I115" s="51"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="52" t="s">
+        <v>341</v>
+      </c>
       <c r="J115" s="51"/>
       <c r="K115" s="51"/>
     </row>
@@ -14690,187 +14708,187 @@
       <c r="K120" s="51"/>
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C121" s="19" t="s">
+      <c r="D121" s="19"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
+      <c r="K121" s="51"/>
+    </row>
+    <row r="122" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C122" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D123" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D121" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D122" s="19" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D123" s="19"/>
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B124" s="25" t="s">
+      <c r="D124" s="19"/>
+    </row>
+    <row r="125" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B125" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="C124" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="27"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="27"/>
-      <c r="M124" s="27"/>
-      <c r="N124" s="27"/>
-      <c r="O124" s="27"/>
-      <c r="P124" s="27"/>
-      <c r="Q124" s="27"/>
-      <c r="R124" s="27"/>
-      <c r="S124" s="27"/>
-      <c r="T124" s="27"/>
-      <c r="U124" s="27"/>
-      <c r="V124" s="27"/>
-      <c r="W124" s="27"/>
-      <c r="X124" s="27"/>
-      <c r="Y124" s="27"/>
-      <c r="Z124" s="27"/>
-    </row>
-    <row r="125" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="26" t="s">
+        <v>811</v>
+      </c>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+      <c r="M125" s="27"/>
+      <c r="N125" s="27"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="27"/>
+      <c r="Q125" s="27"/>
+      <c r="R125" s="27"/>
+      <c r="S125" s="27"/>
+      <c r="T125" s="27"/>
+      <c r="U125" s="27"/>
+      <c r="V125" s="27"/>
+      <c r="W125" s="27"/>
+      <c r="X125" s="27"/>
+      <c r="Y125" s="27"/>
+      <c r="Z125" s="27"/>
+    </row>
+    <row r="126" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C126" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="127" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D127" s="19" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="128" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C128" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D128" s="19" t="s">
         <v>817</v>
-      </c>
-    </row>
-    <row r="126" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D126" s="19" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C127" s="19" t="s">
-        <v>818</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="128" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D128" s="19" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D129" s="19" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D130" s="19" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A132" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="13"/>
-      <c r="C131" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="13"/>
-      <c r="M131" s="13"/>
-      <c r="N131" s="13"/>
-      <c r="O131" s="13"/>
-      <c r="P131" s="13"/>
-      <c r="Q131" s="13"/>
-      <c r="R131" s="13"/>
-      <c r="S131" s="13"/>
-      <c r="T131" s="13"/>
-      <c r="U131" s="13"/>
-      <c r="V131" s="13"/>
-      <c r="W131" s="13"/>
-      <c r="X131" s="13"/>
-      <c r="Y131" s="13"/>
-      <c r="Z131" s="13"/>
-    </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B132" s="25" t="s">
+      <c r="B132" s="13"/>
+      <c r="C132" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
+      <c r="O132" s="13"/>
+      <c r="P132" s="13"/>
+      <c r="Q132" s="13"/>
+      <c r="R132" s="13"/>
+      <c r="S132" s="13"/>
+      <c r="T132" s="13"/>
+      <c r="U132" s="13"/>
+      <c r="V132" s="13"/>
+      <c r="W132" s="13"/>
+      <c r="X132" s="13"/>
+      <c r="Y132" s="13"/>
+      <c r="Z132" s="13"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B133" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C133" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="27"/>
-      <c r="O132" s="27"/>
-      <c r="P132" s="27"/>
-      <c r="Q132" s="27"/>
-      <c r="R132" s="27"/>
-      <c r="S132" s="27"/>
-      <c r="T132" s="27"/>
-      <c r="U132" s="27"/>
-      <c r="V132" s="27"/>
-      <c r="W132" s="27"/>
-      <c r="X132" s="27"/>
-      <c r="Y132" s="27"/>
-      <c r="Z132" s="27"/>
-    </row>
-    <row r="168" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B168" s="25" t="s">
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="27"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="27"/>
+      <c r="O133" s="27"/>
+      <c r="P133" s="27"/>
+      <c r="Q133" s="27"/>
+      <c r="R133" s="27"/>
+      <c r="S133" s="27"/>
+      <c r="T133" s="27"/>
+      <c r="U133" s="27"/>
+      <c r="V133" s="27"/>
+      <c r="W133" s="27"/>
+      <c r="X133" s="27"/>
+      <c r="Y133" s="27"/>
+      <c r="Z133" s="27"/>
+    </row>
+    <row r="169" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B169" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="27"/>
+      <c r="K169" s="27"/>
+      <c r="L169" s="27"/>
+      <c r="M169" s="27"/>
+      <c r="N169" s="27"/>
+      <c r="O169" s="27"/>
+      <c r="P169" s="27"/>
+      <c r="Q169" s="27"/>
+      <c r="R169" s="27"/>
+      <c r="S169" s="27"/>
+      <c r="T169" s="27"/>
+      <c r="U169" s="27"/>
+      <c r="V169" s="27"/>
+      <c r="W169" s="27"/>
+      <c r="X169" s="27"/>
+      <c r="Y169" s="27"/>
+      <c r="Z169" s="27"/>
+    </row>
+    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C170" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="C168" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="27"/>
-      <c r="L168" s="27"/>
-      <c r="M168" s="27"/>
-      <c r="N168" s="27"/>
-      <c r="O168" s="27"/>
-      <c r="P168" s="27"/>
-      <c r="Q168" s="27"/>
-      <c r="R168" s="27"/>
-      <c r="S168" s="27"/>
-      <c r="T168" s="27"/>
-      <c r="U168" s="27"/>
-      <c r="V168" s="27"/>
-      <c r="W168" s="27"/>
-      <c r="X168" s="27"/>
-      <c r="Y168" s="27"/>
-      <c r="Z168" s="27"/>
-    </row>
-    <row r="169" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C169" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C170" s="19"/>
       <c r="D170" s="19" t="s">
         <v>347</v>
       </c>
@@ -14878,118 +14896,124 @@
     <row r="171" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C171" s="19"/>
       <c r="D171" s="19" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C172" s="19" t="s">
-        <v>350</v>
-      </c>
+      <c r="C172" s="19"/>
       <c r="D172" s="19" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="173" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C173" s="19" t="s">
+        <v>348</v>
+      </c>
       <c r="D173" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D174" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C175" s="19" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="174" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C174" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="D174" s="19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D175" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D176" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="E176" s="19" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="177" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D177" s="19" t="s">
+        <v>356</v>
+      </c>
       <c r="E177" s="19" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="178" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E178" s="19" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E179" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E180" s="19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D181" s="19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="180" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D180" s="19" t="s">
+    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B182" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="27"/>
+      <c r="K182" s="27"/>
+      <c r="L182" s="27"/>
+      <c r="M182" s="27"/>
+      <c r="N182" s="27"/>
+      <c r="O182" s="27"/>
+      <c r="P182" s="27"/>
+      <c r="Q182" s="27"/>
+      <c r="R182" s="27"/>
+      <c r="S182" s="27"/>
+      <c r="T182" s="27"/>
+      <c r="U182" s="27"/>
+      <c r="V182" s="27"/>
+      <c r="W182" s="27"/>
+      <c r="X182" s="27"/>
+      <c r="Y182" s="27"/>
+      <c r="Z182" s="27"/>
+    </row>
+    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C183" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D183" s="19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="181" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B181" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="C181" s="26" t="s">
+    <row r="184" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D184" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="27"/>
-      <c r="L181" s="27"/>
-      <c r="M181" s="27"/>
-      <c r="N181" s="27"/>
-      <c r="O181" s="27"/>
-      <c r="P181" s="27"/>
-      <c r="Q181" s="27"/>
-      <c r="R181" s="27"/>
-      <c r="S181" s="27"/>
-      <c r="T181" s="27"/>
-      <c r="U181" s="27"/>
-      <c r="V181" s="27"/>
-      <c r="W181" s="27"/>
-      <c r="X181" s="27"/>
-      <c r="Y181" s="27"/>
-      <c r="Z181" s="27"/>
-    </row>
-    <row r="182" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C182" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="D182" s="19" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="183" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D183" s="19" t="s">
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C198" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D198" s="19" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C197" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="D197" s="19" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I114:K120"/>
+    <mergeCell ref="I115:K121"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15015,10 +15039,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z239"/>
+  <dimension ref="A1:Z244"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="X94" sqref="X94"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15067,7 +15091,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -15113,7 +15137,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -15181,10 +15205,10 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -15196,7 +15220,7 @@
         <v>208</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -15225,55 +15249,55 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C34" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C36" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -15305,7 +15329,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
@@ -15336,7 +15360,7 @@
         <v>237</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
@@ -15364,42 +15388,42 @@
     </row>
     <row r="77" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C77" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C78" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C79" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C80" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B81" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
@@ -15427,87 +15451,87 @@
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C82" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C83" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D85" s="19"/>
       <c r="E85" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D86" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D87" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C88" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D89" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C90" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D91" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B93" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D93" s="26"/>
       <c r="E93" s="27"/>
@@ -15535,36 +15559,36 @@
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C94" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="96" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C96" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D97" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B98" s="25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="27"/>
@@ -15592,89 +15616,89 @@
     </row>
     <row r="99" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C99" s="19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D100" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C101" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C102" s="19"/>
       <c r="D102" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C103" s="19"/>
       <c r="D103" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C104" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="106" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C106" s="19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C107" s="19"/>
       <c r="D107" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C108" s="19"/>
       <c r="D108" s="19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="109" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C109" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C110" s="19"/>
       <c r="D110" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C111" s="19"/>
       <c r="D111" s="19" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="2:26" x14ac:dyDescent="0.3">
@@ -15685,7 +15709,7 @@
         <v>227</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -15714,10 +15738,10 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B114" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
@@ -15749,10 +15773,10 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B132" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D132" s="27"/>
       <c r="E132" s="27"/>
@@ -15780,41 +15804,41 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C133" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D134" s="19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C135" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D136" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D137" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
@@ -15843,10 +15867,10 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B139" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D139" s="27"/>
       <c r="E139" s="27"/>
@@ -15876,235 +15900,162 @@
       <c r="B145" s="18"/>
       <c r="C145" s="19"/>
     </row>
-    <row r="169" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B169" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="C169" s="26" t="s">
+    <row r="174" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B174" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C174" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="27"/>
-      <c r="K169" s="27"/>
-      <c r="L169" s="27"/>
-      <c r="M169" s="27"/>
-      <c r="N169" s="27"/>
-      <c r="O169" s="27"/>
-      <c r="P169" s="27"/>
-      <c r="Q169" s="27"/>
-      <c r="R169" s="27"/>
-      <c r="S169" s="27"/>
-      <c r="T169" s="27"/>
-      <c r="U169" s="27"/>
-      <c r="V169" s="27"/>
-      <c r="W169" s="27"/>
-      <c r="X169" s="27"/>
-      <c r="Y169" s="27"/>
-      <c r="Z169" s="27"/>
-    </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C170" s="19" t="s">
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="27"/>
+      <c r="K174" s="27"/>
+      <c r="L174" s="27"/>
+      <c r="M174" s="27"/>
+      <c r="N174" s="27"/>
+      <c r="O174" s="27"/>
+      <c r="P174" s="27"/>
+      <c r="Q174" s="27"/>
+      <c r="R174" s="27"/>
+      <c r="S174" s="27"/>
+      <c r="T174" s="27"/>
+      <c r="U174" s="27"/>
+      <c r="V174" s="27"/>
+      <c r="W174" s="27"/>
+      <c r="X174" s="27"/>
+      <c r="Y174" s="27"/>
+      <c r="Z174" s="27"/>
+    </row>
+    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C175" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D170" s="19" t="s">
+      <c r="D175" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="171" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C171" s="19" t="s">
+    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C176" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D171" s="19" t="s">
+      <c r="D176" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C172" s="19" t="s">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C177" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D172" s="19" t="s">
+      <c r="D177" s="19" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="173" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C173" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D173" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="174" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D174" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="175" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D175" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="176" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="E176" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B177" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="C177" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="27"/>
-      <c r="L177" s="27"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="27"/>
-      <c r="O177" s="27"/>
-      <c r="P177" s="27"/>
-      <c r="Q177" s="27"/>
-      <c r="R177" s="27"/>
-      <c r="S177" s="27"/>
-      <c r="T177" s="27"/>
-      <c r="U177" s="27"/>
-      <c r="V177" s="27"/>
-      <c r="W177" s="27"/>
-      <c r="X177" s="27"/>
-      <c r="Y177" s="27"/>
-      <c r="Z177" s="27"/>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C178" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D179" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D180" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E181" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B182" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="27"/>
+      <c r="K182" s="27"/>
+      <c r="L182" s="27"/>
+      <c r="M182" s="27"/>
+      <c r="N182" s="27"/>
+      <c r="O182" s="27"/>
+      <c r="P182" s="27"/>
+      <c r="Q182" s="27"/>
+      <c r="R182" s="27"/>
+      <c r="S182" s="27"/>
+      <c r="T182" s="27"/>
+      <c r="U182" s="27"/>
+      <c r="V182" s="27"/>
+      <c r="W182" s="27"/>
+      <c r="X182" s="27"/>
+      <c r="Y182" s="27"/>
+      <c r="Z182" s="27"/>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C183" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B179" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="C179" s="26" t="s">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B184" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C184" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="27"/>
-      <c r="K179" s="27"/>
-      <c r="L179" s="27"/>
-      <c r="M179" s="27"/>
-      <c r="N179" s="27"/>
-      <c r="O179" s="27"/>
-      <c r="P179" s="27"/>
-      <c r="Q179" s="27"/>
-      <c r="R179" s="27"/>
-      <c r="S179" s="27"/>
-      <c r="T179" s="27"/>
-      <c r="U179" s="27"/>
-      <c r="V179" s="27"/>
-      <c r="W179" s="27"/>
-      <c r="X179" s="27"/>
-      <c r="Y179" s="27"/>
-      <c r="Z179" s="27"/>
-    </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C180" s="19" t="s">
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="27"/>
+      <c r="K184" s="27"/>
+      <c r="L184" s="27"/>
+      <c r="M184" s="27"/>
+      <c r="N184" s="27"/>
+      <c r="O184" s="27"/>
+      <c r="P184" s="27"/>
+      <c r="Q184" s="27"/>
+      <c r="R184" s="27"/>
+      <c r="S184" s="27"/>
+      <c r="T184" s="27"/>
+      <c r="U184" s="27"/>
+      <c r="V184" s="27"/>
+      <c r="W184" s="27"/>
+      <c r="X184" s="27"/>
+      <c r="Y184" s="27"/>
+      <c r="Z184" s="27"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C185" s="19" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B181" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="C181" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="27"/>
-      <c r="L181" s="27"/>
-      <c r="M181" s="27"/>
-      <c r="N181" s="27"/>
-      <c r="O181" s="27"/>
-      <c r="P181" s="27"/>
-      <c r="Q181" s="27"/>
-      <c r="R181" s="27"/>
-      <c r="S181" s="27"/>
-      <c r="T181" s="27"/>
-      <c r="U181" s="27"/>
-      <c r="V181" s="27"/>
-      <c r="W181" s="27"/>
-      <c r="X181" s="27"/>
-      <c r="Y181" s="27"/>
-      <c r="Z181" s="27"/>
-    </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C182" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C183" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A185" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="B185" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="13"/>
-      <c r="H185" s="13"/>
-      <c r="I185" s="13"/>
-      <c r="J185" s="13"/>
-      <c r="K185" s="13"/>
-      <c r="L185" s="13"/>
-      <c r="M185" s="13"/>
-      <c r="N185" s="13"/>
-      <c r="O185" s="13"/>
-      <c r="P185" s="13"/>
-      <c r="Q185" s="13"/>
-      <c r="R185" s="13"/>
-      <c r="S185" s="13"/>
-      <c r="T185" s="13"/>
-      <c r="U185" s="13"/>
-      <c r="V185" s="13"/>
-      <c r="W185" s="13"/>
-      <c r="X185" s="13"/>
-      <c r="Y185" s="13"/>
-      <c r="Z185" s="13"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B186" s="25" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>437</v>
+        <v>113</v>
       </c>
       <c r="D186" s="27"/>
       <c r="E186" s="27"/>
@@ -16130,71 +16081,85 @@
       <c r="Y186" s="27"/>
       <c r="Z186" s="27"/>
     </row>
-    <row r="220" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B220" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="C220" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="D220" s="27"/>
-      <c r="E220" s="27"/>
-      <c r="F220" s="27"/>
-      <c r="G220" s="27"/>
-      <c r="H220" s="27"/>
-      <c r="I220" s="27"/>
-      <c r="J220" s="27"/>
-      <c r="K220" s="27"/>
-      <c r="L220" s="27"/>
-      <c r="M220" s="27"/>
-      <c r="N220" s="27"/>
-      <c r="O220" s="27"/>
-      <c r="P220" s="27"/>
-      <c r="Q220" s="27"/>
-      <c r="R220" s="27"/>
-      <c r="S220" s="27"/>
-      <c r="T220" s="27"/>
-      <c r="U220" s="27"/>
-      <c r="V220" s="27"/>
-      <c r="W220" s="27"/>
-      <c r="X220" s="27"/>
-      <c r="Y220" s="27"/>
-      <c r="Z220" s="27"/>
-    </row>
-    <row r="221" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B221" s="18"/>
-      <c r="C221" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="D221" s="19" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="222" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D222" s="19" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="223" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C223" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="D223" s="19" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="224" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C224" s="19"/>
-      <c r="D224" s="19" t="s">
-        <v>449</v>
-      </c>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C187" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C188" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A190" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="13"/>
+      <c r="K190" s="13"/>
+      <c r="L190" s="13"/>
+      <c r="M190" s="13"/>
+      <c r="N190" s="13"/>
+      <c r="O190" s="13"/>
+      <c r="P190" s="13"/>
+      <c r="Q190" s="13"/>
+      <c r="R190" s="13"/>
+      <c r="S190" s="13"/>
+      <c r="T190" s="13"/>
+      <c r="U190" s="13"/>
+      <c r="V190" s="13"/>
+      <c r="W190" s="13"/>
+      <c r="X190" s="13"/>
+      <c r="Y190" s="13"/>
+      <c r="Z190" s="13"/>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B191" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="27"/>
+      <c r="K191" s="27"/>
+      <c r="L191" s="27"/>
+      <c r="M191" s="27"/>
+      <c r="N191" s="27"/>
+      <c r="O191" s="27"/>
+      <c r="P191" s="27"/>
+      <c r="Q191" s="27"/>
+      <c r="R191" s="27"/>
+      <c r="S191" s="27"/>
+      <c r="T191" s="27"/>
+      <c r="U191" s="27"/>
+      <c r="V191" s="27"/>
+      <c r="W191" s="27"/>
+      <c r="X191" s="27"/>
+      <c r="Y191" s="27"/>
+      <c r="Z191" s="27"/>
     </row>
     <row r="225" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B225" s="25" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D225" s="27"/>
       <c r="E225" s="27"/>
@@ -16221,88 +16186,147 @@
       <c r="Z225" s="27"/>
     </row>
     <row r="226" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C226" s="18" t="s">
-        <v>239</v>
+      <c r="B226" s="18"/>
+      <c r="C226" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>21</v>
+        <v>443</v>
       </c>
     </row>
     <row r="227" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D227" s="19" t="s">
-        <v>116</v>
+        <v>444</v>
       </c>
     </row>
     <row r="228" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C228" s="18" t="s">
-        <v>439</v>
+      <c r="C228" s="19" t="s">
+        <v>445</v>
       </c>
       <c r="D228" s="19" t="s">
-        <v>117</v>
+        <v>446</v>
       </c>
     </row>
     <row r="229" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C229" s="18"/>
+      <c r="C229" s="19"/>
       <c r="D229" s="19" t="s">
-        <v>119</v>
+        <v>447</v>
       </c>
     </row>
     <row r="230" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="D230" s="19" t="s">
-        <v>120</v>
-      </c>
+      <c r="B230" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="C230" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="D230" s="27"/>
+      <c r="E230" s="27"/>
+      <c r="F230" s="27"/>
+      <c r="G230" s="27"/>
+      <c r="H230" s="27"/>
+      <c r="I230" s="27"/>
+      <c r="J230" s="27"/>
+      <c r="K230" s="27"/>
+      <c r="L230" s="27"/>
+      <c r="M230" s="27"/>
+      <c r="N230" s="27"/>
+      <c r="O230" s="27"/>
+      <c r="P230" s="27"/>
+      <c r="Q230" s="27"/>
+      <c r="R230" s="27"/>
+      <c r="S230" s="27"/>
+      <c r="T230" s="27"/>
+      <c r="U230" s="27"/>
+      <c r="V230" s="27"/>
+      <c r="W230" s="27"/>
+      <c r="X230" s="27"/>
+      <c r="Y230" s="27"/>
+      <c r="Z230" s="27"/>
     </row>
     <row r="231" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C231" s="18" t="s">
+        <v>239</v>
+      </c>
       <c r="D231" s="19" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D232" s="19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="233" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C233" s="18" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D233" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="234" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="C234" s="18"/>
       <c r="D234" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="235" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D235" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="236" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="C236" s="18" t="s">
-        <v>441</v>
-      </c>
       <c r="D236" s="19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="237" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D237" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="238" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C238" s="18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D238" s="19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="239" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D239" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="240" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D240" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C241" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="D241" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D242" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C243" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="D243" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D244" s="19" t="s">
         <v>128</v>
       </c>
     </row>

--- a/策划案/Java/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT物联网平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="902">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -5565,6 +5565,14 @@
   </si>
   <si>
     <t>根据用户选择的命令，展示命令下发模型的各字段的表单。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑显示名：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑显示名，显示名编程可输入文本框，并在右边显示√和×。点击√保存显示名，退出编辑模式。点击×直接退出编辑模式。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -8026,20 +8034,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>798461</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>169803</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>151501</xdr:rowOff>
+      <xdr:rowOff>151495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8052,8 +8060,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="24603075"/>
-          <a:ext cx="13114286" cy="7190476"/>
+          <a:off x="533400" y="24555450"/>
+          <a:ext cx="13171428" cy="7238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8335,20 +8343,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>293</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>74558</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>674663</xdr:colOff>
       <xdr:row>327</xdr:row>
-      <xdr:rowOff>46728</xdr:rowOff>
+      <xdr:rowOff>180068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8361,8 +8369,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="61398150"/>
-          <a:ext cx="13133333" cy="7171428"/>
+          <a:off x="466725" y="61445775"/>
+          <a:ext cx="12895238" cy="7257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209011</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>47576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="70904100"/>
+          <a:ext cx="4314286" cy="390476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8949,8 +8995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10028,10 +10074,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z336"/>
+  <dimension ref="A1:Z338"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="R271" sqref="R271"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="S335" sqref="S335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11079,6 +11125,16 @@
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D336" s="19" t="s">
         <v>793</v>
+      </c>
+    </row>
+    <row r="337" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D337" s="19" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="338" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E338" s="19" t="s">
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -12049,10 +12105,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B20"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="B31:B37"/>
     <mergeCell ref="B28:B30"/>
@@ -12060,6 +12112,10 @@
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15041,8 +15097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="V50" sqref="V50"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/策划案/Java/IOT物联网平台.xlsx
+++ b/策划案/Java/IOT物联网平台.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="907">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -4491,12 +4491,6 @@
     <t>username2@example.com</t>
   </si>
   <si>
-    <t>http://example.com/notification/action</t>
-  </si>
-  <si>
-    <t>http://example2.com/notification/action</t>
-  </si>
-  <si>
     <t>HTTP/HTTPS:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5472,10 +5466,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>设备范围选择，有3个选项，某1特定设备，某个设备，全部设备，lua脚本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>展示属性名称，数据类型，不展示约束字段。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5573,6 +5563,50 @@
   </si>
   <si>
     <t>点击编辑显示名，显示名编程可输入文本框，并在右边显示√和×。点击√保存显示名，退出编辑模式。点击×直接退出编辑模式。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备范围选择，有2个选项，某个设备，全部设备，lua脚本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量终端订阅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.12.155.1/notification/action</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.12.155.2/notification/action</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不支持域名地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量终端只是一个简化操作的功能。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求成功后，每个订阅地址生成一条订阅，而不是把多个终端合并成一个订阅。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5580,7 +5614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5728,6 +5762,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -6084,7 +6126,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -6113,8 +6155,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6244,11 +6287,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="9" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
     <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="10"/>
     <cellStyle name="大标题" xfId="3"/>
     <cellStyle name="横向标题" xfId="5"/>
@@ -8269,13 +8315,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>322206</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>141973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8307,13 +8353,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>646974</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>37627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8345,13 +8391,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>674663</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>180068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8383,13 +8429,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>338</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>209011</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>47576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8719,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -8737,7 +8783,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
@@ -8815,10 +8861,10 @@
         <v>43966</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E12" s="46"/>
     </row>
@@ -8827,10 +8873,10 @@
         <v>43976</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E13" s="46"/>
     </row>
@@ -8839,10 +8885,10 @@
         <v>43977</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E14" s="46"/>
     </row>
@@ -8995,8 +9041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z234"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="R193" sqref="R193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9113,7 +9159,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -9632,7 +9678,7 @@
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E163" s="19" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
@@ -9832,7 +9878,7 @@
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E190" s="19" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
     </row>
     <row r="191" spans="2:26" x14ac:dyDescent="0.3">
@@ -10011,7 +10057,7 @@
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F224" s="19" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="225" spans="4:6" x14ac:dyDescent="0.3">
@@ -10074,10 +10120,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z338"/>
+  <dimension ref="A1:Z342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="S335" sqref="S335"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="N186" sqref="N186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10509,7 +10555,7 @@
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.3">
@@ -10685,7 +10731,7 @@
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E180" s="19" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
@@ -10694,214 +10740,215 @@
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="F182" s="29" t="s">
-        <v>721</v>
+      <c r="F182" s="53" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="F183" s="29" t="s">
+      <c r="F183" s="53" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F184" s="29" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C185" s="19" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C184" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="D184" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="E184" s="19"/>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D185" s="19" t="s">
-        <v>726</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="E185" s="19"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D186" s="19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D187" s="19" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C188" s="19" t="s">
+        <v>900</v>
+      </c>
+      <c r="D188" s="19" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D189" s="54" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D190" s="19" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A192" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="B192" s="17" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A188" s="17" t="s">
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="13"/>
+      <c r="K192" s="13"/>
+      <c r="L192" s="13"/>
+      <c r="M192" s="13"/>
+      <c r="N192" s="13"/>
+      <c r="O192" s="13"/>
+      <c r="P192" s="13"/>
+      <c r="Q192" s="13"/>
+      <c r="R192" s="13"/>
+      <c r="S192" s="13"/>
+      <c r="T192" s="13"/>
+      <c r="U192" s="13"/>
+      <c r="V192" s="13"/>
+      <c r="W192" s="13"/>
+      <c r="X192" s="13"/>
+      <c r="Y192" s="13"/>
+      <c r="Z192" s="13"/>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B193" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="C193" s="19" t="s">
         <v>728</v>
       </c>
-      <c r="B188" s="17" t="s">
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C194" s="19" t="s">
         <v>729</v>
       </c>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="13"/>
-      <c r="H188" s="13"/>
-      <c r="I188" s="13"/>
-      <c r="J188" s="13"/>
-      <c r="K188" s="13"/>
-      <c r="L188" s="13"/>
-      <c r="M188" s="13"/>
-      <c r="N188" s="13"/>
-      <c r="O188" s="13"/>
-      <c r="P188" s="13"/>
-      <c r="Q188" s="13"/>
-      <c r="R188" s="13"/>
-      <c r="S188" s="13"/>
-      <c r="T188" s="13"/>
-      <c r="U188" s="13"/>
-      <c r="V188" s="13"/>
-      <c r="W188" s="13"/>
-      <c r="X188" s="13"/>
-      <c r="Y188" s="13"/>
-      <c r="Z188" s="13"/>
-    </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B189" s="18" t="s">
-        <v>642</v>
-      </c>
-      <c r="C189" s="19" t="s">
+      <c r="D194" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C190" s="19" t="s">
+    <row r="230" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C230" s="19" t="s">
         <v>731</v>
       </c>
-      <c r="D190" s="19" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C226" s="19" t="s">
-        <v>733</v>
-      </c>
-      <c r="D226" s="19" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C227" s="19"/>
-      <c r="D227" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="E227" s="19" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C228" s="19"/>
-      <c r="D228" s="19"/>
-      <c r="E228" s="19" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D229" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="E229" s="19" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E230" s="19" t="s">
+      <c r="D230" s="19" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C231" s="19"/>
+      <c r="D231" s="19" t="s">
         <v>772</v>
-      </c>
-    </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D231" s="19" t="s">
-        <v>710</v>
       </c>
       <c r="E231" s="19" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
       <c r="E232" s="19" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C233" s="19" t="s">
+      <c r="D233" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="E233" s="19" t="s">
         <v>769</v>
       </c>
-      <c r="D233" s="19" t="s">
-        <v>751</v>
-      </c>
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D234" s="19" t="s">
+      <c r="E234" s="19" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D235" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="E235" s="19" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="236" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E236" s="19" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="237" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C237" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="D237" s="19" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="238" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D238" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="E234" s="19" t="s">
+      <c r="E238" s="19" t="s">
         <v>653</v>
-      </c>
-    </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E235" s="19" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D236" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="E236" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E237" s="19" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E238" s="19" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E239" s="19" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D240" s="19" t="s">
+        <v>733</v>
+      </c>
       <c r="E240" s="19" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="241" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D241" s="19" t="s">
-        <v>662</v>
-      </c>
       <c r="E241" s="19" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="242" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E242" s="19" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="243" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E243" s="19" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
     </row>
     <row r="244" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E244" s="19"/>
-      <c r="F244" s="12" t="s">
-        <v>745</v>
+      <c r="E244" s="19" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="245" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D245" s="19" t="s">
+        <v>662</v>
+      </c>
       <c r="E245" s="19" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E246" s="19"/>
-      <c r="F246" s="12" t="s">
-        <v>743</v>
+      <c r="E246" s="19" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.3">
@@ -10910,238 +10957,264 @@
       </c>
     </row>
     <row r="248" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F248" s="19" t="s">
-        <v>748</v>
+      <c r="E248" s="19"/>
+      <c r="F248" s="12" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="249" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D249" s="19" t="s">
-        <v>749</v>
-      </c>
       <c r="E249" s="19" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="250" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E250" s="19" t="s">
-        <v>752</v>
+      <c r="E250" s="19"/>
+      <c r="F250" s="12" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="251" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E251" s="19" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
     </row>
     <row r="252" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F252" s="19" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="253" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D253" s="19" t="s">
+        <v>747</v>
+      </c>
       <c r="E253" s="19" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
     </row>
     <row r="254" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F254" s="19" t="s">
-        <v>756</v>
+      <c r="E254" s="19" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="255" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E255" s="19" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="256" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F256" s="19" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E257" s="19" t="s">
-        <v>700</v>
+        <v>753</v>
       </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F258" s="19" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E259" s="19" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F260" s="19" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E261" s="19" t="s">
-        <v>762</v>
+        <v>700</v>
       </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F262" s="19" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E263" s="19" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F264" s="19" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G265" s="19" t="s">
-        <v>766</v>
+      <c r="E265" s="19" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F266" s="19" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G267" s="19" t="s">
-        <v>768</v>
+      <c r="E267" s="19" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B268" s="18" t="s">
+      <c r="F268" s="19" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G269" s="19" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F270" s="19" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G271" s="19" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B272" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="C272" s="19" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C273" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="D273" s="19" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C293" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="D293" s="19" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D294" s="19" t="s">
         <v>779</v>
       </c>
-      <c r="C268" s="19" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C269" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="D269" s="19" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C289" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="D289" s="19" t="s">
+    </row>
+    <row r="296" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A296" s="17" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D290" s="19" t="s">
+      <c r="B296" s="17" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A292" s="17" t="s">
+      <c r="C296" s="13"/>
+      <c r="D296" s="13"/>
+      <c r="E296" s="13"/>
+      <c r="F296" s="13"/>
+      <c r="G296" s="13"/>
+      <c r="H296" s="13"/>
+      <c r="I296" s="13"/>
+      <c r="J296" s="13"/>
+      <c r="K296" s="13"/>
+      <c r="L296" s="13"/>
+      <c r="M296" s="13"/>
+      <c r="N296" s="13"/>
+      <c r="O296" s="13"/>
+      <c r="P296" s="13"/>
+      <c r="Q296" s="13"/>
+      <c r="R296" s="13"/>
+      <c r="S296" s="13"/>
+      <c r="T296" s="13"/>
+      <c r="U296" s="13"/>
+      <c r="V296" s="13"/>
+      <c r="W296" s="13"/>
+      <c r="X296" s="13"/>
+      <c r="Y296" s="13"/>
+      <c r="Z296" s="13"/>
+    </row>
+    <row r="297" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B297" s="19" t="s">
         <v>782</v>
       </c>
-      <c r="B292" s="17" t="s">
+      <c r="C297" s="19" t="s">
         <v>783</v>
       </c>
-      <c r="C292" s="13"/>
-      <c r="D292" s="13"/>
-      <c r="E292" s="13"/>
-      <c r="F292" s="13"/>
-      <c r="G292" s="13"/>
-      <c r="H292" s="13"/>
-      <c r="I292" s="13"/>
-      <c r="J292" s="13"/>
-      <c r="K292" s="13"/>
-      <c r="L292" s="13"/>
-      <c r="M292" s="13"/>
-      <c r="N292" s="13"/>
-      <c r="O292" s="13"/>
-      <c r="P292" s="13"/>
-      <c r="Q292" s="13"/>
-      <c r="R292" s="13"/>
-      <c r="S292" s="13"/>
-      <c r="T292" s="13"/>
-      <c r="U292" s="13"/>
-      <c r="V292" s="13"/>
-      <c r="W292" s="13"/>
-      <c r="X292" s="13"/>
-      <c r="Y292" s="13"/>
-      <c r="Z292" s="13"/>
-    </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B293" s="19" t="s">
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B333" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="C293" s="19" t="s">
+      <c r="C333" s="19" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B329" s="19" t="s">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C334" s="19" t="s">
         <v>786</v>
-      </c>
-      <c r="C329" s="19" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C330" s="19" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D331" s="19" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C332" s="19" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D333" s="19" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B334" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="C334" s="19" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D335" s="19" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D336" s="19" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="C336" s="19" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D337" s="19" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E338" s="19" t="s">
-        <v>901</v>
+        <v>789</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B338" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="C338" s="19" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D339" s="19" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D340" s="19" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D341" s="19" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E342" s="19" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F182" r:id="rId1"/>
+    <hyperlink ref="F183" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -12105,10 +12178,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B21:B27"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="B38:B43"/>
@@ -12116,6 +12185,10 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B21:B27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12208,10 +12281,10 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -12240,46 +12313,46 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -12287,7 +12360,7 @@
         <v>226</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -12316,17 +12389,17 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B45" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -12354,10 +12427,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -12386,20 +12459,20 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -12436,67 +12509,67 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D44" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="19" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D46" s="19" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D47" s="19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D48" s="19" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D50" s="19" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -12533,73 +12606,73 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C91" s="19" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E97" s="19" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E98" s="19" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -12628,10 +12701,10 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
@@ -12639,20 +12712,20 @@
         <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C119" s="19" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
@@ -12660,12 +12733,12 @@
         <v>257</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
@@ -12673,12 +12746,12 @@
         <v>302</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
@@ -12686,37 +12759,37 @@
         <v>97</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E128" s="19" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" s="19" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" s="19" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -12865,7 +12938,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D12" s="19"/>
     </row>
@@ -13201,7 +13274,7 @@
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D125" s="19" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
@@ -13342,7 +13415,7 @@
         <v>285</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D177" s="27"/>
       <c r="E177" s="27"/>
@@ -13384,7 +13457,7 @@
     <row r="180" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C180" s="19"/>
       <c r="D180" s="19" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="181" spans="2:26" x14ac:dyDescent="0.3">
@@ -13392,40 +13465,40 @@
         <v>257</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="182" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C182" s="19"/>
       <c r="D182" s="19" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="183" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C183" s="19"/>
       <c r="D183" s="19"/>
       <c r="E183" s="19" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="184" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
       <c r="E184" s="19" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="185" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C185" s="19"/>
       <c r="D185" s="19" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="186" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C186" s="19"/>
       <c r="D186" s="19"/>
       <c r="E186" s="19" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="187" spans="2:26" x14ac:dyDescent="0.3">
@@ -13438,22 +13511,22 @@
       <c r="C188" s="19"/>
       <c r="D188" s="19"/>
       <c r="E188" s="19" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="189" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C189" s="19" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E189" s="19"/>
     </row>
     <row r="190" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C190" s="19"/>
       <c r="D190" s="19" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E190" s="19"/>
     </row>
@@ -13461,13 +13534,13 @@
       <c r="C191" s="19"/>
       <c r="D191" s="19"/>
       <c r="E191" s="19" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="192" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C192" s="19"/>
       <c r="D192" s="19" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E192" s="19"/>
     </row>
@@ -13475,13 +13548,13 @@
       <c r="C193" s="19"/>
       <c r="D193" s="19"/>
       <c r="E193" s="19" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C194" s="19"/>
       <c r="D194" s="19" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E194" s="19"/>
     </row>
@@ -13489,7 +13562,7 @@
       <c r="C195" s="19"/>
       <c r="D195" s="19"/>
       <c r="E195" s="19" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
@@ -14698,7 +14771,7 @@
     <row r="110" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C110" s="19"/>
       <c r="D110" s="19" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="111" spans="2:26" x14ac:dyDescent="0.3">
@@ -14790,7 +14863,7 @@
         <v>314</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D125" s="27"/>
       <c r="E125" s="27"/>
@@ -14818,33 +14891,33 @@
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C126" s="19" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C128" s="19" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D129" s="19" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D130" s="19" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
